--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -1225,8 +1225,8 @@
   <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -1226,7 +1226,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -1226,7 +1226,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -1373,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>04:03:59</t>
+          <t>04:17:51</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>68.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>10.18</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>63</v>
+        <v>78.62</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>May 27 2:58PM CST</t>
+          <t>May 28 9:27PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,21 +896,21 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:25:30</t>
+          <t>04:49:18</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>66.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>8.59</v>
+        <v>9.98</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:14</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:23PM CST</t>
+          <t>May 28 11:48AM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:46:56</t>
+          <t>03:31:13</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>35.8</v>
+        <v>60.8</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>6.06</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>63</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>May 27 10:28AM CST</t>
+          <t>May 28 2:56PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:17:47</t>
+          <t>03:34:21</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>33.4</v>
+        <v>46.8</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>6.23</v>
+        <v>7.38</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>May 27 2:08PM CST</t>
+          <t>May 28 2:14PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:37:51</t>
+          <t>03:15:19</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>30.2</v>
+        <v>36.4</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>5.14</v>
+        <v>5.13</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>May 27 2:51PM CST</t>
+          <t>May 28 1:27PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,12 +1358,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1376,21 +1376,21 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:18:05</t>
+          <t>02:44:52</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>28.7</v>
+        <v>34.1</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>4.7</v>
+        <v>6.49</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>May 27 11:59AM CST</t>
+          <t>May 28 1:55PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>01:48:58</t>
+          <t>03:00:48</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>25.5</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>4.58</v>
+        <v>5.67</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>47</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:49PM CST</t>
+          <t>May 28 11:39AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01:51:55</t>
+          <t>02:22:54</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>19.7</v>
+        <v>33.1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>9.380000000000001</v>
+        <v>6.04</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:44PM CST</t>
+          <t>May 28 2:38PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:44:57</t>
+          <t>01:16:42</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>12.2</v>
+        <v>20.2</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>51.84</v>
+        <v>56</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>May 27 9:11AM CST</t>
+          <t>May 28 3:39PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:18:39</t>
+          <t>00:11:04</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1.5</v>
+        <v>0.68</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>May 27 2:24PM CST</t>
+          <t>May 28 6:14PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:13:56</t>
+          <t>00:13:00</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:19PM CST</t>
+          <t>May 28 1:38PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,39 +2078,39 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>03:44:46</t>
+          <t>00:20:29</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>71</v>
+        <v>4.1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>6.88</v>
+        <v>2.72</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>42</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>May 27 9:46AM CST</t>
+          <t>May 28 2:53PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>02:33:42</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>54.6</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>16.98</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:52PM CST</t>
+          <t>May 28 7:14PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,31 +2336,31 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>03:04:09</t>
+          <t>04:29:35</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>51.9</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>7.88</v>
+        <v>7.31</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>May 27 2:23PM CST</t>
+          <t>May 28 11:04AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:58:41</t>
+          <t>03:14:07</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>45.5</v>
+        <v>65.2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>66.47</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>May 27 4:59PM CST</t>
+          <t>May 28 11:55AM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:16:31</t>
+          <t>02:53:35</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>45.4</v>
+        <v>52.3</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0</v>
+        <v>8.44</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:01:22</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>77.29000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>May 27 11:44AM CST</t>
+          <t>May 28 1:12PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>02:18:42</t>
+          <t>01:53:21</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>33.3</v>
+        <v>21.9</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>4.82</v>
+        <v>9.65</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:51PM CST</t>
+          <t>May 28 3:07PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,49 +2798,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>01:55:44</t>
+          <t>05:49:27</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>30.6</v>
+        <v>120.4</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>5.79</v>
+        <v>17.52</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:03:29</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>May 27 3:12PM CST</t>
+          <t>May 28 12:23PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>01:30:06</t>
+          <t>02:49:04</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>24.6</v>
+        <v>59.6</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>56.87</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:35PM CST</t>
+          <t>May 28 2:27PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,17 +3038,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
@@ -3056,26 +3056,26 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>03:03:44</t>
+          <t>02:36:15</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>56.3</v>
+        <v>40.9</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>8.390000000000001</v>
+        <v>6.84</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:02:04</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:57PM CST</t>
+          <t>May 28 2:44PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>02:33:00</t>
+          <t>03:26:47</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>53.2</v>
+        <v>57.1</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>3.74</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>64</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>May 27 11:09AM CST</t>
+          <t>May 28 11:09AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,17 +3278,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
@@ -3296,31 +3296,31 @@
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>04:20:59</t>
+          <t>00:54:53</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>90.59999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>14.04</v>
+        <v>4.79</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>May 27 11:40AM CST</t>
+          <t>May 28 2:14PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,12 +3398,12 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -3412,35 +3412,35 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>03:28:39</t>
+          <t>02:11:27</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>65.8</v>
+        <v>38.5</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>10.15</v>
+        <v>4.18</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>May 27 9:32AM CST</t>
+          <t>May 28 12:56PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,49 +3518,49 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>02:41:43</t>
+          <t>05:07:44</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>45.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>7.43</v>
+        <v>14.61</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:02:14</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>May 27 1:48PM CST</t>
+          <t>May 28 5:05PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,54 +3638,54 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>04:00:25</t>
+          <t>03:06:24</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>102.2</v>
+        <v>61.6</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>15.43</v>
+        <v>5.35</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:02:05</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:02:17</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>May 27 3:40PM CST</t>
+          <t>May 28 9:12AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,61 +3758,61 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>95</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>85</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>02:52:00</t>
+          <t>10:44:10</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>60.5</v>
+        <v>526.5</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>8.48</v>
+        <v>72.64</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:01:33</t>
+          <t>00:11:58</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:01:25</t>
+          <t>00:07:02</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>May 27 12:00PM CST</t>
+          <t>May 28 6:37PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>95</v>
+          <t>KENWORTH</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>02:07:13</t>
+          <t>06:28:16</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>39.2</v>
+        <v>327.3</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>7.13</v>
+        <v>81.86</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:03:56</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:03:45</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>116.01</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>May 27 3:06PM CST</t>
+          <t>May 28 1:20PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,61 +3998,61 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>01:30:14</t>
+          <t>10:03:48</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>27.7</v>
+        <v>450.6</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:14:09</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:11:29</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:02:55</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>0</v>
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>106.06</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>May 27 10:26AM CST</t>
+          <t>May 28 6:37AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D30" s="8" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>00:51:36</t>
+          <t>04:30:23</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>19.1</v>
+        <v>119.9</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>7.71</v>
+        <v>16.48</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:02:31</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>May 27 12:50PM CST</t>
+          <t>May 28 10:16AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,54 +4238,54 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>77</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>08:07:02</t>
+          <t>03:34:51</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>367</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>107.94</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:02:40</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:05:47</t>
+          <t>00:02:39</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>121.01</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>May 27 4:55AM CST</t>
+          <t>May 28 2:58PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,81 +4358,81 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>08:23:40</t>
+          <t>07:56:31</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>393.9</v>
+        <v>481.8</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>96.17</v>
+        <v>119</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:16:44</t>
+          <t>00:02:06</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:06:43</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:02:54</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:02:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="R32" s="1" t="inlineStr">
+        <is>
+          <t>May 28 5:16PM CST</t>
+        </is>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1" t="n">
-        <v>106.01</v>
-      </c>
-      <c r="R32" s="1" t="inlineStr">
-        <is>
-          <t>May 27 3:11AM CST</t>
-        </is>
-      </c>
-      <c r="S32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="U32" s="1" t="n">
         <v>0</v>
@@ -4478,54 +4478,54 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>02:16:00</t>
+          <t>04:43:44</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>50.7</v>
+        <v>91.7</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>4.2</v>
+        <v>13.34</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>110.01</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>May 27 9:07AM CST</t>
+          <t>May 28 2:35PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
@@ -4598,74 +4598,74 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>00:58:01</t>
+          <t>05:47:10</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>22.9</v>
+        <v>337.7</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>9</v>
+        <v>79.08</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:16:59</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:05:44</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:04:21</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>109.01</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>May 27 3:43PM CST</t>
+          <t>May 28 3:13PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4718,17 +4718,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D35" s="9" t="n">
@@ -4736,36 +4736,36 @@
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>03:34:14</t>
+          <t>03:24:44</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>85.8</v>
+        <v>102.4</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0</v>
+        <v>11.26</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>00:04:15</t>
+          <t>00:03:33</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>00:04:51</t>
+          <t>00:03:36</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>00:03:52</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>00:02:38</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M35" s="1" t="n">
@@ -4781,18 +4781,18 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>122.78</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>May 27 3:53PM CST</t>
+          <t>May 28 9:55AM CST</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="1" t="n">
         <v>0</v>
@@ -5162,17 +5162,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5324,17 +5324,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>04:17:51</t>
+          <t>02:44:07</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>95.8</v>
+        <v>47.2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>7.57</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>78.62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>May 28 9:27PM CST</t>
+          <t>May 29 9:59AM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>04:49:18</t>
+          <t>02:05:30</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>91.59999999999999</v>
+        <v>44.1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>9.98</v>
+        <v>14.05</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>May 28 11:48AM CST</t>
+          <t>May 29 12:53PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,12 +998,12 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>03:31:13</t>
+          <t>02:22:37</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>60.8</v>
+        <v>34.3</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>9.470000000000001</v>
+        <v>5.96</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>54</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:56PM CST</t>
+          <t>May 29 11:36AM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>03:34:21</t>
+          <t>02:32:08</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>46.8</v>
+        <v>31.8</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>7.38</v>
+        <v>5.36</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:14PM CST</t>
+          <t>May 29 8:49AM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>03:15:19</t>
+          <t>01:53:00</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>36.4</v>
+        <v>26.4</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>5.13</v>
+        <v>4.32</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>May 28 1:27PM CST</t>
+          <t>May 29 1:04PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,14 +1376,14 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:44:52</t>
+          <t>01:29:51</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>34.1</v>
+        <v>16.6</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>6.49</v>
+        <v>8.51</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>59</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>May 28 1:55PM CST</t>
+          <t>May 29 1:33PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>03:00:48</t>
+          <t>00:38:34</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>34</v>
+        <v>13.3</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>5.67</v>
+        <v>4.5</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>May 28 11:39AM CST</t>
+          <t>May 29 5:41PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>02:22:54</t>
+          <t>00:15:40</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>33.1</v>
+        <v>4.1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>6.04</v>
+        <v>1.13</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:38PM CST</t>
+          <t>May 29 3:58PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01:16:42</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>20.2</v>
+        <v>0.1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>2.38</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>May 28 3:39PM CST</t>
+          <t>May 29 6:26PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,44 +1838,44 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:11:04</t>
+          <t>04:28:00</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>4.4</v>
+        <v>93.3</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.68</v>
+        <v>13.53</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>62</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>May 28 6:14PM CST</t>
+          <t>May 29 12:58PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,44 +1958,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:13:00</t>
+          <t>03:52:05</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>4.4</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.77</v>
+        <v>10.71</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:46</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>50</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>May 28 1:38PM CST</t>
+          <t>May 29 12:21PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,44 +2078,44 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:20:29</t>
+          <t>03:38:14</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>4.1</v>
+        <v>61.6</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>2.72</v>
+        <v>8.59</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>42</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:53PM CST</t>
+          <t>May 29 5:40PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>02:23:40</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.1</v>
+        <v>48.7</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>16.98</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>May 28 7:14PM CST</t>
+          <t>May 29 12:37PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,31 +2336,31 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>04:29:35</t>
+          <t>02:38:51</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>85</v>
+        <v>47.5</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>7.31</v>
+        <v>7.78</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>May 28 11:04AM CST</t>
+          <t>May 29 12:54PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,12 +2438,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>03:14:07</t>
+          <t>02:27:21</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>65.2</v>
+        <v>45.4</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>9.720000000000001</v>
+        <v>3.69</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>May 28 11:55AM CST</t>
+          <t>May 29 12:08PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,12 +2558,12 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2576,31 +2576,31 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:53:35</t>
+          <t>02:44:51</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>52.3</v>
+        <v>37.8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>8.44</v>
+        <v>6.96</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>63</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>May 28 1:12PM CST</t>
+          <t>May 29 11:00AM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>01:53:21</t>
+          <t>00:36:49</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>21.9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>9.65</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>60.09</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>May 28 3:07PM CST</t>
+          <t>May 29 6:19PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,17 +2798,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -2816,31 +2816,31 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>05:49:27</t>
+          <t>03:00:53</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>120.4</v>
+        <v>46.9</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>17.52</v>
+        <v>7.76</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:03:29</t>
+          <t>00:01:51</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>May 28 12:23PM CST</t>
+          <t>May 29 2:20PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>02:49:04</t>
+          <t>04:50:34</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>59.6</v>
+        <v>119.1</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>9.609999999999999</v>
+        <v>14.79</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:02:15</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:02:22</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:27PM CST</t>
+          <t>May 29 12:54PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>02:36:15</t>
+          <t>03:19:44</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>40.9</v>
+        <v>78.5</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>6.84</v>
+        <v>6.12</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:01:38</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:44PM CST</t>
+          <t>May 29 1:49PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,17 +3158,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>03:26:47</t>
+          <t>03:24:06</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>57.1</v>
+        <v>57.3</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>9.199999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>64</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>May 28 11:09AM CST</t>
+          <t>May 29 2:51PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>00:54:53</t>
+          <t>02:33:15</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>10.8</v>
+        <v>53.8</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>4.79</v>
+        <v>4.54</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>102.01</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:14PM CST</t>
+          <t>May 29 10:37AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3416,26 +3416,26 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:11:27</t>
+          <t>02:47:07</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>38.5</v>
+        <v>52.9</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>4.18</v>
+        <v>5.64</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:02:50</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>May 28 12:56PM CST</t>
+          <t>May 29 10:35AM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,17 +3518,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
@@ -3536,31 +3536,31 @@
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>05:07:44</t>
+          <t>02:27:41</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>90.09999999999999</v>
+        <v>47.7</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>14.61</v>
+        <v>7.45</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:02:14</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:02:18</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>May 28 5:05PM CST</t>
+          <t>May 29 1:54PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,49 +3638,49 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>03:06:24</t>
+          <t>03:17:06</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>61.6</v>
+        <v>51.5</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:02:05</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:01:58</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>83.16</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>May 28 9:12AM CST</t>
+          <t>May 29 6:56PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,61 +3758,61 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>10:44:10</t>
+          <t>04:14:37</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>526.5</v>
+        <v>110.6</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>72.64</v>
+        <v>15.46</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:11:58</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:07:02</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>May 28 6:37PM CST</t>
+          <t>May 29 12:28PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D28" s="8" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>06:28:16</t>
+          <t>07:30:20</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>327.3</v>
+        <v>353.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>81.86</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:03:56</t>
+          <t>00:05:27</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:03:45</t>
+          <t>00:05:47</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>116.01</v>
+        <v>94.66</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>May 28 1:20PM CST</t>
+          <t>May 29 5:26AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,62 +3998,62 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>10:03:48</t>
+          <t>03:44:18</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>450.6</v>
+        <v>180.6</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>23.03</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:14:09</t>
+          <t>00:02:05</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:11:29</t>
+          <t>00:04:13</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:02:55</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:14</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N29" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="O29" s="1" t="n">
         <v>0</v>
       </c>
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>106.06</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>May 28 6:37AM CST</t>
+          <t>May 29 8:55AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D30" s="8" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>04:30:23</t>
+          <t>02:50:42</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>119.9</v>
+        <v>82.5</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>16.48</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:02:31</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:02:28</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:01:01</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>105.32</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>May 28 10:16AM CST</t>
+          <t>May 29 4:45PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,54 +4238,54 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>03:34:51</t>
+          <t>05:44:15</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>70.09999999999999</v>
+        <v>147.5</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0</v>
+        <v>16.45</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:02:40</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:02:39</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>95.54000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:58PM CST</t>
+          <t>May 29 10:07AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,81 +4358,81 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>07:56:31</t>
+          <t>07:00:52</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>481.8</v>
+        <v>372.4</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>119</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>00:07:32</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>00:16:14</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>00:05:40</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>00:00:38</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>00:02:06</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>00:01:09</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>May 28 5:16PM CST</t>
+          <t>May 29 7:19AM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1" t="n">
         <v>0</v>
@@ -4478,62 +4478,62 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>04:43:44</t>
+          <t>04:48:38</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>91.7</v>
+        <v>318.7</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>13.34</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>00:02:32</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>00:05:22</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>00:01:19</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:57</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>00:01:13</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:20</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:11</t>
-        </is>
-      </c>
-      <c r="L33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:33</t>
-        </is>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
       </c>
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>103.09</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>May 28 2:35PM CST</t>
+          <t>May 29 11:38AM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
@@ -4598,87 +4598,87 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>05:47:10</t>
+          <t>06:17:37</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>337.7</v>
+        <v>118.4</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>79.08</v>
+        <v>18.55</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:16:59</t>
+          <t>00:02:41</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:05:44</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:04:21</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>83.01000000000001</v>
+      </c>
+      <c r="R34" s="1" t="inlineStr">
+        <is>
+          <t>May 29 3:44PM CST</t>
+        </is>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>109.01</v>
-      </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t>May 28 3:13PM CST</t>
-        </is>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="W34" s="1" t="n">
         <v>0</v>
@@ -4718,137 +4718,179 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>03:24:44</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>00:03:33</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>00:03:36</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>May 28 9:55AM CST</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1" t="n">
-        <v>0</v>
+          <t>NISSAN 1993</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
@@ -5000,17 +5042,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
@@ -5324,17 +5366,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02:44:07</t>
+          <t>03:31:38</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>47.2</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>7.57</v>
+        <v>11.21</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>61</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>May 29 9:59AM CST</t>
+          <t>Jun 2 8:38AM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>02:05:30</t>
+          <t>03:03:22</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>44.1</v>
+        <v>57.9</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>14.05</v>
+        <v>5.38</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:53PM CST</t>
+          <t>Jun 2 3:35PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:22:37</t>
+          <t>02:27:14</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>34.3</v>
+        <v>50.8</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5.96</v>
+        <v>5.3</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>54</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>May 29 11:36AM CST</t>
+          <t>Jun 2 12:44PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:32:08</t>
+          <t>02:47:17</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>31.8</v>
+        <v>47.6</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>5.36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>May 29 8:49AM CST</t>
+          <t>Jun 2 12:00PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>02:58:12</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>26.4</v>
+        <v>47.3</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>4.32</v>
+        <v>7.97</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>May 29 1:04PM CST</t>
+          <t>Jun 2 12:18PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,14 +1376,14 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>01:29:51</t>
+          <t>02:07:34</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>16.6</v>
+        <v>44.9</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>8.51</v>
+        <v>5.83</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>May 29 1:33PM CST</t>
+          <t>Jun 2 2:45PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>00:38:34</t>
+          <t>02:15:47</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>13.3</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>4.5</v>
+        <v>4.27</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>May 29 5:41PM CST</t>
+          <t>Jun 2 12:53PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>00:15:40</t>
+          <t>02:05:21</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4.1</v>
+        <v>27.2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1.13</v>
+        <v>4.22</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>May 29 3:58PM CST</t>
+          <t>Jun 2 9:27AM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>01:35:43</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.1</v>
+        <v>26.3</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>May 29 6:26PM CST</t>
+          <t>Jun 2 2:17PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,44 +1838,44 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>04:28:00</t>
+          <t>01:53:08</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>93.3</v>
+        <v>24.8</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>13.53</v>
+        <v>4.2</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>86.01000000000001</v>
+        <v>57</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:58PM CST</t>
+          <t>Jun 2 3:20PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,44 +1958,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>03:52:05</t>
+          <t>01:35:50</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>69.40000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>10.71</v>
+        <v>3.19</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:01:46</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>48</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:21PM CST</t>
+          <t>Jun 2 2:24PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,44 +2078,44 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>03:38:14</t>
+          <t>00:23:00</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>61.6</v>
+        <v>4.4</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>8.59</v>
+        <v>2.52</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>39</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>May 29 5:40PM CST</t>
+          <t>Jun 2 4:49PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>02:23:40</t>
+          <t>00:16:44</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>48.7</v>
+        <v>4.1</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>33</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:37PM CST</t>
+          <t>Jun 2 4:06PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,44 +2318,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>02:38:51</t>
+          <t>00:23:17</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>47.5</v>
+        <v>3.5</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>7.78</v>
+        <v>2.5</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>36</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:54PM CST</t>
+          <t>Jun 2 11:46AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,44 +2438,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:27:21</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>45.4</v>
+        <v>0.4</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>20.74</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:08PM CST</t>
+          <t>Jun 2 4:41PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,49 +2558,49 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:44:51</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>37.8</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>6.96</v>
+        <v>0.11</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>May 29 11:00AM CST</t>
+          <t>Jun 2 7:13AM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,44 +2678,44 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>00:36:49</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>11</v>
+        <v>0.1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>60.09</v>
+        <v>23</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>May 29 6:19PM CST</t>
+          <t>Jun 2 9:01PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,44 +2798,44 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>03:00:53</t>
+          <t>00:01:22</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>46.9</v>
+        <v>0.1</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>7.76</v>
+        <v>1.47</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:01:51</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>14</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>May 29 2:20PM CST</t>
+          <t>Jun 2 4:05PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>04:50:34</t>
+          <t>05:26:48</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>119.1</v>
+        <v>206.4</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>14.79</v>
+        <v>20.57</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:02:15</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:02:22</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:54PM CST</t>
+          <t>Jun 2 12:10PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>03:19:44</t>
+          <t>02:04:49</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>78.5</v>
+        <v>62.9</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>6.12</v>
+        <v>12.56</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:38</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>May 29 1:49PM CST</t>
+          <t>Jun 2 8:44AM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>03:24:06</t>
+          <t>04:27:25</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>57.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>9.52</v>
+        <v>15.62</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:03:49</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>May 29 2:51PM CST</t>
+          <t>Jun 2 11:03AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>02:33:15</t>
+          <t>03:27:27</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>53.8</v>
+        <v>83.8</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>4.54</v>
+        <v>20.68</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:02:36</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>102.01</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>May 29 10:37AM CST</t>
+          <t>Jun 2 11:46AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,49 +3398,49 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:47:07</t>
+          <t>02:10:46</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>52.9</v>
+        <v>40.4</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>5.64</v>
+        <v>6.35</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:02:50</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:01:33</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>May 29 10:35AM CST</t>
+          <t>Jun 2 1:13PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,49 +3518,49 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>02:27:41</t>
+          <t>02:33:44</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>47.7</v>
+        <v>37.1</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>7.45</v>
+        <v>4.34</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>65.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>May 29 1:54PM CST</t>
+          <t>Jun 2 9:20AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,49 +3638,49 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>03:17:06</t>
+          <t>01:31:51</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>51.5</v>
+        <v>31.8</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:01:58</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>83.16</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>May 29 6:56PM CST</t>
+          <t>Jun 2 10:52AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>88</v>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>97</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>04:14:37</t>
+          <t>01:17:09</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>110.6</v>
+        <v>19.4</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>15.46</v>
+        <v>3.79</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>May 29 12:28PM CST</t>
+          <t>Jun 2 5:28PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,29 +3878,29 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>83</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>96</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>07:30:20</t>
+          <t>03:34:47</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>353.4</v>
+        <v>80.8</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0</v>
@@ -3910,22 +3910,22 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:05:27</t>
+          <t>00:01:50</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:05:47</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>94.66</v>
+        <v>87.81</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>May 29 5:26AM CST</t>
+          <t>Jun 2 5:06PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,61 +3998,61 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>03:44:18</t>
+          <t>01:46:03</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>180.6</v>
+        <v>38.2</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>23.03</v>
+        <v>5.85</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:02:05</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:04:13</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>0</v>
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>May 29 8:55AM CST</t>
+          <t>Jun 2 4:47PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,29 +4118,29 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D30" s="8" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>02:50:42</t>
+          <t>09:38:36</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>82.5</v>
+        <v>466</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
@@ -4150,22 +4150,22 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:04:32</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:04:47</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:01:01</t>
+          <t>00:04:51</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>105.32</v>
+        <v>104.42</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>May 29 4:45PM CST</t>
+          <t>Jun 2 5:43PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,59 +4238,59 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="n">
-        <v>67</v>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>05:44:15</t>
+          <t>05:49:24</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>147.5</v>
+        <v>282.4</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>00:12:48</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>00:06:54</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:38</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:22</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>00:01:44</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:44</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" s="1" t="n">
         <v>0</v>
       </c>
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>104.39</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>May 29 10:07AM CST</t>
+          <t>Jun 2 6:19PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,74 +4358,74 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>55</v>
+          <t>TOYOTA HILUX 2018</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>07:00:52</t>
+          <t>02:15:51</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>372.4</v>
+        <v>45.7</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>91.90000000000001</v>
+        <v>7.35</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:07:32</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:16:14</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:05:40</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>97.01000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>May 29 7:19AM CST</t>
+          <t>Jun 2 3:44PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,61 +4478,61 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="n">
-        <v>55</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>73</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>04:48:38</t>
+          <t>02:53:29</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>318.7</v>
+        <v>56.6</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:02:32</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:05:22</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>103.09</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>May 29 11:38AM CST</t>
+          <t>Jun 2 9:23AM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4598,54 +4598,54 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>06:17:37</t>
+          <t>04:36:22</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>118.4</v>
+        <v>109.3</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>18.55</v>
+        <v>14.18</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:02:41</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
@@ -4661,11 +4661,11 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>May 29 3:44PM CST</t>
+          <t>Jun 2 12:28PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="1" t="n">
         <v>0</v>
@@ -4718,17 +4718,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr">
@@ -4880,17 +4880,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
@@ -5042,17 +5042,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
@@ -5204,17 +5204,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5366,12 +5366,12 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>03:31:38</t>
+          <t>03:29:06</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>80</v>
+        <v>85.3</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>11.21</v>
+        <v>10.53</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 8:38AM CST</t>
+          <t>Jun 3 1:59PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:03:22</t>
+          <t>03:39:12</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>57.9</v>
+        <v>72.2</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>5.38</v>
+        <v>6.43</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 3:35PM CST</t>
+          <t>Jun 3 1:52PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:27:14</t>
+          <t>02:39:31</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>50.8</v>
+        <v>39.9</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>65.01000000000001</v>
+        <v>58.99</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 12:44PM CST</t>
+          <t>Jun 3 1:40PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:47:17</t>
+          <t>02:15:46</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>47.6</v>
+        <v>34.2</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>8.199999999999999</v>
+        <v>4.67</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 12:00PM CST</t>
+          <t>Jun 3 1:29PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:58:12</t>
+          <t>02:23:59</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>47.3</v>
+        <v>31.9</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>7.97</v>
+        <v>6.26</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 12:18PM CST</t>
+          <t>Jun 3 2:49PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:07:34</t>
+          <t>02:06:10</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>44.9</v>
+        <v>28.3</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>5.83</v>
+        <v>4.98</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>45</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 2:45PM CST</t>
+          <t>Jun 3 2:13PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:15:47</t>
+          <t>01:52:09</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>4.27</v>
+        <v>5.09</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>52</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 12:53PM CST</t>
+          <t>Jun 3 3:01PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>02:05:21</t>
+          <t>02:23:28</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>27.2</v>
+        <v>26.6</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>4.22</v>
+        <v>5.16</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 9:27AM CST</t>
+          <t>Jun 3 2:18PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01:35:43</t>
+          <t>02:08:59</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>26.3</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>4.7</v>
+        <v>9.81</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 2:17PM CST</t>
+          <t>Jun 3 2:22PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,21 +1856,21 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>01:53:08</t>
+          <t>00:47:10</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>24.8</v>
+        <v>11.9</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>57</v>
+        <v>57.69</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 3:20PM CST</t>
+          <t>Jun 3 12:33PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,21 +1976,21 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>01:35:50</t>
+          <t>00:21:21</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>23.8</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>3.19</v>
+        <v>1.19</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 2:24PM CST</t>
+          <t>Jun 3 4:03PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:23:00</t>
+          <t>00:08:13</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 4:49PM CST</t>
+          <t>Jun 3 2:10PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2212,35 +2212,35 @@
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:16:44</t>
+          <t>06:00:14</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>4.1</v>
+        <v>348.6</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>2.5</v>
+        <v>90.5</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>33</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 4:06PM CST</t>
+          <t>Jun 3 11:22AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,44 +2318,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>00:23:17</t>
+          <t>04:10:05</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>3.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>2.5</v>
+        <v>12.78</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>36</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 11:46AM CST</t>
+          <t>Jun 3 2:20PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,44 +2438,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>00:03:41</t>
+          <t>04:00:44</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>12.46</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>20.74</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 4:41PM CST</t>
+          <t>Jun 3 5:43PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,44 +2558,44 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>03:48:37</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.1</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.11</v>
+        <v>9.98</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>24</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 7:13AM CST</t>
+          <t>Jun 3 3:06PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,44 +2678,44 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>03:02:17</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.1</v>
+        <v>45.2</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0.72</v>
+        <v>8.44</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>23</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 9:01PM CST</t>
+          <t>Jun 3 9:40AM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,44 +2798,44 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>02:05:35</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.1</v>
+        <v>39.8</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1.47</v>
+        <v>7.47</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>14</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 4:05PM CST</t>
+          <t>Jun 3 4:03PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,17 +2918,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
@@ -2936,26 +2936,26 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>05:26:48</t>
+          <t>01:50:44</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>206.4</v>
+        <v>30.8</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>20.57</v>
+        <v>2.8</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>95.01000000000001</v>
+        <v>60</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 12:10PM CST</t>
+          <t>Jun 3 8:48PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>02:04:49</t>
+          <t>03:38:19</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>62.9</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>12.56</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>88.78</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 8:44AM CST</t>
+          <t>Jun 3 8:49AM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,17 +3158,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>04:27:25</t>
+          <t>03:07:05</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>84.09999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>15.62</v>
+        <v>7.59</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:03:49</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 11:03AM CST</t>
+          <t>Jun 3 8:37AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>03:27:27</t>
+          <t>03:06:55</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>83.8</v>
+        <v>52.3</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>20.68</v>
+        <v>8.31</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:02:36</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:02:12</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 11:46AM CST</t>
+          <t>Jun 3 1:37PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3412,35 +3412,35 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:10:46</t>
+          <t>01:54:37</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>40.4</v>
+        <v>31.4</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>6.35</v>
+        <v>6.52</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:01:33</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 1:13PM CST</t>
+          <t>Jun 3 2:53PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,12 +3518,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3532,35 +3532,35 @@
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>02:33:44</t>
+          <t>02:29:32</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>37.1</v>
+        <v>53.2</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>4.34</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 9:20AM CST</t>
+          <t>Jun 3 11:02AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,49 +3638,49 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>01:31:51</t>
+          <t>03:15:14</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>31.8</v>
+        <v>59.7</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>4.23</v>
+        <v>7.47</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 10:52AM CST</t>
+          <t>Jun 3 4:01PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>97</v>
+          <t>TOYOTA HILUX 2018</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>01:17:09</t>
+          <t>04:04:22</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>19.4</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>3.79</v>
+        <v>17.06</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 5:28PM CST</t>
+          <t>Jun 3 3:58PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>96</v>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:34:47</t>
+          <t>03:50:53</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>80.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>87.81</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 5:06PM CST</t>
+          <t>Jun 3 11:54AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,49 +3998,49 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>01:46:03</t>
+          <t>03:00:46</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>38.2</v>
+        <v>59.1</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>5.85</v>
+        <v>5.22</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -4055,17 +4055,17 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 4:47PM CST</t>
+          <t>Jun 3 10:02AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>80</v>
+          <t>KENWORTH</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>09:38:36</t>
+          <t>08:18:26</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>466</v>
+        <v>380.9</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>104.52</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:04:32</t>
+          <t>00:05:22</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:04:47</t>
+          <t>00:03:45</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:04:51</t>
+          <t>00:01:47</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>104.42</v>
+        <v>121.01</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 5:43PM CST</t>
+          <t>Jun 3 5:17AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="1" t="n">
         <v>0</v>
@@ -4238,61 +4238,61 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>80</v>
+          <t>HINO 500</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>05:49:24</t>
+          <t>06:34:59</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>282.4</v>
+        <v>364.3</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:12:48</t>
+          <t>00:05:29</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:06:54</t>
+          <t>00:14:22</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:05:35</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:02:43</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>0</v>
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>104.39</v>
+        <v>104.01</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 6:19PM CST</t>
+          <t>Jun 3 4:02AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,44 +4358,44 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>79</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>02:15:51</t>
+          <t>04:16:14</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>45.7</v>
+        <v>75</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>7.35</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:01</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
@@ -4421,18 +4421,18 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 3:44PM CST</t>
+          <t>Jun 3 4:22PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1" t="n">
         <v>0</v>
@@ -4478,12 +4478,12 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -4491,41 +4491,41 @@
           <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
-      <c r="D33" s="8" t="n">
-        <v>73</v>
+      <c r="D33" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>02:53:29</t>
+          <t>02:20:37</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>56.6</v>
+        <v>57.7</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:02:51</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:02:28</t>
+          <t>00:02:53</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
@@ -4545,14 +4545,14 @@
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 2 9:23AM CST</t>
+          <t>Jun 3 9:54AM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1" t="n">
         <v>0</v>
@@ -4598,137 +4598,179 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>04:36:22</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>109.3</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>00:01:34</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:50</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>74.01000000000001</v>
-      </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t>Jun 2 12:28PM CST</t>
-        </is>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1" t="n">
-        <v>0</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr">
@@ -4880,17 +4922,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
@@ -5042,17 +5084,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
@@ -5204,17 +5246,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5366,17 +5408,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>03:29:06</t>
+          <t>04:50:18</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>85.3</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>10.53</v>
+        <v>14.31</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 1:59PM CST</t>
+          <t>Jun 4 12:53PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,28 +896,28 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:39:12</t>
+          <t>03:38:59</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>72.2</v>
+        <v>80.3</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
+          <t>00:00:26</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
           <t>00:00:15</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>74.44</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 1:52PM CST</t>
+          <t>Jun 4 2:29PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:39:31</t>
+          <t>03:24:18</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>39.9</v>
+        <v>61.3</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>58.99</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 1:40PM CST</t>
+          <t>Jun 4 3:36PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:15:46</t>
+          <t>03:37:11</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>34.2</v>
+        <v>57.5</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>4.67</v>
+        <v>5.43</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 1:29PM CST</t>
+          <t>Jun 4 4:35PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:23:59</t>
+          <t>02:44:06</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>31.9</v>
+        <v>39.5</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>6.26</v>
+        <v>7.13</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 2:49PM CST</t>
+          <t>Jun 4 1:15PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1376,14 +1376,14 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:06:10</t>
+          <t>02:51:12</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>28.3</v>
+        <v>35.4</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>4.98</v>
+        <v>5.91</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 2:13PM CST</t>
+          <t>Jun 4 2:25PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>01:52:09</t>
+          <t>02:42:19</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>26.8</v>
+        <v>35.1</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>5.09</v>
+        <v>6.14</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>52</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 3:01PM CST</t>
+          <t>Jun 4 9:25AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>02:23:28</t>
+          <t>01:50:11</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>26.6</v>
+        <v>28.4</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>5.16</v>
+        <v>2.8</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 2:18PM CST</t>
+          <t>Jun 4 5:22PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>02:08:59</t>
+          <t>02:01:17</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>9.81</v>
+        <v>10.8</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 2:22PM CST</t>
+          <t>Jun 4 2:19PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,26 +1856,26 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:47:10</t>
+          <t>02:10:58</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>11.9</v>
+        <v>21.9</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>57.69</v>
+        <v>60</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 12:33PM CST</t>
+          <t>Jun 4 3:00PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,21 +1976,21 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:21:21</t>
+          <t>00:17:34</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1.19</v>
+        <v>2.81</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 4:03PM CST</t>
+          <t>Jun 4 2:42PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:08:13</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 2:10PM CST</t>
+          <t>Jun 4 7:15PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,17 +2198,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
@@ -2216,31 +2216,31 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>06:00:14</t>
+          <t>03:40:34</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>348.6</v>
+        <v>58.5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>90.5</v>
+        <v>9.77</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 11:22AM CST</t>
+          <t>Jun 4 1:49PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,21 +2336,21 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>04:10:05</t>
+          <t>02:51:57</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>84.59999999999999</v>
+        <v>51.4</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>12.78</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 2:20PM CST</t>
+          <t>Jun 4 1:22PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,44 +2438,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>04:00:44</t>
+          <t>02:55:38</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>70.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>12.46</v>
+        <v>10.23</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:02:05</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 5:43PM CST</t>
+          <t>Jun 4 1:40PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,49 +2558,49 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>03:48:37</t>
+          <t>02:24:37</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>61</v>
+        <v>38.8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>9.98</v>
+        <v>3.91</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:30</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>65.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 3:06PM CST</t>
+          <t>Jun 4 9:00AM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>03:02:17</t>
+          <t>02:05:52</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>45.2</v>
+        <v>31.2</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>8.44</v>
+        <v>5.53</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 9:40AM CST</t>
+          <t>Jun 4 1:28PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,49 +2798,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>02:05:35</t>
+          <t>05:32:28</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>39.8</v>
+        <v>122</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>7.47</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:02:09</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>87.73</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 4:03PM CST</t>
+          <t>Jun 4 1:47PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>01:50:44</t>
+          <t>03:18:53</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>30.8</v>
+        <v>77.7</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>2.8</v>
+        <v>10.67</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:02:07</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>60</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 8:48PM CST</t>
+          <t>Jun 4 2:44PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>03:38:19</t>
+          <t>03:06:49</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>87</v>
+        <v>59.7</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>88.78</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 8:49AM CST</t>
+          <t>Jun 4 1:12PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>03:07:05</t>
+          <t>00:37:42</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>52.1</v>
+        <v>10.9</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>7.59</v>
+        <v>2.83</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>63</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 8:37AM CST</t>
+          <t>Jun 4 2:45PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>03:06:55</t>
+          <t>04:54:06</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>52.3</v>
+        <v>111.6</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>8.31</v>
+        <v>15.02</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:03:04</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:02:12</t>
+          <t>00:02:37</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 1:37PM CST</t>
+          <t>Jun 4 12:22PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,44 +3398,44 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>01:54:37</t>
+          <t>02:57:34</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>31.4</v>
+        <v>72.5</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>6.52</v>
+        <v>6.72</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 2:53PM CST</t>
+          <t>Jun 4 10:04AM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,49 +3518,49 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>02:29:32</t>
+          <t>02:46:40</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>53.2</v>
+        <v>54.5</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>7</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 11:02AM CST</t>
+          <t>Jun 4 2:19PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,54 +3638,54 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>94</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>03:15:14</t>
+          <t>02:25:21</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>59.7</v>
+        <v>41.2</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>7.47</v>
+        <v>4.5</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:01:36</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 4:01PM CST</t>
+          <t>Jun 4 12:19PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>04:04:22</t>
+          <t>09:12:44</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>134</v>
+        <v>427.7</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>17.06</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:12:39</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:08:01</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>99.61</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 3:58PM CST</t>
+          <t>Jun 4 6:17AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,49 +3878,49 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D28" s="8" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:50:53</t>
+          <t>03:11:12</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>76.90000000000001</v>
+        <v>61.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>10.9</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 11:54AM CST</t>
+          <t>Jun 4 1:02PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>03:00:46</t>
+          <t>05:27:42</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>59.1</v>
+        <v>350</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>5.22</v>
+        <v>85.5</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:02:10</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4055,17 +4055,17 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>86.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 10:02AM CST</t>
+          <t>Jun 4 1:26PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="n">
-        <v>68</v>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>08:18:26</t>
+          <t>03:23:03</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>380.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>104.52</v>
+        <v>12.84</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:05:22</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:03:45</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:01:47</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>121.01</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 5:17AM CST</t>
+          <t>Jun 4 12:52PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1" t="n">
         <v>0</v>
@@ -4238,74 +4238,74 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>06:34:59</t>
+          <t>12:13:32</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>364.3</v>
+        <v>574.2</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>87.5</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:05:29</t>
+          <t>00:13:40</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:14:22</t>
+          <t>00:13:19</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:05:35</t>
+          <t>00:07:49</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:02:43</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>104.01</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 4:02AM CST</t>
+          <t>Jun 4 5:08PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,81 +4358,81 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>04:16:14</t>
+          <t>10:37:43</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>75</v>
+        <v>571.4</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>00:11:05</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>00:13:18</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>00:05:40</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>00:02:56</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>00:01:01</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>00:01:14</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>81.56999999999999</v>
+        <v>99.34</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 4:22PM CST</t>
+          <t>Jun 4 2:02PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1" t="n">
         <v>0</v>
@@ -4478,58 +4478,58 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>02:20:37</t>
+          <t>06:10:55</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>57.7</v>
+        <v>346</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>5</v>
+        <v>83.7</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:02:51</t>
+          <t>00:10:54</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:02:53</t>
+          <t>00:05:17</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:04:32</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>0</v>
@@ -4541,18 +4541,18 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>103.01</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 3 9:54AM CST</t>
+          <t>Jun 4 1:15PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1" t="n">
         <v>0</v>
@@ -4598,179 +4598,137 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>KENWORTH</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>05:58:21</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>317.3</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>77.04000000000001</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>00:03:40</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>00:03:52</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>00:01:16</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>00:01:04</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>120.01</v>
+      </c>
+      <c r="R34" s="1" t="inlineStr">
+        <is>
+          <t>Jun 4 11:02AM CST</t>
+        </is>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr">
@@ -4922,17 +4880,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
@@ -5084,17 +5042,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
@@ -5408,17 +5366,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,14 +776,14 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>04:50:18</t>
+          <t>04:37:32</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>100</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>14.31</v>
+        <v>11.37</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 12:53PM CST</t>
+          <t>Jun 5 5:07PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,28 +896,28 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:38:59</t>
+          <t>03:10:33</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>80.3</v>
+        <v>65.7</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>10.83</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
+          <t>00:00:29</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
           <t>00:00:26</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>00:00:15</t>
-        </is>
-      </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>74.44</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:29PM CST</t>
+          <t>Jun 5 1:01PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>03:24:18</t>
+          <t>03:53:45</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>61.3</v>
+        <v>59.6</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>8.289999999999999</v>
+        <v>5.59</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>65.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 3:36PM CST</t>
+          <t>Jun 5 9:14AM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>03:37:11</t>
+          <t>03:34:59</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>57.5</v>
+        <v>44.1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>5.43</v>
+        <v>6.96</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 4:35PM CST</t>
+          <t>Jun 5 2:11PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:44:06</t>
+          <t>02:06:32</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>39.5</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>7.13</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>58</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:15PM CST</t>
+          <t>Jun 5 10:08AM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:51:12</t>
+          <t>02:48:13</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>35.4</v>
+        <v>41.4</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>5.91</v>
+        <v>6.94</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:25PM CST</t>
+          <t>Jun 5 11:56AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1496,21 +1496,21 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:42:19</t>
+          <t>02:40:23</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>35.1</v>
+        <v>34.1</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>6.14</v>
+        <v>6.27</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 9:25AM CST</t>
+          <t>Jun 5 9:58AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01:50:11</t>
+          <t>01:30:01</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>28.4</v>
+        <v>21.2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 5:22PM CST</t>
+          <t>Jun 5 7:24AM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>02:01:17</t>
+          <t>01:50:31</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>22.8</v>
+        <v>20.5</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>10.8</v>
+        <v>8.98</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:19PM CST</t>
+          <t>Jun 5 2:44PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,26 +1856,26 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>02:10:58</t>
+          <t>00:19:24</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>21.9</v>
+        <v>4.1</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>3.84</v>
+        <v>2.24</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 3:00PM CST</t>
+          <t>Jun 5 4:27PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:17:34</t>
+          <t>00:02:33</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:42PM CST</t>
+          <t>Jun 5 11:48AM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:03:10</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.29</v>
+        <v>0.74</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 7:15PM CST</t>
+          <t>Jun 5 7:35AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>03:40:34</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>58.5</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>9.77</v>
+        <v>0.46</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>23</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:49PM CST</t>
+          <t>Jun 5 7:41PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,26 +2336,26 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>02:51:57</t>
+          <t>04:00:54</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>51.4</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>8.130000000000001</v>
+        <v>12.58</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:22PM CST</t>
+          <t>Jun 5 3:16PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,44 +2438,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:55:38</t>
+          <t>03:13:47</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>74.09999999999999</v>
+        <v>56.4</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>10.23</v>
+        <v>8.66</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:02:05</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:02:10</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:40PM CST</t>
+          <t>Jun 5 1:41PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:24:37</t>
+          <t>02:39:41</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>38.8</v>
+        <v>46.9</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>3.91</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 9:00AM CST</t>
+          <t>Jun 5 2:57PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,31 +2696,31 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>02:05:52</t>
+          <t>01:45:19</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>31.2</v>
+        <v>37.3</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>5.53</v>
+        <v>5.36</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:28PM CST</t>
+          <t>Jun 5 3:57PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,17 +2798,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -2816,11 +2816,11 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>05:32:28</t>
+          <t>05:25:42</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>122</v>
+        <v>165.8</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
@@ -2830,17 +2830,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:02:09</t>
+          <t>00:03:23</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:04:09</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>0</v>
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>87.73</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:47PM CST</t>
+          <t>Jun 5 7:20PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,17 +2918,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
@@ -2936,31 +2936,31 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>03:18:53</t>
+          <t>05:30:04</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>77.7</v>
+        <v>120.9</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>10.67</v>
+        <v>16.29</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:03:17</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:02:07</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:44PM CST</t>
+          <t>Jun 5 1:35PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,17 +3038,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
@@ -3056,26 +3056,26 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>03:06:49</t>
+          <t>04:50:29</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>59.7</v>
+        <v>116.6</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>9.710000000000001</v>
+        <v>16.86</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:01:33</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:12PM CST</t>
+          <t>Jun 5 10:09AM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,12 +3158,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>00:37:42</t>
+          <t>03:36:43</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>10.9</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>2.83</v>
+        <v>9.84</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:01:55</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:01:47</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>63</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:45PM CST</t>
+          <t>Jun 5 3:14PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>04:54:06</t>
+          <t>02:16:53</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>111.6</v>
+        <v>46.9</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>15.02</v>
+        <v>7.4</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:03:04</t>
+          <t>00:00:41</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:02:37</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>64</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 12:22PM CST</t>
+          <t>Jun 5 4:05PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,17 +3398,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D24" s="7" t="n">
@@ -3416,43 +3416,43 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:57:34</t>
+          <t>04:34:36</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>72.5</v>
+        <v>149.4</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>6.72</v>
+        <v>16.46</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:05:21</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:03:59</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1" t="n">
         <v>0</v>
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 10:04AM CST</t>
+          <t>Jun 5 3:14PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,17 +3518,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
@@ -3536,36 +3536,36 @@
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>02:46:40</t>
+          <t>05:00:01</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>54.5</v>
+        <v>132.7</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>8.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:03:12</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:19PM CST</t>
+          <t>Jun 5 12:44PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,61 +3638,61 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>02:25:21</t>
+          <t>06:47:38</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>41.2</v>
+        <v>363.7</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>4.5</v>
+        <v>88.81</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:04:48</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:13:43</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 12:19PM CST</t>
+          <t>Jun 5 10:07AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>09:12:44</t>
+          <t>03:54:10</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>427.7</v>
+        <v>120.5</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0</v>
+        <v>16.39</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:12:39</t>
+          <t>00:03:39</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:08:01</t>
+          <t>00:02:55</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:01:43</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>99.61</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 6:17AM CST</t>
+          <t>Jun 5 1:45PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>82</v>
+          <t>TOYOTA HILUX</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>63</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:11:12</t>
+          <t>03:46:27</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>61.4</v>
+        <v>101.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>8.890000000000001</v>
+        <v>14.14</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:04:03</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:07:11</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>113.01</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:02PM CST</t>
+          <t>Jun 5 3:01PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>81</v>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>05:27:42</t>
+          <t>04:46:26</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>350</v>
+        <v>296.5</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>85.5</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:03:58</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:04:45</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:47</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:26PM CST</t>
+          <t>Jun 5 12:25PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,61 +4118,61 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>79</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>55</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>03:23:03</t>
+          <t>05:25:12</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>71.40000000000001</v>
+        <v>253.8</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>12.84</v>
+        <v>29.62</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:06:44</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:06:26</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:51</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 12:52PM CST</t>
+          <t>Jun 5 8:57AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,12 +4238,12 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -4252,73 +4252,73 @@
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>12:13:32</t>
+          <t>04:08:00</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>574.2</v>
+        <v>85.3</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>75.45999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:13:40</t>
+          <t>00:01:24</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:13:19</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:07:49</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="R31" s="1" t="inlineStr">
+        <is>
+          <t>Jun 5 9:45AM CST</t>
+        </is>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>90.01000000000001</v>
-      </c>
-      <c r="R31" s="1" t="inlineStr">
-        <is>
-          <t>Jun 4 5:08PM CST</t>
-        </is>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>0</v>
@@ -4372,15 +4372,15 @@
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>10:37:43</t>
+          <t>07:54:21</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>571.4</v>
+        <v>367.3</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>0</v>
@@ -4390,42 +4390,42 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
+          <t>00:05:14</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
           <t>00:11:05</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>00:13:18</t>
-        </is>
-      </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:05:40</t>
+          <t>00:04:34</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:02:56</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>99.34</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 2:02PM CST</t>
+          <t>Jun 5 6:47AM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,58 +4478,58 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>06:10:55</t>
+          <t>03:52:33</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>346</v>
+        <v>73.8</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>83.7</v>
+        <v>10.32</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:10:54</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:05:17</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:04:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>0</v>
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>103.01</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 1:15PM CST</t>
+          <t>Jun 5 1:35PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,36 +4616,36 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>05:58:21</t>
+          <t>04:12:54</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>317.3</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>77.04000000000001</v>
+        <v>8.31</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:03:40</t>
+          <t>00:02:08</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:03:52</t>
+          <t>00:03:02</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:01:04</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
@@ -4661,21 +4661,21 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>120.01</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 4 11:02AM CST</t>
+          <t>Jun 5 11:00AM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="1" t="n">
         <v>0</v>
@@ -4718,179 +4718,137 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>02:25:29</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>00:02:28</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>00:02:35</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:52</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>92.01000000000001</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>Jun 5 10:30AM CST</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
@@ -5042,17 +5000,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>04:37:32</t>
+          <t>04:20:29</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>82.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>11.37</v>
+        <v>9.91</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 5:07PM CST</t>
+          <t>Jun 6 1:43PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:10:33</t>
+          <t>05:54:51</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>65.7</v>
+        <v>71.7</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>10.83</v>
+        <v>11.48</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>50</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 1:01PM CST</t>
+          <t>Jun 6 2:24PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,28 +1016,28 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>03:53:45</t>
+          <t>05:33:10</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>59.6</v>
+        <v>66.2</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5.59</v>
+        <v>12.15</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
+          <t>00:00:35</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
           <t>00:00:10</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>63</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 9:14AM CST</t>
+          <t>Jun 7 9:01AM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>03:34:59</t>
+          <t>01:56:36</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44.1</v>
+        <v>54.3</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>6.96</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 2:11PM CST</t>
+          <t>Jun 6 10:04AM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,21 +1256,21 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:06:32</t>
+          <t>02:47:11</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>13</v>
+        <v>6.43</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>65.01000000000001</v>
+        <v>64</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 10:08AM CST</t>
+          <t>Jun 6 1:40PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:48:13</t>
+          <t>03:21:53</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>41.4</v>
+        <v>37.2</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>6.94</v>
+        <v>15.7</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 11:56AM CST</t>
+          <t>Jun 6 1:24PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,44 +1478,44 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:40:23</t>
+          <t>05:59:52</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>34.1</v>
+        <v>144.4</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>6.27</v>
+        <v>16.56</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>57</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 9:58AM CST</t>
+          <t>Jun 6 12:28PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,44 +1598,44 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01:30:01</t>
+          <t>07:10:52</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>21.2</v>
+        <v>143.8</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2.16</v>
+        <v>13.71</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:36</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>44</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 7:24AM CST</t>
+          <t>Jun 6 11:15AM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,44 +1718,44 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01:50:31</t>
+          <t>05:15:20</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>20.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>8.98</v>
+        <v>8.4</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>54</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 2:44PM CST</t>
+          <t>Jun 6 7:55AM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,49 +1838,49 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:19:24</t>
+          <t>04:59:42</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>4.1</v>
+        <v>77.7</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2.24</v>
+        <v>13.15</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>45</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 4:27PM CST</t>
+          <t>Jun 6 10:05AM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,44 +1958,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:02:33</t>
+          <t>04:00:41</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.7</v>
+        <v>61.2</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2.83</v>
+        <v>10.7</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>37</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 11:48AM CST</t>
+          <t>Jun 7 12:34PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,44 +2078,44 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:03:10</t>
+          <t>02:42:32</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.3</v>
+        <v>40.5</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.74</v>
+        <v>4.93</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>30</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 7:35AM CST</t>
+          <t>Jun 6 11:12AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,39 +2198,39 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:27:03</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.46</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 7:41PM CST</t>
+          <t>Jun 6 5:08PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,49 +2318,49 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>04:00:54</t>
+          <t>08:05:20</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>73.40000000000001</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>12.58</v>
+        <v>18.12</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:02:46</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 3:16PM CST</t>
+          <t>Jun 6 5:16PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2452,30 +2452,30 @@
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>03:13:47</t>
+          <t>06:12:42</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>56.4</v>
+        <v>108.6</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>8.66</v>
+        <v>16.47</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:03:30</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:03:03</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 1:41PM CST</t>
+          <t>Jun 7 12:27PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,12 +2558,12 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2576,31 +2576,31 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:39:41</t>
+          <t>03:16:29</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>46.9</v>
+        <v>56.6</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>8.449999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 2:57PM CST</t>
+          <t>Jun 7 11:03AM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>01:45:19</t>
+          <t>04:48:48</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>37.3</v>
+        <v>146.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:03:48</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:02:54</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>95.42</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 3:57PM CST</t>
+          <t>Jun 6 1:43PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,29 +2798,29 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>05:25:42</t>
+          <t>07:41:31</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>165.8</v>
+        <v>191.7</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
@@ -2830,29 +2830,29 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:03:23</t>
+          <t>00:04:34</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:04:09</t>
+          <t>00:04:01</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
+          <t>00:00:28</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
           <t>00:00:05</t>
         </is>
       </c>
-      <c r="L19" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="M19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>0</v>
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>95.51000000000001</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 7:20PM CST</t>
+          <t>Jun 6 10:06AM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,54 +2918,54 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>05:30:04</t>
+          <t>04:44:47</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>120.9</v>
+        <v>70.5</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>16.29</v>
+        <v>12.13</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:03:17</t>
+          <t>00:02:27</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:01:43</t>
+          <t>00:01:25</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M20" s="1" t="n">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 1:35PM CST</t>
+          <t>Jun 7 1:32PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>04:50:29</t>
+          <t>05:10:44</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>116.6</v>
+        <v>114.6</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>16.86</v>
+        <v>19.95</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:01:52</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:01:33</t>
+          <t>00:02:40</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 10:09AM CST</t>
+          <t>Jun 6 2:17PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,54 +3158,54 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>03:36:43</t>
+          <t>04:46:20</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>67.09999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>9.84</v>
+        <v>13.31</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:01:55</t>
+          <t>00:02:22</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:01:47</t>
+          <t>00:01:38</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M22" s="1" t="n">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 3:14PM CST</t>
+          <t>Jun 6 5:06PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,54 +3278,54 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>96</v>
+          <t>TOYOTA HILUX 2018</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>02:16:53</t>
+          <t>07:46:19</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>46.9</v>
+        <v>163.4</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>7.4</v>
+        <v>23.45</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:04:29</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>64</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 4:05PM CST</t>
+          <t>Jun 7 10:50AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,54 +3398,54 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>92</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>04:34:36</t>
+          <t>05:39:44</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>149.4</v>
+        <v>112.5</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>16.46</v>
+        <v>15.39</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:05:21</t>
+          <t>00:03:08</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:03:59</t>
+          <t>00:05:44</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 3:14PM CST</t>
+          <t>Jun 6 2:50PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,29 +3518,29 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>91</v>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>81</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>05:00:01</t>
+          <t>05:18:22</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>132.7</v>
+        <v>307</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:03:12</t>
+          <t>00:03:54</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
+          <t>00:05:15</t>
+        </is>
+      </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
           <t>00:01:19</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
-        <is>
-          <t>00:00:43</t>
-        </is>
-      </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>94.31999999999999</v>
+        <v>115.94</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 12:44PM CST</t>
+          <t>Jun 6 11:35AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,61 +3638,61 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>06:47:38</t>
+          <t>07:41:20</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>363.7</v>
+        <v>229</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>88.81</v>
+        <v>30.31</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:04:48</t>
+          <t>00:05:25</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:13:43</t>
+          <t>00:03:15</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>95.01000000000001</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 10:07AM CST</t>
+          <t>Jun 6 2:14PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>75</v>
+          <t>KENWORTH</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>67</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>03:54:10</t>
+          <t>12:59:36</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>120.5</v>
+        <v>708.2</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>16.39</v>
+        <v>185.74</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:03:39</t>
+          <t>00:13:07</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:02:55</t>
+          <t>00:11:29</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>116.01</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 1:45PM CST</t>
+          <t>Jun 7 11:36AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D28" s="9" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:46:27</t>
+          <t>02:07:41</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>101.4</v>
+        <v>56.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>14.14</v>
+        <v>4.21</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:04:03</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:07:11</t>
+          <t>00:02:05</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>113.01</v>
+        <v>110.01</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 3:01PM CST</t>
+          <t>Jun 6 12:41PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D29" s="9" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>04:46:26</t>
+          <t>06:18:19</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>296.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:03:58</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:04:45</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:01:47</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>100.5</v>
+        <v>60</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 12:25PM CST</t>
+          <t>Jun 7 12:17PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
@@ -4118,74 +4118,74 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>05:25:12</t>
+          <t>12:59:02</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>253.8</v>
+        <v>720.6</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>29.62</v>
+        <v>179.71</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:06:44</t>
+          <t>00:22:03</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:06:26</t>
+          <t>00:14:53</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:01:51</t>
+          <t>00:08:36</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>110.01</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 8:57AM CST</t>
+          <t>Jun 7 12:50PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,74 +4238,74 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>04:08:00</t>
+          <t>13:28:36</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>85.3</v>
+        <v>727.3</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>9.65</v>
+        <v>180.63</v>
       </c>
       <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>00:21:04</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>00:25:31</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>00:17:07</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>00:05:35</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>00:01:24</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:28</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>105.01</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 9:45AM CST</t>
+          <t>Jun 6 6:04AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>0</v>
@@ -4358,54 +4358,54 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>07:54:21</t>
+          <t>08:00:28</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>367.3</v>
+        <v>413.5</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0</v>
+        <v>112.05</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:05:14</t>
+          <t>00:06:28</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:11:05</t>
+          <t>00:18:04</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:04:34</t>
+          <t>00:16:03</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:07:41</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
@@ -4415,17 +4415,17 @@
         <v>2</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>98.73999999999999</v>
+        <v>133.01</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 6:47AM CST</t>
+          <t>Jun 6 12:40PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,54 +4478,54 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>03:52:33</t>
+          <t>08:33:50</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>73.8</v>
+        <v>355.8</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>10.32</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:04:36</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:06:48</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:01</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:05:20</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
@@ -4538,14 +4538,14 @@
         <v>0</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>99.47</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 1:35PM CST</t>
+          <t>Jun 6 1:58PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,63 +4616,63 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>04:12:54</t>
+          <t>08:17:27</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>68.09999999999999</v>
+        <v>249.2</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>8.31</v>
+        <v>29.3</v>
       </c>
       <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>00:07:02</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>00:05:46</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>00:12:31</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>00:05:40</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>00:02:08</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>00:03:02</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:46</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 5 11:00AM CST</t>
+          <t>Jun 6 3:14PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1" t="n">
         <v>0</v>
@@ -4718,12 +4718,12 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -4736,75 +4736,75 @@
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>02:25:29</t>
+          <t>06:16:12</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>50.3</v>
+        <v>162.7</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>4.44</v>
+        <v>19.2</v>
       </c>
       <c r="H35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>00:04:20</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>00:03:07</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:27</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:34</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>81.01000000000001</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>Jun 6 8:46AM CST</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>00:02:28</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>00:02:35</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:52</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>92.01000000000001</v>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>Jun 5 10:30AM CST</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
@@ -5162,17 +5162,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>04:20:29</t>
+          <t>02:51:06</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>78.90000000000001</v>
+        <v>46.3</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>9.91</v>
+        <v>6.57</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 1:43PM CST</t>
+          <t>Jun 9 12:29PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>05:54:51</t>
+          <t>01:46:35</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>71.7</v>
+        <v>45.1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>11.48</v>
+        <v>5.18</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:19</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>50</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 2:24PM CST</t>
+          <t>Jun 9 2:37PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>05:33:10</t>
+          <t>02:11:45</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>66.2</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>12.15</v>
+        <v>5.96</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 9:01AM CST</t>
+          <t>Jun 9 2:08PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>01:56:36</t>
+          <t>01:29:40</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>54.3</v>
+        <v>26.5</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 10:04AM CST</t>
+          <t>Jun 9 1:46PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,12 +1238,12 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:47:11</t>
+          <t>01:27:59</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>43.5</v>
+        <v>24.4</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>6.43</v>
+        <v>4.09</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 1:40PM CST</t>
+          <t>Jun 9 4:42PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>03:21:53</t>
+          <t>01:52:38</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>37.2</v>
+        <v>23.4</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>15.7</v>
+        <v>3.87</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>54</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 1:24PM CST</t>
+          <t>Jun 9 10:22AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,44 +1478,44 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>05:59:52</t>
+          <t>00:10:56</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>144.4</v>
+        <v>4.4</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>16.56</v>
+        <v>0.75</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:01:35</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 12:28PM CST</t>
+          <t>Jun 9 6:39PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,44 +1598,44 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>07:10:52</t>
+          <t>00:22:09</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>143.8</v>
+        <v>4.2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>13.71</v>
+        <v>2.9</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:03:36</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>49</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 11:15AM CST</t>
+          <t>Jun 9 5:53PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,44 +1718,44 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>05:15:20</t>
+          <t>00:22:20</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>89.59999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>8.4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>33</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 7:55AM CST</t>
+          <t>Jun 9 5:36PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,49 +1838,49 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>04:59:42</t>
+          <t>00:02:41</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>77.7</v>
+        <v>0.3</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>13.15</v>
+        <v>0.26</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>23</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 10:05AM CST</t>
+          <t>Jun 9 9:19PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,44 +1958,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>04:00:41</t>
+          <t>00:02:02</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>61.2</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>10.7</v>
+        <v>0.42</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>13</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 12:34PM CST</t>
+          <t>Jun 9 7:15AM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,26 +2096,26 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>02:42:32</t>
+          <t>02:28:45</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>40.5</v>
+        <v>69.3</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>4.93</v>
+        <v>22.22</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 11:12AM CST</t>
+          <t>Jun 9 10:22AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,17 +2198,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
@@ -2216,26 +2216,26 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:27:03</t>
+          <t>02:07:49</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>5</v>
+        <v>61.2</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>3</v>
+        <v>12.86</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>57</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 5:08PM CST</t>
+          <t>Jun 9 8:55AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,49 +2318,49 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>08:05:20</t>
+          <t>01:41:42</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>132</v>
+        <v>31.1</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>18.12</v>
+        <v>4.8</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:02:46</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>63</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 5:16PM CST</t>
+          <t>Jun 9 7:59AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,44 +2438,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>06:12:42</t>
+          <t>01:24:02</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>108.6</v>
+        <v>27.2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>16.47</v>
+        <v>4.19</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:03:30</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:03:03</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 12:27PM CST</t>
+          <t>Jun 9 11:21AM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -2576,31 +2576,31 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>03:16:29</t>
+          <t>03:39:17</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>56.6</v>
+        <v>92.2</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>9.44</v>
+        <v>11.13</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:22</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 11:03AM CST</t>
+          <t>Jun 9 12:07PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>04:48:48</t>
+          <t>02:09:22</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>146.8</v>
+        <v>46.9</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:03:48</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:02:54</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>95.42</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 1:43PM CST</t>
+          <t>Jun 9 4:50PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,54 +2798,54 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>07:41:31</t>
+          <t>01:33:35</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>191.7</v>
+        <v>29.9</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:04:34</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:04:01</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M19" s="1" t="n">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>93.51000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 10:06AM CST</t>
+          <t>Jun 9 4:18PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,17 +2918,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
@@ -2936,43 +2936,43 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>04:44:47</t>
+          <t>10:12:50</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>70.5</v>
+        <v>624.1</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>12.13</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:02:27</t>
+          <t>00:05:11</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:01:25</t>
+          <t>00:04:15</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>0</v>
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>116.21</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 1:32PM CST</t>
+          <t>Jun 9 7:31AM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3052,35 +3052,35 @@
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>05:10:44</t>
+          <t>01:43:32</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>114.6</v>
+        <v>45.9</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>19.95</v>
+        <v>7.21</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:52</t>
+          <t>00:02:17</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:02:40</t>
+          <t>00:02:02</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>87.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 2:17PM CST</t>
+          <t>Jun 9 4:10PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,39 +3158,39 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>04:46:20</t>
+          <t>04:02:27</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>79.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>13.31</v>
+        <v>12.71</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:02:22</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M22" s="1" t="n">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>91.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 5:06PM CST</t>
+          <t>Jun 9 8:19AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,54 +3278,54 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D23" s="8" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>07:46:19</t>
+          <t>03:31:31</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>163.4</v>
+        <v>127.6</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>23.45</v>
+        <v>15.57</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:04:29</t>
+          <t>00:04:36</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:04:02</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>86.01000000000001</v>
+        <v>108.01</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 10:50AM CST</t>
+          <t>Jun 9 8:19AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,61 +3398,61 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D24" s="8" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>05:39:44</t>
+          <t>01:18:51</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>112.5</v>
+        <v>32.9</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>15.39</v>
+        <v>4.75</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:03:08</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:05:44</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1" t="n">
         <v>0</v>
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 2:50PM CST</t>
+          <t>Jun 9 1:04PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,54 +3518,54 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D25" s="8" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>05:18:22</t>
+          <t>03:44:46</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>307</v>
+        <v>103.7</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:03:54</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:05:15</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>115.94</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 11:35AM CST</t>
+          <t>Jun 9 8:13AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,54 +3638,54 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>07:41:20</t>
+          <t>03:53:04</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>229</v>
+        <v>109.8</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>30.31</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:05:25</t>
+          <t>00:05:08</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:03:15</t>
+          <t>00:05:08</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>99.31999999999999</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 2:14PM CST</t>
+          <t>Jun 9 8:58AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,61 +3758,61 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="n">
-        <v>67</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>82</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>12:59:36</t>
+          <t>09:32:13</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>708.2</v>
+        <v>629.6</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>185.74</v>
+        <v>77.72</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:13:07</t>
+          <t>00:14:37</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:11:29</t>
+          <t>00:12:39</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:02:42</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>116.01</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 11:36AM CST</t>
+          <t>Jun 9 6:17AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="n">
-        <v>60</v>
+          <t>HINO 500</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>02:07:41</t>
+          <t>07:09:08</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>56.4</v>
+        <v>523.2</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>4.21</v>
+        <v>146.4</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:02:32</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:02:05</t>
+          <t>00:03:59</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:03:11</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3935,17 +3935,17 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>110.01</v>
+        <v>111.01</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 12:41PM CST</t>
+          <t>Jun 9 6:27PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="n">
-        <v>48</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>06:18:19</t>
+          <t>02:01:35</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>92.09999999999999</v>
+        <v>48.2</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>10.63</v>
+        <v>4.35</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>60</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 12:17PM CST</t>
+          <t>Jun 9 11:34AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
@@ -4118,74 +4118,74 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="n">
-        <v>37</v>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>12:59:02</t>
+          <t>09:14:00</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>720.6</v>
+        <v>466.7</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>179.71</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:22:03</t>
+          <t>00:07:00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:14:53</t>
+          <t>00:09:11</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:08:36</t>
+          <t>00:03:42</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>110.01</v>
+        <v>107.44</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 7 12:50PM CST</t>
+          <t>Jun 9 9:45AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,61 +4238,61 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>13:28:36</t>
+          <t>07:06:36</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>727.3</v>
+        <v>306.3</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>180.63</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:21:04</t>
+          <t>00:25:47</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:25:31</t>
+          <t>00:29:24</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:17:07</t>
+          <t>00:03:47</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:05:35</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>1</v>
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>105.01</v>
+        <v>99.92</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 6:04AM CST</t>
+          <t>Jun 9 9:46AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,74 +4358,74 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>08:00:28</t>
+          <t>00:54:01</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>413.5</v>
+        <v>21.8</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>112.05</v>
+        <v>2.42</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:06:28</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:18:04</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:16:03</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:07:41</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>133.01</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 12:40PM CST</t>
+          <t>Jun 9 9:25AM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,17 +4478,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
@@ -4496,97 +4496,97 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>08:33:50</t>
+          <t>08:46:53</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>355.8</v>
+        <v>618.8</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:04:36</t>
+          <t>00:10:38</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:06:48</t>
+          <t>00:09:27</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:03:01</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:05:20</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>102.01</v>
+      </c>
+      <c r="R33" s="1" t="inlineStr">
+        <is>
+          <t>Jun 9 7:13AM CST</t>
+        </is>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>99.47</v>
-      </c>
-      <c r="R33" s="1" t="inlineStr">
-        <is>
-          <t>Jun 6 1:58PM CST</t>
-        </is>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="AE33" s="1" t="n">
         <v>0</v>
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,56 +4616,56 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>08:17:27</t>
+          <t>08:47:47</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>249.2</v>
+        <v>523.2</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>29.3</v>
+        <v>30.74</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:07:02</t>
+          <t>00:20:01</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:05:46</t>
+          <t>00:28:04</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:12:31</t>
+          <t>00:10:18</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:05:40</t>
+          <t>00:15:55</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>132.01</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 3:14PM CST</t>
+          <t>Jun 9 4:56PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4718,17 +4718,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D35" s="9" t="n">
@@ -4736,36 +4736,36 @@
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>06:16:12</t>
+          <t>00:37:26</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>162.7</v>
+        <v>21.3</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>19.2</v>
+        <v>7.33</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:01:36</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>00:03:07</t>
+          <t>00:03:21</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="M35" s="1" t="n">
@@ -4781,11 +4781,11 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>Jun 6 8:46AM CST</t>
+          <t>Jun 9 3:05PM CST</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
@@ -5162,17 +5162,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5324,17 +5324,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,21 +776,21 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02:51:06</t>
+          <t>02:48:37</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>46.3</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>6.57</v>
+        <v>6.68</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 12:29PM CST</t>
+          <t>Jun 11 11:54AM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>01:46:35</t>
+          <t>02:17:04</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45.1</v>
+        <v>29.5</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>5.18</v>
+        <v>4.42</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:19</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>44</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 2:37PM CST</t>
+          <t>Jun 11 8:24AM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:11:45</t>
+          <t>02:20:26</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>41</v>
+        <v>23.5</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5.96</v>
+        <v>4.15</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 2:08PM CST</t>
+          <t>Jun 11 1:50PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>01:29:40</t>
+          <t>01:35:55</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>26.5</v>
+        <v>19.1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>3.75</v>
+        <v>7.49</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 1:46PM CST</t>
+          <t>Jun 11 1:41PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>01:27:59</t>
+          <t>00:58:07</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>24.4</v>
+        <v>14.1</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>4.09</v>
+        <v>1.54</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 4:42PM CST</t>
+          <t>Jun 11 7:37AM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,12 +1358,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>01:52:38</t>
+          <t>00:13:16</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>23.4</v>
+        <v>4.2</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>3.87</v>
+        <v>0.77</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>50</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 10:22AM CST</t>
+          <t>Jun 11 11:11AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,44 +1478,44 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>00:10:56</t>
+          <t>04:17:54</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>4.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.75</v>
+        <v>13.87</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>60</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 6:39PM CST</t>
+          <t>Jun 11 9:55AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,44 +1598,44 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>00:22:09</t>
+          <t>03:02:27</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4.2</v>
+        <v>59.9</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2.9</v>
+        <v>6.77</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>49</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 5:53PM CST</t>
+          <t>Jun 11 11:58AM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,44 +1718,44 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:22:20</t>
+          <t>01:58:23</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4.2</v>
+        <v>45.4</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>2</v>
+        <v>6.07</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>33</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 5:36PM CST</t>
+          <t>Jun 11 12:20PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,44 +1838,44 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:02:41</t>
+          <t>02:12:43</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.3</v>
+        <v>36.6</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.26</v>
+        <v>6.26</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 9:19PM CST</t>
+          <t>Jun 11 9:00AM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,44 +1958,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:02:02</t>
+          <t>02:42:58</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.2</v>
+        <v>36.3</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.42</v>
+        <v>6.3</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>13</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 7:15AM CST</t>
+          <t>Jun 11 10:25AM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,26 +2096,26 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>02:28:45</t>
+          <t>02:18:29</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>69.3</v>
+        <v>32.7</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>22.22</v>
+        <v>7.19</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>62</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 10:22AM CST</t>
+          <t>Jun 11 3:01PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>02:07:49</t>
+          <t>04:56:12</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>61.2</v>
+        <v>114.2</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>12.86</v>
+        <v>14.47</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:04:35</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:02:14</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 8:55AM CST</t>
+          <t>Jun 11 12:34PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,51 +2318,51 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>01:41:42</t>
+          <t>02:56:22</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>31.1</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>4.8</v>
+        <v>5.92</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
+          <t>00:00:36</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
           <t>00:00:06</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>63</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 7:59AM CST</t>
+          <t>Jun 11 9:27AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,44 +2438,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>01:24:02</t>
+          <t>02:43:12</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>27.2</v>
+        <v>68.2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>4.19</v>
+        <v>9.81</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 11:21AM CST</t>
+          <t>Jun 11 10:36AM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -2576,31 +2576,31 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>03:39:17</t>
+          <t>04:17:00</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>92.2</v>
+        <v>64.7</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>11.13</v>
+        <v>9.77</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:02:18</t>
+          <t>00:02:17</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:01:50</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 12:07PM CST</t>
+          <t>Jun 11 6:08PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>02:09:22</t>
+          <t>02:29:47</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>46.9</v>
+        <v>44.7</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:01:57</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>87.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 4:50PM CST</t>
+          <t>Jun 11 1:34PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,49 +2798,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>01:33:35</t>
+          <t>04:43:10</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>29.9</v>
+        <v>110.1</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>4.9</v>
+        <v>15.63</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 4:18PM CST</t>
+          <t>Jun 11 2:21PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,61 +2918,61 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>10:12:50</t>
+          <t>04:21:26</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>624.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0</v>
+        <v>11.01</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:05:11</t>
+          <t>00:01:48</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:04:15</t>
+          <t>00:01:04</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>0</v>
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>116.21</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 7:31AM CST</t>
+          <t>Jun 11 3:49PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3052,35 +3052,35 @@
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>01:43:32</t>
+          <t>03:02:15</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>45.9</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>7.21</v>
+        <v>10.89</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:02:02</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 4:10PM CST</t>
+          <t>Jun 11 3:00PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,54 +3158,54 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>04:02:27</t>
+          <t>03:16:48</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>93.09999999999999</v>
+        <v>59.7</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>12.71</v>
+        <v>9.98</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:02:12</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:01:38</t>
+          <t>00:02:26</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M22" s="1" t="n">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 8:19AM CST</t>
+          <t>Jun 11 2:44PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>89</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>03:31:31</t>
+          <t>03:07:07</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>127.6</v>
+        <v>59.1</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>15.57</v>
+        <v>7.79</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:04:36</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:04:02</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>108.01</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 8:19AM CST</t>
+          <t>Jun 11 9:06AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,49 +3398,49 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>89</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>01:18:51</t>
+          <t>03:04:58</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>32.9</v>
+        <v>56.3</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>4.75</v>
+        <v>6.29</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:01:54</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:01:50</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 1:04PM CST</t>
+          <t>Jun 11 9:21AM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,54 +3518,54 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>88</v>
+          <t>WORKEN</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>03:44:46</t>
+          <t>07:10:08</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>103.7</v>
+        <v>364.7</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>10.98</v>
+        <v>87.5</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 8:13AM CST</t>
+          <t>Jun 11 1:06PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,61 +3638,61 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>03:53:04</t>
+          <t>09:53:21</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>109.8</v>
+        <v>558.1</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0</v>
+        <v>138.34</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:05:08</t>
+          <t>00:04:12</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:05:08</t>
+          <t>00:07:19</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>99.31999999999999</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 8:58AM CST</t>
+          <t>Jun 11 5:45AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,61 +3758,61 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>09:32:13</t>
+          <t>08:28:08</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>629.6</v>
+        <v>617.9</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>77.72</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:14:37</t>
+          <t>00:05:22</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:12:39</t>
+          <t>00:05:06</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:02:11</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:30</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>116.61</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 6:17AM CST</t>
+          <t>Jun 11 1:30PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,61 +3878,61 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D28" s="8" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>07:09:08</t>
+          <t>10:14:34</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>523.2</v>
+        <v>438</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>146.4</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:02:32</t>
+          <t>00:09:32</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:03:59</t>
+          <t>00:14:46</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:03:11</t>
+          <t>00:05:10</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>1</v>
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>111.01</v>
+        <v>100.95</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 6:27PM CST</t>
+          <t>Jun 11 3:43AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,61 +3998,61 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>02:01:35</t>
+          <t>11:23:21</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>48.2</v>
+        <v>528.5</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>4.35</v>
+        <v>70.5</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:08:55</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:10:06</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:03:25</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>0</v>
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 11:34AM CST</t>
+          <t>Jun 11 6:40AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,12 +4118,12 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -4131,16 +4131,16 @@
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="D30" s="8" t="n">
-        <v>77</v>
+      <c r="D30" s="9" t="n">
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>09:14:00</t>
+          <t>09:26:57</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>466.7</v>
+        <v>620.9</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
@@ -4150,29 +4150,29 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:07:00</t>
+          <t>00:12:10</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:09:11</t>
+          <t>00:07:21</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:03:42</t>
+          <t>00:03:26</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>0</v>
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>107.44</v>
+        <v>101.02</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 9:45AM CST</t>
+          <t>Jun 11 9:14AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,74 +4238,74 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>07:06:36</t>
+          <t>08:17:26</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>306.3</v>
+        <v>612.6</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0</v>
+        <v>158.99</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:25:47</t>
+          <t>00:14:57</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:29:24</t>
+          <t>00:08:00</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:03:47</t>
+          <t>00:03:20</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>99.92</v>
+        <v>100.01</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 9:46AM CST</t>
+          <t>Jun 11 4:04PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,61 +4358,61 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>00:54:01</t>
+          <t>09:01:22</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>21.8</v>
+        <v>607.5</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>2.42</v>
+        <v>138.87</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:09:21</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:16:32</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>0</v>
@@ -4421,11 +4421,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>104.01</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 9:25AM CST</t>
+          <t>Jun 11 7:56AM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,74 +4478,74 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>08:46:53</t>
+          <t>06:47:56</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>618.8</v>
+        <v>354.5</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>211</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:10:38</t>
+          <t>00:06:25</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:09:27</t>
+          <t>00:04:14</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:02:44</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>102.01</v>
+        <v>122.01</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 7:13AM CST</t>
+          <t>Jun 11 12:14PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="1" t="n">
         <v>0</v>
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,63 +4616,63 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>08:47:47</t>
+          <t>08:00:12</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>523.2</v>
+        <v>612.9</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>30.74</v>
+        <v>134.11</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:20:01</t>
+          <t>00:06:54</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:28:04</t>
+          <t>00:21:49</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:10:18</t>
+          <t>00:04:19</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:15:55</t>
+          <t>00:03:56</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="Q34" s="1" t="n">
-        <v>132.01</v>
+        <v>109.01</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 4:56PM CST</t>
+          <t>Jun 11 9:42AM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1" t="n">
         <v>0</v>
@@ -4718,17 +4718,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D35" s="9" t="n">
@@ -4736,36 +4736,36 @@
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>00:37:26</t>
+          <t>04:30:09</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>21.3</v>
+        <v>127.3</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>00:03:21</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M35" s="1" t="n">
@@ -4781,18 +4781,18 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>80.52</v>
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>Jun 9 3:05PM CST</t>
+          <t>Jun 11 10:01PM CST</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="1" t="n">
         <v>0</v>
@@ -4838,341 +4838,257 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D36" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>03:56:38</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>00:01:22</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>00:02:22</t>
+        </is>
+      </c>
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:39</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="R36" s="1" t="inlineStr">
+        <is>
+          <t>Jun 11 11:36AM CST</t>
+        </is>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
-        </is>
-      </c>
-      <c r="D37" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>02:28:49</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:14</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:04</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>76.01000000000001</v>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
+        <is>
+          <t>Jun 11 10:18AM CST</t>
+        </is>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5324,17 +5240,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,14 +776,14 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02:48:37</t>
+          <t>02:57:33</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>37</v>
+        <v>47.5</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>6.68</v>
+        <v>8.31</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 11:54AM CST</t>
+          <t>Jun 12 2:46PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>02:17:04</t>
+          <t>01:58:52</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>29.5</v>
+        <v>41.3</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>4.42</v>
+        <v>5.31</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>44</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 8:24AM CST</t>
+          <t>Jun 12 1:53PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:20:26</t>
+          <t>02:51:45</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>23.5</v>
+        <v>38.7</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>4.15</v>
+        <v>7.53</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 1:50PM CST</t>
+          <t>Jun 12 11:28AM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>01:35:55</t>
+          <t>03:07:08</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>19.1</v>
+        <v>37.5</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>7.49</v>
+        <v>6.84</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 1:41PM CST</t>
+          <t>Jun 12 2:51PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>00:58:07</t>
+          <t>02:58:25</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>14.1</v>
+        <v>36.8</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1.54</v>
+        <v>6.46</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 7:37AM CST</t>
+          <t>Jun 12 10:12AM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,14 +1376,14 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>00:13:16</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>4.2</v>
+        <v>29.2</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.77</v>
+        <v>4.86</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 11:11AM CST</t>
+          <t>Jun 12 2:21PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,44 +1478,44 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>04:17:54</t>
+          <t>01:28:16</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>99.09999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>13.87</v>
+        <v>1.87</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>50</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 9:55AM CST</t>
+          <t>Jun 12 7:29AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,44 +1598,44 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>03:02:27</t>
+          <t>01:35:54</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>59.9</v>
+        <v>18.1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>6.77</v>
+        <v>9.31</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>59</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 11:58AM CST</t>
+          <t>Jun 12 3:53PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,44 +1718,44 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01:58:23</t>
+          <t>00:18:00</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45.4</v>
+        <v>4.1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>6.07</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>42</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 12:20PM CST</t>
+          <t>Jun 12 3:04PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,44 +1838,44 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>02:12:43</t>
+          <t>00:04:05</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>36.6</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>6.26</v>
+        <v>0.9</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 9:00AM CST</t>
+          <t>Jun 12 7:46PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,26 +1976,26 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>02:42:58</t>
+          <t>04:45:39</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>36.3</v>
+        <v>149.8</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>6.3</v>
+        <v>14.63</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:02:35</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:01:04</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 10:25AM CST</t>
+          <t>Jun 12 3:47PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,26 +2096,26 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>02:18:29</t>
+          <t>03:02:58</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>32.7</v>
+        <v>60.1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>7.19</v>
+        <v>6.33</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>62</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 3:01PM CST</t>
+          <t>Jun 12 10:25AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>04:56:12</t>
+          <t>03:06:05</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>114.2</v>
+        <v>47.6</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>14.47</v>
+        <v>7.5</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:04:35</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:02:14</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 12:34PM CST</t>
+          <t>Jun 12 2:22PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,49 +2318,49 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>02:56:22</t>
+          <t>02:01:04</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>68.59999999999999</v>
+        <v>38.8</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>5.92</v>
+        <v>15.69</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 9:27AM CST</t>
+          <t>Jun 12 10:49AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,44 +2438,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t xml:space="preserve">Cristian Estrada </t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:43:12</t>
+          <t>02:24:30</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>68.2</v>
+        <v>34.9</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>9.81</v>
+        <v>6.18</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:01:43</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>61</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 10:36AM CST</t>
+          <t>Jun 12 3:33PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,44 +2558,44 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>04:17:00</t>
+          <t>01:45:09</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>64.7</v>
+        <v>24.8</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>9.77</v>
+        <v>4.48</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 6:08PM CST</t>
+          <t>Jun 12 1:29PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,44 +2678,44 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>02:29:47</t>
+          <t>00:44:49</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44.7</v>
+        <v>21.1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>6.7</v>
+        <v>5.36</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:01:57</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 1:34PM CST</t>
+          <t>Jun 12 12:24PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,49 +2798,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>04:43:10</t>
+          <t>04:43:13</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>110.1</v>
+        <v>98.2</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>15.63</v>
+        <v>14.4</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:02:19</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 2:21PM CST</t>
+          <t>Jun 12 12:46PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>04:21:26</t>
+          <t>03:52:41</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>68.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>11.01</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:01:48</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:01:04</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 3:49PM CST</t>
+          <t>Jun 12 10:29AM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>03:02:15</t>
+          <t>02:50:16</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>59</v>
+        <v>59.5</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>10.89</v>
+        <v>8.23</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 3:00PM CST</t>
+          <t>Jun 12 1:40PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>03:16:48</t>
+          <t>02:47:52</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>59.7</v>
+        <v>51.9</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>9.98</v>
+        <v>5.65</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:02:12</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:02:26</t>
+          <t>00:01:58</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 2:44PM CST</t>
+          <t>Jun 12 11:07AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,17 +3278,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
@@ -3296,31 +3296,31 @@
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>03:07:07</t>
+          <t>05:21:32</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>59.1</v>
+        <v>166.9</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>7.79</v>
+        <v>22.88</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:05:50</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:06:25</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 9:06AM CST</t>
+          <t>Jun 12 1:36PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,49 +3398,49 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>03:04:58</t>
+          <t>06:39:36</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>56.3</v>
+        <v>152.4</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:01:54</t>
+          <t>00:02:51</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:01:50</t>
+          <t>00:03:37</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 9:21AM CST</t>
+          <t>Jun 12 5:35PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,54 +3518,54 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>07:10:08</t>
+          <t>05:00:19</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>364.7</v>
+        <v>122</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>87.5</v>
+        <v>14.58</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:01:39</t>
+          <t>00:03:04</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:02:17</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:41</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 1:06PM CST</t>
+          <t>Jun 12 9:27AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,61 +3638,61 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>09:53:21</t>
+          <t>02:37:35</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>558.1</v>
+        <v>54.9</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>138.34</v>
+        <v>10.52</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:04:12</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:07:19</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>98.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 5:45AM CST</t>
+          <t>Jun 12 2:57PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3772,15 +3772,15 @@
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>08:28:08</t>
+          <t>09:51:17</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>617.9</v>
+        <v>453.7</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:05:22</t>
+          <t>00:08:06</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:05:06</t>
+          <t>00:08:04</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:02:11</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>116.61</v>
+        <v>110.26</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 1:30PM CST</t>
+          <t>Jun 12 7:51PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,74 +3878,74 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D28" s="8" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>10:14:34</t>
+          <t>03:43:35</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>438</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>22.17</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:09:32</t>
+          <t>00:03:59</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:14:46</t>
+          <t>00:03:57</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:05:10</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>100.95</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 3:43AM CST</t>
+          <t>Jun 12 9:07AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,17 +3998,17 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
@@ -4016,43 +4016,43 @@
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>11:23:21</t>
+          <t>10:28:35</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>528.5</v>
+        <v>649.4</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:08:55</t>
+          <t>00:11:50</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:10:06</t>
+          <t>00:10:07</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:03:25</t>
+          <t>00:02:46</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1" t="n">
         <v>0</v>
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>100.29</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 6:40AM CST</t>
+          <t>Jun 12 6:33PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,61 +4118,61 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>09:26:57</t>
+          <t>07:46:00</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>620.9</v>
+        <v>382.7</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>96.91</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:12:10</t>
+          <t>00:06:47</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:07:21</t>
+          <t>00:18:27</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:03:26</t>
+          <t>00:04:30</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>0</v>
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>101.02</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 9:14AM CST</t>
+          <t>Jun 12 5:57AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,58 +4238,58 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>08:17:26</t>
+          <t>05:52:12</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>612.6</v>
+        <v>315.6</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>158.99</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:14:57</t>
+          <t>00:05:51</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:08:00</t>
+          <t>00:06:08</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:03:20</t>
+          <t>00:02:09</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>1</v>
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>100.01</v>
+        <v>103.21</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 4:04PM CST</t>
+          <t>Jun 12 1:07PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,61 +4358,61 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>09:01:22</t>
+          <t>04:46:11</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>607.5</v>
+        <v>136.1</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>138.87</v>
+        <v>17.58</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:09:21</t>
+          <t>00:05:57</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:16:32</t>
+          <t>00:04:18</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:02:28</t>
+          <t>00:02:22</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1" t="n">
         <v>0</v>
@@ -4421,11 +4421,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>104.01</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 7:56AM CST</t>
+          <t>Jun 12 1:21PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="1" t="n">
         <v>0</v>
@@ -4478,54 +4478,54 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>06:47:56</t>
+          <t>02:30:09</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>354.5</v>
+        <v>49.6</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>87.18000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:06:25</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:04:14</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:02:56</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>122.01</v>
+        <v>109.01</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 12:14PM CST</t>
+          <t>Jun 12 4:25PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,56 +4616,56 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>08:00:12</t>
+          <t>01:57:48</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>612.9</v>
+        <v>33.2</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>134.11</v>
+        <v>3.43</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:06:54</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:21:49</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:04:19</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:03:56</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>109.01</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 11 9:42AM CST</t>
+          <t>Jun 12 8:23AM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4718,12 +4718,12 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -4731,364 +4731,490 @@
           <t>VAN HYUNDAI</t>
         </is>
       </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>04:30:09</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>00:01:12</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:34</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:28</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>80.52</v>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>Jun 11 10:01PM CST</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1" t="n">
-        <v>0</v>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>03:56:38</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
-        <is>
-          <t>00:01:22</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>00:02:22</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:39</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <v>82.01000000000001</v>
-      </c>
-      <c r="R36" s="1" t="inlineStr">
-        <is>
-          <t>Jun 11 11:36AM CST</t>
-        </is>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1" t="n">
-        <v>0</v>
+          <t>WORKEN</t>
+        </is>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>02:28:49</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:14</t>
-        </is>
-      </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:04</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>76.01000000000001</v>
-      </c>
-      <c r="R37" s="1" t="inlineStr">
-        <is>
-          <t>Jun 11 10:18AM CST</t>
-        </is>
-      </c>
-      <c r="S37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1" t="n">
-        <v>0</v>
+          <t>NISSAN 1993</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5240,17 +5366,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02:57:33</t>
+          <t>07:04:02</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>47.5</v>
+        <v>168.9</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>8.31</v>
+        <v>21.73</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>60</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 2:46PM CST</t>
+          <t>Jun 14 10:24AM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>01:58:52</t>
+          <t>03:09:40</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>41.3</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>5.31</v>
+        <v>24.86</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 1:53PM CST</t>
+          <t>Jun 13 12:16PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:51:45</t>
+          <t>04:33:19</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>38.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>7.53</v>
+        <v>12.05</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>55</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 11:28AM CST</t>
+          <t>Jun 13 2:13PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>03:07:08</t>
+          <t>05:09:27</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>37.5</v>
+        <v>65.3</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>6.84</v>
+        <v>10.3</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 2:51PM CST</t>
+          <t>Jun 13 1:31PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:58:25</t>
+          <t>05:08:35</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>36.8</v>
+        <v>64.3</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>6.46</v>
+        <v>12.33</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 10:12AM CST</t>
+          <t>Jun 13 1:19PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:38:00</t>
+          <t>03:37:08</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>29.2</v>
+        <v>47.4</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>4.86</v>
+        <v>7.43</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 2:21PM CST</t>
+          <t>Jun 14 11:42AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>01:28:16</t>
+          <t>01:36:41</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>19.8</v>
+        <v>44.7</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1.87</v>
+        <v>11.5</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 7:29AM CST</t>
+          <t>Jun 13 7:47AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01:35:54</t>
+          <t>03:46:09</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>18.1</v>
+        <v>40.5</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>9.31</v>
+        <v>17.85</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 3:53PM CST</t>
+          <t>Jun 14 12:50PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:18:00</t>
+          <t>01:28:18</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4.1</v>
+        <v>24.4</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>3</v>
+        <v>14.72</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 3:04PM CST</t>
+          <t>Jun 14 10:28AM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,44 +1838,44 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:04:05</t>
+          <t>06:28:29</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.5</v>
+        <v>145.9</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.9</v>
+        <v>19.16</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:33</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>27</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 7:46PM CST</t>
+          <t>Jun 13 10:33AM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,31 +1976,31 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>04:45:39</t>
+          <t>07:31:28</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>149.8</v>
+        <v>136.4</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>14.63</v>
+        <v>18.66</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:02:35</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:01:04</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>91.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 3:47PM CST</t>
+          <t>Jun 14 8:30AM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,26 +2096,26 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>03:02:58</t>
+          <t>03:39:52</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>60.1</v>
+        <v>101.4</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>6.33</v>
+        <v>14.53</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 10:25AM CST</t>
+          <t>Jun 13 10:50AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,17 +2198,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
@@ -2216,26 +2216,26 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>03:06:05</t>
+          <t>04:25:46</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>47.6</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>7.5</v>
+        <v>12.38</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 2:22PM CST</t>
+          <t>Jun 14 10:07AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,26 +2336,26 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>02:01:04</t>
+          <t>03:42:11</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>38.8</v>
+        <v>60.1</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>15.69</v>
+        <v>5.61</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 10:49AM CST</t>
+          <t>Jun 13 7:52AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian Estrada </t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:24:30</t>
+          <t>03:16:53</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>34.9</v>
+        <v>58.7</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:57</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>61</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 3:33PM CST</t>
+          <t>Jun 13 2:51PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,44 +2558,44 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>01:45:09</t>
+          <t>05:39:20</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>24.8</v>
+        <v>101.2</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>4.48</v>
+        <v>13.59</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:03:48</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:02:50</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 1:29PM CST</t>
+          <t>Jun 14 11:27AM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>00:44:49</t>
+          <t>05:10:21</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>21.1</v>
+        <v>96.3</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:01:58</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>95.91</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 12:24PM CST</t>
+          <t>Jun 14 7:49AM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,49 +2798,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>04:43:13</t>
+          <t>04:21:59</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>98.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>14.4</v>
+        <v>9.15</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:25</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>88.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 12:46PM CST</t>
+          <t>Jun 13 11:50AM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>03:52:41</t>
+          <t>08:09:01</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>70.59999999999999</v>
+        <v>171.6</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>9.529999999999999</v>
+        <v>24.08</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:03:50</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:02:42</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 10:29AM CST</t>
+          <t>Jun 14 8:20AM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>02:50:16</t>
+          <t>04:31:59</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>59.5</v>
+        <v>101</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>8.23</v>
+        <v>16.32</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:03:15</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 1:40PM CST</t>
+          <t>Jun 14 12:03PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>02:47:52</t>
+          <t>05:32:03</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>51.9</v>
+        <v>177.1</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>5.65</v>
+        <v>21.3</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:02:16</t>
+          <t>00:05:25</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:01:58</t>
+          <t>00:05:38</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>102.01</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 11:07AM CST</t>
+          <t>Jun 14 3:14PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,54 +3278,54 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t xml:space="preserve">Cristian Estrada </t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>05:21:32</t>
+          <t>06:33:33</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>166.9</v>
+        <v>103.3</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>22.88</v>
+        <v>16.91</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:05:50</t>
+          <t>00:02:08</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:06:25</t>
+          <t>00:02:08</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 1:36PM CST</t>
+          <t>Jun 14 1:24PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,54 +3398,54 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>96</v>
+          <t>TOYOTA HILUX 2020</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>06:39:36</t>
+          <t>06:42:40</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>152.4</v>
+        <v>125.8</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0</v>
+        <v>20.35</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:02:51</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:03:37</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>86.5</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 5:35PM CST</t>
+          <t>Jun 14 2:34PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,74 +3518,74 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>91</v>
+          <t>HINO 500</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>05:00:19</t>
+          <t>08:28:28</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>122</v>
+        <v>616.5</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>14.58</v>
+        <v>129.79</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:03:04</t>
+          <t>00:13:55</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:16:30</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:04:40</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>86.01000000000001</v>
+        <v>107.01</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 9:27AM CST</t>
+          <t>Jun 13 4:26AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,54 +3638,54 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>88</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>02:37:35</t>
+          <t>07:18:08</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>54.9</v>
+        <v>185.2</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>10.52</v>
+        <v>23.61</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:07:29</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:06:06</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 2:57PM CST</t>
+          <t>Jun 14 1:03PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,29 +3758,29 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>87</v>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>67</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>09:51:17</t>
+          <t>05:39:20</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>453.7</v>
+        <v>319.9</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0</v>
@@ -3790,29 +3790,29 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:08:06</t>
+          <t>00:08:02</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:08:04</t>
+          <t>00:10:09</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:04:05</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>110.26</v>
+        <v>100.19</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 7:51PM CST</t>
+          <t>Jun 13 10:05AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,12 +3878,12 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -3891,74 +3891,74 @@
           <t>HINO 300</t>
         </is>
       </c>
-      <c r="D28" s="8" t="n">
-        <v>79</v>
+      <c r="D28" s="9" t="n">
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:43:35</t>
+          <t>07:41:56</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>184</v>
+        <v>153.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>22.17</v>
+        <v>14.37</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:03:59</t>
+          <t>00:04:18</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:03:57</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>75.01000000000001</v>
+      </c>
+      <c r="R28" s="1" t="inlineStr">
+        <is>
+          <t>Jun 14 8:20AM CST</t>
+        </is>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>92.01000000000001</v>
-      </c>
-      <c r="R28" s="1" t="inlineStr">
-        <is>
-          <t>Jun 12 9:07AM CST</t>
-        </is>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>0</v>
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>74</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>59</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>10:28:35</t>
+          <t>04:57:54</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>649.4</v>
+        <v>112.1</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>10.77</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:11:50</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:10:07</t>
+          <t>00:05:10</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:02:46</t>
+          <t>00:01:51</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>100.29</v>
+        <v>102.01</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 6:33PM CST</t>
+          <t>Jun 13 8:29AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,74 +4118,74 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>07:46:00</t>
+          <t>14:06:21</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>382.7</v>
+        <v>747.2</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>96.91</v>
+        <v>230.99</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:06:47</t>
+          <t>00:15:48</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:18:27</t>
+          <t>00:12:50</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:07:30</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>97.01000000000001</v>
+        <v>100.01</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 5:57AM CST</t>
+          <t>Jun 13 4:21AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,74 +4238,74 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>05:52:12</t>
+          <t>14:09:07</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>315.6</v>
+        <v>726.3</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0</v>
+        <v>176.47</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:05:51</t>
+          <t>00:12:40</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:06:08</t>
+          <t>00:13:14</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:02:09</t>
+          <t>00:07:20</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:02:29</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>103.21</v>
+        <v>109.01</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 1:07PM CST</t>
+          <t>Jun 14 3:38PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,74 +4358,74 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>04:46:11</t>
+          <t>08:22:27</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>136.1</v>
+        <v>416</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>17.58</v>
+        <v>115.1</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:05:57</t>
+          <t>00:07:11</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:04:18</t>
+          <t>00:17:53</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:02:22</t>
+          <t>00:12:52</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:59</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 1:21PM CST</t>
+          <t>Jun 13 12:11PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,17 +4478,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
@@ -4496,56 +4496,56 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>02:30:09</t>
+          <t>10:34:35</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>49.6</v>
+        <v>345.7</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>8.07</v>
+        <v>36.09</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:09:26</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:11:15</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:06:23</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:02:56</t>
+          <t>00:05:22</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>109.01</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 4:25PM CST</t>
+          <t>Jun 13 6:13PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,63 +4616,63 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>01:57:48</t>
+          <t>06:27:38</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>33.2</v>
+        <v>244.4</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>00:03:41</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>00:04:41</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>00:04:59</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>00:05:30</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:34</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:43</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>105.44</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 12 8:23AM CST</t>
+          <t>Jun 13 1:46PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1" t="n">
         <v>0</v>
@@ -4718,341 +4718,257 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2021</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>05:19:22</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>00:03:26</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>00:01:49</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>77.01000000000001</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>Jun 13 5:58PM CST</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
-        </is>
-      </c>
-      <c r="D36" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>04:56:55</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>00:01:51</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>00:01:09</t>
+        </is>
+      </c>
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="R36" s="1" t="inlineStr">
+        <is>
+          <t>Jun 14 12:47PM CST</t>
+        </is>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
@@ -5204,17 +5120,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>07:04:02</t>
+          <t>05:38:51</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>168.9</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>21.73</v>
+        <v>16.49</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 10:24AM CST</t>
+          <t>Jun 16 1:31PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:09:40</t>
+          <t>03:13:20</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>85.90000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>24.86</v>
+        <v>9.26</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 12:16PM CST</t>
+          <t>Jun 16 4:58PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>04:33:19</t>
+          <t>02:29:24</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>68.40000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>12.05</v>
+        <v>5.33</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 2:13PM CST</t>
+          <t>Jun 16 2:34PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>05:09:27</t>
+          <t>02:50:04</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>65.3</v>
+        <v>38.4</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>10.3</v>
+        <v>5.86</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 1:31PM CST</t>
+          <t>Jun 16 12:00PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>05:08:35</t>
+          <t>02:26:09</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>64.3</v>
+        <v>32.6</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>12.33</v>
+        <v>5.81</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>59</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 1:19PM CST</t>
+          <t>Jun 16 1:14PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>03:37:08</t>
+          <t>02:10:17</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>47.4</v>
+        <v>32.3</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>7.43</v>
+        <v>6.52</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 11:42AM CST</t>
+          <t>Jun 16 12:40PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,21 +1496,21 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>01:36:41</t>
+          <t>02:25:46</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>44.7</v>
+        <v>31.5</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>11.5</v>
+        <v>4.97</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 7:47AM CST</t>
+          <t>Jun 16 3:52PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>03:46:09</t>
+          <t>01:12:17</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>40.5</v>
+        <v>25.3</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>17.85</v>
+        <v>2.2</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>59</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 12:50PM CST</t>
+          <t>Jun 16 6:28PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01:28:18</t>
+          <t>00:17:44</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>24.4</v>
+        <v>5.8</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>14.72</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>56</v>
+        <v>51.54</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 10:28AM CST</t>
+          <t>Jun 16 2:07PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,44 +1838,44 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>06:28:29</t>
+          <t>00:18:35</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>145.9</v>
+        <v>4.5</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>19.16</v>
+        <v>1.37</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:02:33</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>50</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 10:33AM CST</t>
+          <t>Jun 16 4:46PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,49 +1958,49 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>07:31:28</t>
+          <t>00:17:39</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>136.4</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>18.66</v>
+        <v>2.7</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>54</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 8:30AM CST</t>
+          <t>Jun 16 3:05PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,44 +2078,44 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>03:39:52</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>101.4</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>14.53</v>
+        <v>0.35</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>51</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 10:50AM CST</t>
+          <t>Jun 16 4:31PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>04:25:46</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>72.09999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>12.38</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>18</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 10:07AM CST</t>
+          <t>Jun 16 7:05PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,26 +2336,26 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>03:42:11</t>
+          <t>03:10:40</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>60.1</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>5.61</v>
+        <v>27.58</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 7:52AM CST</t>
+          <t>Jun 16 9:20AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,12 +2438,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2456,11 +2456,11 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>03:16:53</t>
+          <t>02:11:13</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>58.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
@@ -2470,12 +2470,12 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>91.04000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 2:51PM CST</t>
+          <t>Jun 16 2:35PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,44 +2558,44 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>05:39:20</t>
+          <t>02:56:16</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>101.2</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>13.59</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:03:48</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:02:50</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 11:27AM CST</t>
+          <t>Jun 16 1:42PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>05:10:21</t>
+          <t>01:44:53</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>96.3</v>
+        <v>30.2</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:01:58</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>95.91</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 7:49AM CST</t>
+          <t>Jun 16 12:39PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,49 +2798,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>04:21:59</t>
+          <t>00:56:47</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>78.09999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>9.15</v>
+        <v>3.83</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:01:25</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 11:50AM CST</t>
+          <t>Jun 16 12:05PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>08:09:01</t>
+          <t>01:19:49</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>171.6</v>
+        <v>25.4</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>24.08</v>
+        <v>3.87</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:03:50</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 8:20AM CST</t>
+          <t>Jun 16 3:15PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t xml:space="preserve">Cristian Estrada </t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>04:31:59</t>
+          <t>04:01:30</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>101</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>16.32</v>
+        <v>12.4</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:03:39</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:03:15</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 12:03PM CST</t>
+          <t>Jun 16 2:07PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>05:32:03</t>
+          <t>01:19:15</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>177.1</v>
+        <v>27.2</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>21.3</v>
+        <v>4.18</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:05:25</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:05:38</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>102.01</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 3:14PM CST</t>
+          <t>Jun 16 11:01AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,61 +3278,61 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian Estrada </t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>06:33:33</t>
+          <t>01:48:24</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>103.3</v>
+        <v>33.6</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>16.91</v>
+        <v>5.75</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:06:10</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>0</v>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 1:24PM CST</t>
+          <t>Jun 16 1:19PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,54 +3398,54 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D24" s="8" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>06:42:40</t>
+          <t>02:30:48</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>125.8</v>
+        <v>46.6</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>20.35</v>
+        <v>6.92</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 2:34PM CST</t>
+          <t>Jun 16 2:22PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,74 +3518,74 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>68</v>
+          <t>TOYOTA HILUX 2018</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>08:28:28</t>
+          <t>04:03:33</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>616.5</v>
+        <v>90.8</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>129.79</v>
+        <v>14.64</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:13:55</t>
+          <t>00:03:30</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:16:30</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:04:40</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>107.01</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 4:26AM CST</t>
+          <t>Jun 16 5:10PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,61 +3638,61 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="n">
-        <v>68</v>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>07:18:08</t>
+          <t>05:54:13</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>185.2</v>
+        <v>285.4</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>23.61</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:07:29</t>
+          <t>00:11:23</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:06:06</t>
+          <t>00:08:23</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>112.63</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 1:03PM CST</t>
+          <t>Jun 16 12:34PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,12 +3758,12 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -3771,16 +3771,16 @@
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="D27" s="9" t="n">
-        <v>67</v>
+      <c r="D27" s="8" t="n">
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>05:39:20</t>
+          <t>09:48:13</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>319.9</v>
+        <v>484</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0</v>
@@ -3790,42 +3790,42 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:08:02</t>
+          <t>00:05:26</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:10:09</t>
+          <t>00:06:47</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:04:05</t>
+          <t>00:04:55</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O27" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>100.19</v>
+        <v>103.9</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 10:05AM CST</t>
+          <t>Jun 16 9:28AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,62 +3878,62 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="n">
-        <v>64</v>
+          <t>TOYOTA HILUX 2021</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>07:41:56</t>
+          <t>03:19:11</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>153.4</v>
+        <v>76.7</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>14.37</v>
+        <v>9.26</v>
       </c>
       <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>00:04:21</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>00:03:20</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>00:01:01</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>00:00:16</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>00:04:18</t>
-        </is>
-      </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>00:01:56</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
-        <is>
-          <t>00:00:11</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>00:00:06</t>
-        </is>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" s="1" t="n">
         <v>0</v>
       </c>
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 14 8:20AM CST</t>
+          <t>Jun 16 2:00PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>0</v>
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D29" s="9" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>04:57:54</t>
+          <t>04:09:49</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>112.1</v>
+        <v>95.8</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>10.77</v>
+        <v>12.82</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:02:10</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:05:10</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:01:51</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>102.01</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 8:29AM CST</t>
+          <t>Jun 16 1:21PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
@@ -4118,81 +4118,81 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>14:06:21</t>
+          <t>03:30:40</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>747.2</v>
+        <v>71.8</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>230.99</v>
+        <v>6.45</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:15:48</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:12:50</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:07:30</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>100.01</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 13 4:21AM CST</t>
+          <t>Jun 16 9:34AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" s="1" t="n">
         <v>0</v>
@@ -4238,737 +4238,989 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>14:09:07</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>726.3</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>176.47</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>00:12:40</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>00:13:14</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
-        <is>
-          <t>00:07:20</t>
-        </is>
-      </c>
-      <c r="L31" s="1" t="inlineStr">
-        <is>
-          <t>00:02:29</t>
-        </is>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>109.01</v>
-      </c>
-      <c r="R31" s="1" t="inlineStr">
-        <is>
-          <t>Jun 14 3:38PM CST</t>
-        </is>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="1" t="n">
-        <v>0</v>
+          <t>FORD F350 3MTS 2006</t>
+        </is>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>08:22:27</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>115.1</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>00:07:11</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>00:17:53</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>00:12:52</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>00:02:59</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="O32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="R32" s="1" t="inlineStr">
-        <is>
-          <t>Jun 13 12:11PM CST</t>
-        </is>
-      </c>
-      <c r="S32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z32" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="1" t="n">
-        <v>0</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>10:34:35</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>345.7</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>36.09</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>00:09:26</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>00:11:15</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
-        <is>
-          <t>00:06:23</t>
-        </is>
-      </c>
-      <c r="L33" s="1" t="inlineStr">
-        <is>
-          <t>00:05:22</t>
-        </is>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>96.01000000000001</v>
-      </c>
-      <c r="R33" s="1" t="inlineStr">
-        <is>
-          <t>Jun 13 6:13PM CST</t>
-        </is>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="1" t="n">
-        <v>0</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>06:27:38</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>00:03:41</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>00:04:41</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>00:04:59</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>00:05:30</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>105.44</v>
-      </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t>Jun 13 1:46PM CST</t>
-        </is>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1" t="n">
-        <v>0</v>
+          <t>WORKEN</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>05:19:22</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>00:03:26</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>00:01:49</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>77.01000000000001</v>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>Jun 13 5:58PM CST</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1" t="n">
-        <v>0</v>
+          <t>NISSAN 1993</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>04:56:55</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
-        <is>
-          <t>00:01:51</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>00:01:09</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="R36" s="1" t="inlineStr">
-        <is>
-          <t>Jun 14 12:47PM CST</t>
-        </is>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1" t="n">
-        <v>0</v>
+          <t>KENWORTH</t>
+        </is>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
@@ -5120,17 +5372,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5282,17 +5534,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>05:38:51</t>
+          <t>05:08:14</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>186</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>16.49</v>
+        <v>16.22</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:31PM CST</t>
+          <t>Jun 17 4:33PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:13:20</t>
+          <t>03:26:59</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>66.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>9.26</v>
+        <v>11.37</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 4:58PM CST</t>
+          <t>Jun 17 1:15PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:29:24</t>
+          <t>02:44:34</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>41.9</v>
+        <v>58.7</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5.33</v>
+        <v>6.17</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>65.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:34PM CST</t>
+          <t>Jun 17 9:11AM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t xml:space="preserve">Cristian Estrada </t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,21 +1136,21 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:50:04</t>
+          <t>02:33:40</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>38.4</v>
+        <v>44.7</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>5.86</v>
+        <v>7.1</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:00PM CST</t>
+          <t>Jun 17 12:36PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:26:09</t>
+          <t>01:26:27</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>32.6</v>
+        <v>35.6</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>5.81</v>
+        <v>10.56</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>62</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:14PM CST</t>
+          <t>Jun 17 11:06AM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:10:17</t>
+          <t>02:37:19</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>32.3</v>
+        <v>33.7</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>6.52</v>
+        <v>6.86</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>61</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:40PM CST</t>
+          <t>Jun 17 2:34PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:25:46</t>
+          <t>02:06:14</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>31.5</v>
+        <v>32.9</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>4.97</v>
+        <v>3.69</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 3:52PM CST</t>
+          <t>Jun 17 3:03PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,26 +1616,26 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01:12:17</t>
+          <t>01:42:48</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>25.3</v>
+        <v>28.1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>60.96</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 6:28PM CST</t>
+          <t>Jun 17 1:13PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,26 +1736,26 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:17:44</t>
+          <t>02:10:03</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>5.8</v>
+        <v>26.3</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>51.54</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:07PM CST</t>
+          <t>Jun 17 1:54PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:18:35</t>
+          <t>01:07:41</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>4.5</v>
+        <v>17.1</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>50</v>
+        <v>50.92</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 4:46PM CST</t>
+          <t>Jun 17 11:30AM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:17:39</t>
+          <t>00:31:32</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 3:05PM CST</t>
+          <t>Jun 17 1:15PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.35</v>
+        <v>0.79</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 4:31PM CST</t>
+          <t>Jun 17 6:14PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>03:09:03</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.1</v>
+        <v>103.2</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.5</v>
+        <v>13.58</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>18</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 7:05PM CST</t>
+          <t>Jun 17 10:30AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,26 +2336,26 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>03:10:40</t>
+          <t>02:55:32</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>81.90000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>27.58</v>
+        <v>8.59</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 9:20AM CST</t>
+          <t>Jun 17 2:34PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:11:13</t>
+          <t>01:57:51</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>68.09999999999999</v>
+        <v>37.2</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>5.18</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>84.5</v>
+        <v>62</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:35PM CST</t>
+          <t>Jun 17 2:49PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:56:16</t>
+          <t>01:53:40</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>49</v>
+        <v>35.5</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>8.460000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:42PM CST</t>
+          <t>Jun 17 2:46PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>01:44:53</t>
+          <t>01:52:07</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>30.2</v>
+        <v>32.5</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>68.06</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:39PM CST</t>
+          <t>Jun 17 3:45PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,17 +2798,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -2816,26 +2816,26 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>00:56:47</t>
+          <t>01:18:11</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>29.3</v>
+        <v>13.8</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>3.83</v>
+        <v>5.9</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:05PM CST</t>
+          <t>Jun 17 11:11AM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,44 +2918,44 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>01:19:49</t>
+          <t>01:45:25</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>25.4</v>
+        <v>33.5</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>3.87</v>
+        <v>5.46</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 3:15PM CST</t>
+          <t>Jun 17 1:32PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,12 +3038,12 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian Estrada </t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -3056,26 +3056,26 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>04:01:30</t>
+          <t>01:07:56</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>92.90000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>12.4</v>
+        <v>3.42</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:03:39</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>88.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:07PM CST</t>
+          <t>Jun 17 2:39PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,12 +3158,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -3172,30 +3172,30 @@
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>01:19:15</t>
+          <t>04:25:48</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>27.2</v>
+        <v>105.4</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>4.18</v>
+        <v>14.13</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:04:33</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:02:19</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 11:01AM CST</t>
+          <t>Jun 17 12:25PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>01:48:24</t>
+          <t>03:49:56</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>33.6</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>5.75</v>
+        <v>9.66</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:06:10</t>
+          <t>00:01:04</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>0</v>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:19PM CST</t>
+          <t>Jun 17 9:45AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,49 +3398,49 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>89</v>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>96</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:30:48</t>
+          <t>02:14:46</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>46.6</v>
+        <v>45.9</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>6.92</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:02:04</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:22PM CST</t>
+          <t>Jun 17 4:10PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,54 +3518,54 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>86</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>04:03:33</t>
+          <t>02:55:39</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>90.8</v>
+        <v>62.3</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>14.64</v>
+        <v>9.76</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:03:30</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:02:47</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 5:10PM CST</t>
+          <t>Jun 17 10:45AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,61 +3638,61 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>79</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>95</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>05:54:13</t>
+          <t>01:25:27</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>285.4</v>
+        <v>29.7</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:11:23</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:08:23</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>112.63</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:34PM CST</t>
+          <t>Jun 17 11:29AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,74 +3758,74 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>09:48:13</t>
+          <t>04:25:02</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>484</v>
+        <v>81.3</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:05:26</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:06:47</t>
+          <t>00:01:48</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:04:55</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>103.9</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 9:28AM CST</t>
+          <t>Jun 17 10:57AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,61 +3878,61 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D28" s="8" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:19:11</t>
+          <t>03:00:17</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>76.7</v>
+        <v>72.3</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>9.26</v>
+        <v>6.84</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:04:21</t>
+          <t>00:03:16</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:03:20</t>
+          <t>00:03:27</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:01:01</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:00PM CST</t>
+          <t>Jun 17 1:25PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,49 +3998,49 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="n">
-        <v>48</v>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>83</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>04:09:49</t>
+          <t>00:44:48</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>95.8</v>
+        <v>15.1</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>12.82</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:21PM CST</t>
+          <t>Jun 17 12:46PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="n">
-        <v>0</v>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>70</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>03:30:40</t>
+          <t>08:01:57</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>71.8</v>
+        <v>380.1</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>6.45</v>
+        <v>117.49</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:06:57</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:38</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:01:39</t>
+          <t>00:04:16</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4175,24 +4175,24 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>100.01</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 9:34AM CST</t>
+          <t>Jun 17 4:52AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1" t="n">
         <v>0</v>
@@ -4238,665 +4238,497 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
-        </is>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>HINO 500</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>08:03:25</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>374.1</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>89.20999999999999</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>00:06:17</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>00:08:29</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>00:01:54</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:59</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>108.01</v>
+      </c>
+      <c r="R31" s="1" t="inlineStr">
+        <is>
+          <t>Jun 17 6:12AM CST</t>
+        </is>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D32" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>Hino 300 2024</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>06:29:56</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>00:02:54</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>00:06:14</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>00:07:57</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>00:05:17</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>111.01</v>
+      </c>
+      <c r="R32" s="1" t="inlineStr">
+        <is>
+          <t>Jun 17 9:22AM CST</t>
+        </is>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z32" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D33" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2023</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>02:08:58</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="R33" s="1" t="inlineStr">
+        <is>
+          <t>Jun 17 1:29PM CST</t>
+        </is>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2020</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>01:12:10</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:27</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:32</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="R34" s="1" t="inlineStr">
+        <is>
+          <t>Jun 17 8:51AM CST</t>
+        </is>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D35" s="10" t="inlineStr">
@@ -5048,17 +4880,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D36" s="10" t="inlineStr">
@@ -5210,17 +5042,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -221,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InformeTable" displayName="InformeTable" ref="A1:AF39" headerRowCount="1">
-  <autoFilter ref="A1:AF39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InformeTable" displayName="InformeTable" ref="A1:AF41" headerRowCount="1">
+  <autoFilter ref="A1:AF41"/>
   <tableColumns count="32">
     <tableColumn id="1" name="Operador"/>
     <tableColumn id="2" name="Número de unidad"/>
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -758,7 +758,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>05:08:14</t>
+          <t>02:58:47</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>91.90000000000001</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>16.22</v>
+        <v>7.78</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 4:33PM CST</t>
+          <t>Jun 18 4:07PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,21 +896,21 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:26:59</t>
+          <t>02:09:22</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>75.40000000000001</v>
+        <v>43.8</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>11.37</v>
+        <v>7.12</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 1:15PM CST</t>
+          <t>Jun 18 1:11PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:44:34</t>
+          <t>02:27:43</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>58.7</v>
+        <v>40.6</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>6.17</v>
+        <v>6.04</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 9:11AM CST</t>
+          <t>Jun 18 1:45PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian Estrada </t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,21 +1136,21 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:33:40</t>
+          <t>02:55:27</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>44.7</v>
+        <v>36.3</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>7.1</v>
+        <v>5.78</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 12:36PM CST</t>
+          <t>Jun 18 2:27PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,21 +1256,21 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>01:26:27</t>
+          <t>02:51:50</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>35.6</v>
+        <v>33.4</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>10.56</v>
+        <v>5.87</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 11:06AM CST</t>
+          <t>Jun 18 1:14PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t xml:space="preserve">Cristian Estrada </t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,26 +1376,26 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:37:19</t>
+          <t>01:52:08</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>6.86</v>
+        <v>4.63</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 2:34PM CST</t>
+          <t>Jun 18 9:16AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:06:14</t>
+          <t>01:59:31</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>32.9</v>
+        <v>30.5</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>3.69</v>
+        <v>5.48</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 3:03PM CST</t>
+          <t>Jun 18 8:03AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,26 +1616,26 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01:42:48</t>
+          <t>02:28:45</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>60.96</v>
+        <v>46</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 1:13PM CST</t>
+          <t>Jun 18 2:27PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,26 +1736,26 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>02:10:03</t>
+          <t>01:54:43</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>26.3</v>
+        <v>22.1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>4.84</v>
+        <v>9.42</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>54</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 1:54PM CST</t>
+          <t>Jun 18 3:05PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>01:07:41</t>
+          <t>00:21:31</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>17.1</v>
+        <v>4.5</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>50.92</v>
+        <v>40</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 11:30AM CST</t>
+          <t>Jun 18 2:54PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:31:32</t>
+          <t>00:14:39</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 1:15PM CST</t>
+          <t>Jun 18 6:15PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,21 +2096,21 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:18:44</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.1</v>
+        <v>4.1</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.79</v>
+        <v>1.43</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 6:14PM CST</t>
+          <t>Jun 18 2:14PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>03:09:03</t>
+          <t>00:13:15</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>103.2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>13.58</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>47</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 10:30AM CST</t>
+          <t>Jun 18 12:59PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,44 +2318,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>02:55:32</t>
+          <t>00:14:06</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>54.6</v>
+        <v>1.4</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>8.59</v>
+        <v>0.38</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>44</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 2:34PM CST</t>
+          <t>Jun 18 6:35PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>01:57:51</t>
+          <t>04:21:32</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>37.2</v>
+        <v>108.3</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>5.18</v>
+        <v>15.77</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>62</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 2:49PM CST</t>
+          <t>Jun 18 1:45PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>01:53:40</t>
+          <t>04:53:59</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>35.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>6.44</v>
+        <v>15.87</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:02:35</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 2:46PM CST</t>
+          <t>Jun 18 11:58AM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>01:52:07</t>
+          <t>04:35:17</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>32.5</v>
+        <v>89.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>12.09</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:02:11</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>68.06</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 3:45PM CST</t>
+          <t>Jun 18 2:33PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,17 +2798,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -2816,26 +2816,26 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>01:18:11</t>
+          <t>02:32:08</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>13.8</v>
+        <v>52.4</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>5.9</v>
+        <v>16.44</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:01:25</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 11:11AM CST</t>
+          <t>Jun 18 9:05AM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,44 +2918,44 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>01:45:25</t>
+          <t>00:44:39</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>33.5</v>
+        <v>14.9</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>5.46</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 1:32PM CST</t>
+          <t>Jun 18 4:30PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,17 +3038,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
@@ -3056,26 +3056,26 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>01:07:56</t>
+          <t>02:52:45</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>27.6</v>
+        <v>73.8</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>3.42</v>
+        <v>7.86</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:02:34</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 2:39PM CST</t>
+          <t>Jun 18 5:00PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t xml:space="preserve">José Morales </t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>04:25:48</t>
+          <t>02:21:22</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>105.4</v>
+        <v>43.2</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>14.13</v>
+        <v>6.8</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:04:33</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 12:25PM CST</t>
+          <t>Jun 18 2:14PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,39 +3278,39 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>03:49:56</t>
+          <t>02:07:01</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>75.90000000000001</v>
+        <v>41.4</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>9.66</v>
+        <v>7.27</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:01:39</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 9:45AM CST</t>
+          <t>Jun 18 2:13PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,49 +3398,49 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:14:46</t>
+          <t>02:27:01</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>45.9</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>8.529999999999999</v>
+        <v>7.25</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>63</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 4:10PM CST</t>
+          <t>Jun 18 11:38AM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,12 +3518,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Jonathan Alvarez</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3532,35 +3532,35 @@
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>02:55:39</t>
+          <t>01:50:05</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>62.3</v>
+        <v>29.3</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>9.76</v>
+        <v>4.73</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:02:47</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 10:45AM CST</t>
+          <t>Jun 18 2:29PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,17 +3638,17 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
@@ -3656,36 +3656,36 @@
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>01:25:27</t>
+          <t>03:51:44</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>29.7</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>2.67</v>
+        <v>8.15</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 11:29AM CST</t>
+          <t>Jun 18 10:22AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>89</v>
+          <t>TOYOTA HILUX 2020</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>04:25:02</t>
+          <t>03:15:49</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>81.3</v>
+        <v>44.5</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>7.2</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:01:48</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 10:57AM CST</t>
+          <t>Jun 18 3:41PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,12 +3878,12 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -3891,41 +3891,41 @@
           <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
-      <c r="D28" s="8" t="n">
-        <v>89</v>
+      <c r="D28" s="7" t="n">
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:00:17</t>
+          <t>01:21:24</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>72.3</v>
+        <v>22.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>6.84</v>
+        <v>2.12</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:03:16</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:03:27</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 1:25PM CST</t>
+          <t>Jun 18 11:47AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,49 +3998,49 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>83</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>93</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>00:44:48</t>
+          <t>04:12:39</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>15.1</v>
+        <v>118.8</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>14.08</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:03:18</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:02:51</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>72.54000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 12:46PM CST</t>
+          <t>Jun 18 2:02PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>70</v>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>91</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>08:01:57</t>
+          <t>10:09:15</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>380.1</v>
+        <v>407.2</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>117.49</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:06:57</t>
+          <t>00:06:13</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:03:38</t>
+          <t>00:04:28</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:04:16</t>
+          <t>00:01:54</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4175,17 +4175,17 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>100.01</v>
+        <v>97.64</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 4:52AM CST</t>
+          <t>Jun 18 7:06AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,74 +4238,74 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="n">
-        <v>69</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>79</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>08:03:25</t>
+          <t>08:35:08</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>374.1</v>
+        <v>359.9</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>89.20999999999999</v>
+        <v>47.57</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:06:17</t>
+          <t>00:12:25</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:08:29</t>
+          <t>00:08:34</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:01:54</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>108.01</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 6:12AM CST</t>
+          <t>Jun 18 6:02AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,74 +4358,74 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>0</v>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>06:29:56</t>
+          <t>06:07:50</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>345</v>
+        <v>323.1</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>37.88</v>
+        <v>85.5</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:02:54</t>
+          <t>00:09:37</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:06:14</t>
+          <t>00:02:25</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:07:57</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:05:17</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>111.01</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 9:22AM CST</t>
+          <t>Jun 18 11:22AM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,62 +4478,62 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>02:08:58</t>
+          <t>05:22:06</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>24.7</v>
+        <v>331</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>4.2</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="H33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>00:04:02</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>00:07:58</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>00:04:01</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>00:01:03</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
       </c>
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>48</v>
+        <v>107.01</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 1:29PM CST</t>
+          <t>Jun 18 12:41PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF33" s="1" t="n">
         <v>0</v>
@@ -4598,44 +4598,44 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>01:12:10</t>
+          <t>03:13:45</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>22.1</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:01:48</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -4661,11 +4661,11 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>85.77</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 17 8:51AM CST</t>
+          <t>Jun 18 4:35PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4718,808 +4718,922 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>07:23:03</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>469.4</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>132.51</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>00:02:04</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>00:05:45</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:28</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>101.01</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>Jun 18 6:05AM CST</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
-        </is>
-      </c>
-      <c r="D36" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>04:52:13</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:33</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>80.01000000000001</v>
+      </c>
+      <c r="R36" s="1" t="inlineStr">
+        <is>
+          <t>Jun 18 2:09PM CST</t>
+        </is>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
-        </is>
-      </c>
-      <c r="D37" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>01:59:26</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>00:01:34</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>00:01:28</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:11</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:10</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>88.01000000000001</v>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
+        <is>
+          <t>Jun 18 8:53AM CST</t>
+        </is>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D38" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>02:26:38</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>00:01:11</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:55</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:10</t>
+        </is>
+      </c>
+      <c r="L38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="R38" s="1" t="inlineStr">
+        <is>
+          <t>Jun 18 9:32AM CST</t>
+        </is>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
-        </is>
-      </c>
-      <c r="D39" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE39" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF39" s="11" t="inlineStr">
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>01:18:07</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>00:01:30</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>00:04:24</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>00:02:29</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>00:00:22</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>83.39</v>
+      </c>
+      <c r="R39" s="1" t="inlineStr">
+        <is>
+          <t>Jun 18 1:01PM CST</t>
+        </is>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z39" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alberto Jimenez</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D40" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF40" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alberto Compras</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>NISSAN 1993</t>
+        </is>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE41" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF41" s="11" t="inlineStr">
         <is>
           <t>Sin ruta</t>
         </is>

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02:58:47</t>
+          <t>04:49:46</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>51</v>
+        <v>94.7</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>7.78</v>
+        <v>14.15</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>56</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 4:07PM CST</t>
+          <t>Jun 19 11:36AM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,21 +896,21 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>02:09:22</t>
+          <t>03:24:34</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>43.8</v>
+        <v>38.3</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>7.12</v>
+        <v>6.46</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 1:11PM CST</t>
+          <t>Jun 19 2:18PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:27:43</t>
+          <t>02:05:32</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>40.6</v>
+        <v>36.9</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>6.04</v>
+        <v>5.81</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 1:45PM CST</t>
+          <t>Jun 19 1:05PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:55:27</t>
+          <t>02:36:53</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>36.3</v>
+        <v>34.9</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>5.78</v>
+        <v>6.28</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:27PM CST</t>
+          <t>Jun 19 2:24PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:51:50</t>
+          <t>01:56:30</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>33.4</v>
+        <v>22.1</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>5.87</v>
+        <v>3.96</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 1:14PM CST</t>
+          <t>Jun 19 3:00PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian Estrada </t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,21 +1376,21 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>01:52:08</t>
+          <t>01:43:54</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>33.4</v>
+        <v>16.6</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>4.63</v>
+        <v>7.59</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>58</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 9:16AM CST</t>
+          <t>Jun 19 2:38PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,21 +1496,21 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>01:59:31</t>
+          <t>00:39:10</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>30.5</v>
+        <v>5.8</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>5.48</v>
+        <v>1.51</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 8:03AM CST</t>
+          <t>Jun 19 1:28PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>02:28:45</t>
+          <t>00:17:50</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>28.5</v>
+        <v>4.2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>4.45</v>
+        <v>2.34</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:27PM CST</t>
+          <t>Jun 19 4:20PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01:54:43</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>22.1</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>9.42</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 3:05PM CST</t>
+          <t>Jun 19 6:48PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,49 +1838,49 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:21:31</t>
+          <t>04:23:54</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>4.5</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>3.85</v>
+        <v>8.92</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>40</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:54PM CST</t>
+          <t>Jun 19 12:39PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,44 +1958,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t xml:space="preserve">Cristian Estrada </t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:14:39</t>
+          <t>04:15:37</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>4.3</v>
+        <v>80.2</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.8100000000000001</v>
+        <v>11.42</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>52</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 6:15PM CST</t>
+          <t>Jun 19 1:24PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,51 +2078,51 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:18:44</t>
+          <t>03:15:32</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>4.1</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1.43</v>
+        <v>9.77</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
+          <t>00:00:52</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>00:00:21</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
           <t>00:00:05</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>58</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:14PM CST</t>
+          <t>Jun 19 9:22AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t xml:space="preserve">José Morales </t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:13:15</t>
+          <t>03:03:30</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>4</v>
+        <v>56.5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>2</v>
+        <v>8.51</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>47</v>
+        <v>73.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 12:59PM CST</t>
+          <t>Jun 19 1:47PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,44 +2318,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compras </t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>00:14:06</t>
+          <t>03:17:57</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1.4</v>
+        <v>54.4</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.38</v>
+        <v>4.85</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>44</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 6:35PM CST</t>
+          <t>Jun 19 10:50AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,12 +2438,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2456,21 +2456,21 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>04:21:32</t>
+          <t>02:18:20</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>108.3</v>
+        <v>42.5</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>15.77</v>
+        <v>6.49</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>64</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 1:45PM CST</t>
+          <t>Jun 19 4:06PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,49 +2558,49 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diego Cardenas </t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>04:53:59</t>
+          <t>03:03:50</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>95.09999999999999</v>
+        <v>55.7</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>15.87</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:02:35</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 11:58AM CST</t>
+          <t>Jun 19 2:27PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Iñiguez </t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>04:35:17</t>
+          <t>03:07:35</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>89.8</v>
+        <v>53.2</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>12.09</v>
+        <v>8.07</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:02:11</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:01:46</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:33PM CST</t>
+          <t>Jun 19 11:49AM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,54 +2798,54 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>02:32:08</t>
+          <t>08:09:16</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>52.4</v>
+        <v>344.5</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>16.44</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:01:25</t>
+          <t>00:05:22</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:05:47</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M19" s="1" t="n">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>94.77</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 9:05AM CST</t>
+          <t>Jun 19 6:27AM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>00:44:39</t>
+          <t>04:26:39</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>14.9</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0</v>
+        <v>14.13</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>71.86</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 4:30PM CST</t>
+          <t>Jun 19 2:23PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>02:52:45</t>
+          <t>02:01:02</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>73.8</v>
+        <v>41.4</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>7.86</v>
+        <v>11.46</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:02:34</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 5:00PM CST</t>
+          <t>Jun 19 2:46PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,54 +3158,54 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">José Morales </t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>02:21:22</t>
+          <t>06:16:47</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>43.2</v>
+        <v>314</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>6.8</v>
+        <v>35.38</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:03:01</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:01:01</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M22" s="1" t="n">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>102.01</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:14PM CST</t>
+          <t>Jun 19 4:24PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,44 +3278,44 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>98</v>
+          <t>TOYOTA HILUX 2018</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>02:07:01</t>
+          <t>03:38:02</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>41.4</v>
+        <v>85.3</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>7.27</v>
+        <v>12.51</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:00:57</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:01:04</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:13PM CST</t>
+          <t>Jun 19 12:33PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,54 +3398,54 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Jonathan Alvarez</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>98</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:27:01</t>
+          <t>02:31:30</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>7.25</v>
+        <v>6.87</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>63</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 11:38AM CST</t>
+          <t>Jun 19 1:38PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,12 +3518,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Alvarez</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3531,41 +3531,41 @@
           <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
-      <c r="D25" s="7" t="n">
-        <v>98</v>
+      <c r="D25" s="8" t="n">
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>01:50:05</t>
+          <t>02:27:06</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>29.3</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>4.73</v>
+        <v>5.01</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:04:05</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:29PM CST</t>
+          <t>Jun 19 10:27AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,54 +3638,54 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>95</v>
+          <t>TOYOTA HILUX</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>81</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>03:51:44</t>
+          <t>02:52:39</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>78</v>
+        <v>52.5</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>8.15</v>
+        <v>8.76</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:01:31</t>
+          <t>00:00:41</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 10:22AM CST</t>
+          <t>Jun 19 2:47PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,61 +3758,61 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>95</v>
+          <t>TOYOTA HILUX 2021</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>73</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>03:15:49</t>
+          <t>05:37:33</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>44.5</v>
+        <v>289.1</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>8.289999999999999</v>
+        <v>33.83</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:07:24</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
+          <t>00:05:34</t>
+        </is>
+      </c>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>00:01:35</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
           <t>00:00:28</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
-        <is>
-          <t>00:00:28</t>
-        </is>
-      </c>
-      <c r="L27" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>104.01</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 3:41PM CST</t>
+          <t>Jun 19 4:02PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,61 +3878,61 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>94</v>
+          <t>KENWORTH 2009</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>01:21:24</t>
+          <t>07:07:06</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>22.4</v>
+        <v>365.5</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>2.12</v>
+        <v>95.56</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:06:12</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:12:45</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:05:10</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>0</v>
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 11:47AM CST</t>
+          <t>Jun 19 6:06AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>93</v>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>67</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>04:12:39</t>
+          <t>05:51:25</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>118.8</v>
+        <v>166.5</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>14.08</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:03:18</t>
+          <t>00:03:28</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:02:51</t>
+          <t>00:03:23</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:03:27</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>94.34</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 2:02PM CST</t>
+          <t>Jun 19 2:46PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4131,16 +4131,16 @@
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="D30" s="7" t="n">
-        <v>91</v>
+      <c r="D30" s="9" t="n">
+        <v>63</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>10:09:15</t>
+          <t>06:44:23</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>407.2</v>
+        <v>355.3</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
@@ -4150,22 +4150,22 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:06:13</t>
+          <t>00:04:45</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:04:28</t>
+          <t>00:03:33</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:01:54</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>97.64</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 7:06AM CST</t>
+          <t>Jun 19 7:15PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4251,41 +4251,41 @@
           <t>HINO 300</t>
         </is>
       </c>
-      <c r="D31" s="8" t="n">
-        <v>79</v>
+      <c r="D31" s="9" t="n">
+        <v>60</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>08:35:08</t>
+          <t>04:57:16</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>359.9</v>
+        <v>266.5</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>47.57</v>
+        <v>28.36</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:12:25</t>
+          <t>00:03:45</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:08:34</t>
+          <t>00:07:33</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:05:55</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
@@ -4295,17 +4295,17 @@
         <v>1</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>91.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 6:02AM CST</t>
+          <t>Jun 19 1:31PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,54 +4358,54 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>79</v>
+          <t>INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>25</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>06:07:50</t>
+          <t>00:41:37</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>323.1</v>
+        <v>11.4</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>85.5</v>
+        <v>6.24</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:09:37</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:02:25</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
@@ -4421,11 +4421,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>99.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 11:22AM CST</t>
+          <t>Jun 19 1:18PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,61 +4478,61 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>05:22:06</t>
+          <t>03:13:57</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>74.56999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:04:02</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:07:58</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:04:01</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>107.01</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 12:41PM CST</t>
+          <t>Jun 19 1:21PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="1" t="n">
         <v>0</v>
@@ -4598,54 +4598,54 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>03:13:45</t>
+          <t>01:45:02</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>67.90000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:01:48</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:01:04</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
@@ -4661,24 +4661,24 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>85.77</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 18 4:35PM CST</t>
+          <t>Jun 19 12:02PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1" t="n">
         <v>0</v>
@@ -4718,617 +4718,827 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>07:23:03</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>469.4</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>132.51</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>00:02:04</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>00:05:45</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:28</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>101.01</v>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>Jun 18 6:05AM CST</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1" t="n">
-        <v>0</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>04:52:13</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:33</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <v>80.01000000000001</v>
-      </c>
-      <c r="R36" s="1" t="inlineStr">
-        <is>
-          <t>Jun 18 2:09PM CST</t>
-        </is>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1" t="n">
-        <v>0</v>
+          <t>NISSAN 1993</t>
+        </is>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>01:59:26</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
-        <is>
-          <t>00:01:34</t>
-        </is>
-      </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>00:01:28</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:11</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:10</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>88.01000000000001</v>
-      </c>
-      <c r="R37" s="1" t="inlineStr">
-        <is>
-          <t>Jun 18 8:53AM CST</t>
-        </is>
-      </c>
-      <c r="S37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1" t="n">
-        <v>0</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>02:26:38</t>
-        </is>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
-        <is>
-          <t>00:01:11</t>
-        </is>
-      </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>00:00:55</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
-        <is>
-          <t>00:00:10</t>
-        </is>
-      </c>
-      <c r="L38" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1" t="n">
-        <v>74.01000000000001</v>
-      </c>
-      <c r="R38" s="1" t="inlineStr">
-        <is>
-          <t>Jun 18 9:32AM CST</t>
-        </is>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z38" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="1" t="n">
-        <v>0</v>
+          <t>TOYOTA HILUX 2020</t>
+        </is>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF38" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>01:18:07</t>
-        </is>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <t>00:01:30</t>
-        </is>
-      </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>00:04:24</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
-        <is>
-          <t>00:02:29</t>
-        </is>
-      </c>
-      <c r="L39" s="1" t="inlineStr">
-        <is>
-          <t>00:00:22</t>
-        </is>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1" t="n">
-        <v>83.39</v>
-      </c>
-      <c r="R39" s="1" t="inlineStr">
-        <is>
-          <t>Jun 18 1:01PM CST</t>
-        </is>
-      </c>
-      <c r="S39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z39" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="1" t="n">
-        <v>0</v>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+        </is>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF39" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D40" s="10" t="inlineStr">
@@ -5480,17 +5690,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D41" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>04:49:46</t>
+          <t>06:25:31</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>94.7</v>
+        <v>126.8</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>14.15</v>
+        <v>16.51</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 11:36AM CST</t>
+          <t>Jun 20 1:44PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -896,14 +896,14 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:24:34</t>
+          <t>04:22:55</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>38.3</v>
+        <v>60.3</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>6.46</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:18PM CST</t>
+          <t>Jun 21 12:46PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,12 +998,12 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:05:32</t>
+          <t>03:57:01</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>36.9</v>
+        <v>58.8</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>5.81</v>
+        <v>10.66</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:05PM CST</t>
+          <t>Jun 20 12:42PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:36:53</t>
+          <t>04:44:05</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>34.9</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>6.28</v>
+        <v>10.46</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:24PM CST</t>
+          <t>Jun 20 1:37PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1256,21 +1256,21 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>01:56:30</t>
+          <t>03:27:27</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>22.1</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>3.96</v>
+        <v>7.05</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 3:00PM CST</t>
+          <t>Jun 21 8:31AM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,21 +1376,21 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>01:43:54</t>
+          <t>02:27:19</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>16.6</v>
+        <v>34.3</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>7.59</v>
+        <v>6.61</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>58</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:38PM CST</t>
+          <t>Jun 20 12:02PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compras </t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,21 +1496,21 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>00:39:10</t>
+          <t>02:35:21</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>5.8</v>
+        <v>30.9</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>1.51</v>
+        <v>14.84</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:28PM CST</t>
+          <t>Jun 20 1:00PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>00:17:50</t>
+          <t>00:14:42</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2.34</v>
+        <v>1.31</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 4:20PM CST</t>
+          <t>Jun 21 12:18PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,49 +1718,49 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>07:24:25</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.2</v>
+        <v>138.5</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.5</v>
+        <v>11.8</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:15</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:22</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>18</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 6:48PM CST</t>
+          <t>Jun 22 2:08PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,31 +1856,31 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>04:23:54</t>
+          <t>06:51:56</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>83.09999999999999</v>
+        <v>135.3</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>8.92</v>
+        <v>16.74</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:48</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 12:39PM CST</t>
+          <t>Jun 21 1:57PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian Estrada </t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,31 +1976,31 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>04:15:37</t>
+          <t>06:52:32</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>80.2</v>
+        <v>133.2</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>11.42</v>
+        <v>10.92</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>87.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:24PM CST</t>
+          <t>Jun 20 6:04PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Iñiguez </t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,31 +2096,31 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>03:15:32</t>
+          <t>05:05:28</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>65</v>
+        <v>111.3</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>9.77</v>
+        <v>16.48</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 9:22AM CST</t>
+          <t>Jun 20 11:54AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2216,26 +2216,26 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>03:03:30</t>
+          <t>05:00:27</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>56.5</v>
+        <v>99.5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>8.51</v>
+        <v>14.36</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>73.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:47PM CST</t>
+          <t>Jun 21 12:07PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,26 +2336,26 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>03:17:57</t>
+          <t>05:42:37</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>54.4</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>4.85</v>
+        <v>14.94</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 10:50AM CST</t>
+          <t>Jun 21 12:36PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:18:20</t>
+          <t>02:55:07</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>42.5</v>
+        <v>63.7</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>6.49</v>
+        <v>8.73</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>64</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 4:06PM CST</t>
+          <t>Jun 21 9:43AM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2572,35 +2572,35 @@
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>03:03:50</t>
+          <t>03:52:57</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>55.7</v>
+        <v>57.4</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>8.970000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:27PM CST</t>
+          <t>Jun 21 10:18AM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,12 +2678,12 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t xml:space="preserve">Cristian Estrada </t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -2692,35 +2692,35 @@
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>03:07:35</t>
+          <t>10:24:43</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>53.2</v>
+        <v>224.6</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>8.07</v>
+        <v>32.41</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:01:46</t>
+          <t>00:02:12</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 11:49AM CST</t>
+          <t>Jun 21 2:25PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,54 +2798,54 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>08:09:16</t>
+          <t>05:27:09</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>344.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0</v>
+        <v>15.86</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:05:22</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:05:47</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M19" s="1" t="n">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>94.77</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 6:27AM CST</t>
+          <t>Jun 21 1:12PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,49 +2918,49 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diego Cardenas </t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>04:26:39</t>
+          <t>02:31:27</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>95.59999999999999</v>
+        <v>43.7</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>14.13</v>
+        <v>4.91</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:23PM CST</t>
+          <t>Jun 20 7:10AM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>02:01:02</t>
+          <t>00:14:39</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>41.4</v>
+        <v>4.6</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>11.46</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>62</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:46PM CST</t>
+          <t>Jun 20 8:42AM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,54 +3158,54 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>06:16:47</t>
+          <t>02:56:04</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>314</v>
+        <v>59.2</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>35.38</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:03:01</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:01:01</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M22" s="1" t="n">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>102.01</v>
+        <v>78.08</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 4:24PM CST</t>
+          <t>Jun 20 2:25PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3291,45 +3291,45 @@
           <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
-      <c r="D23" s="8" t="n">
-        <v>86</v>
+      <c r="D23" s="7" t="n">
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>03:38:02</t>
+          <t>06:05:29</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>85.3</v>
+        <v>166</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>12.51</v>
+        <v>24.86</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:02:42</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>0</v>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 12:33PM CST</t>
+          <t>Jun 20 4:49PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,54 +3398,54 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Alvarez</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>86</v>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:31:30</t>
+          <t>03:15:13</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>52</v>
+        <v>53.6</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>6.87</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>74.38</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:38PM CST</t>
+          <t>Jun 20 1:38PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,12 +3518,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>Jonathan Alvarez</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="D25" s="8" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>02:27:06</t>
+          <t>07:33:16</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>5.01</v>
+        <v>20.88</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:04:05</t>
+          <t>00:04:25</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:04:30</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:01:41</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>86.01000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 10:27AM CST</t>
+          <t>Jun 21 10:17AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,54 +3638,54 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>02:52:39</t>
+          <t>04:21:17</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>52.5</v>
+        <v>101.1</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>8.76</v>
+        <v>12.84</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:02:21</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:47PM CST</t>
+          <t>Jun 21 12:47PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,61 +3758,61 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>05:37:33</t>
+          <t>04:30:38</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>289.1</v>
+        <v>98.5</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>33.83</v>
+        <v>18.66</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:07:24</t>
+          <t>00:02:17</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:05:34</t>
+          <t>00:02:38</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:01:35</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
         <v>0</v>
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>104.01</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 4:02PM CST</t>
+          <t>Jun 20 4:02PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,74 +3878,74 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>71</v>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>07:07:06</t>
+          <t>06:35:33</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>365.5</v>
+        <v>336.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>95.56</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:06:12</t>
+          <t>00:06:22</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:12:45</t>
+          <t>00:07:45</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:05:10</t>
+          <t>00:02:52</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>97.01000000000001</v>
+        <v>100.19</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 6:06AM CST</t>
+          <t>Jun 20 10:26AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D29" s="9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>05:51:25</t>
+          <t>13:27:44</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>166.5</v>
+        <v>733.3</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>187.99</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:03:28</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:03:23</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:03:27</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,21 +4061,21 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>94.34</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 2:46PM CST</t>
+          <t>Jun 20 3:08AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V29" s="1" t="n">
         <v>0</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>06:44:23</t>
+          <t>14:50:31</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>355.3</v>
+        <v>728.1</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>187.78</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:04:45</t>
+          <t>00:06:19</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:03:33</t>
+          <t>00:05:36</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:02:15</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>99.81999999999999</v>
+        <v>117.01</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 7:15PM CST</t>
+          <t>Jun 21 3:27PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="1" t="n">
         <v>0</v>
@@ -4238,84 +4238,84 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>04:57:16</t>
+          <t>09:28:18</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>266.5</v>
+        <v>444.7</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>28.36</v>
+        <v>128.4</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:03:45</t>
+          <t>00:10:43</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:07:33</t>
+          <t>00:17:59</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:05:55</t>
+          <t>00:07:31</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:06:47</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O31" s="1" t="n">
+      <c r="P31" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:31PM CST</t>
+          <t>Jun 20 3:13PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1" t="n">
         <v>0</v>
@@ -4358,54 +4358,54 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Sanchez</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>00:41:37</t>
+          <t>08:45:10</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>11.4</v>
+        <v>357.2</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>6.24</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:03:02</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:05:00</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:03:12</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:05:04</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
@@ -4418,14 +4418,14 @@
         <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>96.14</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:18PM CST</t>
+          <t>Jun 20 3:13PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,17 +4478,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
@@ -4496,36 +4496,36 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>03:13:57</t>
+          <t>08:59:26</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>52</v>
+        <v>279.1</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>9.800000000000001</v>
+        <v>33.42</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:10:01</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:06:00</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:04:54</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:08:08</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
@@ -4538,14 +4538,14 @@
         <v>0</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 1:21PM CST</t>
+          <t>Jun 20 2:40PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,63 +4616,63 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>01:45:02</t>
+          <t>05:56:05</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>33.6</v>
+        <v>161.9</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>3.34</v>
+        <v>23.37</v>
       </c>
       <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>00:03:44</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>00:04:12</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>00:07:30</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>00:05:32</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:27</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>00:01:04</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:44</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:15</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jun 19 12:02PM CST</t>
+          <t>Jun 20 2:42PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1" t="n">
         <v>0</v>
@@ -4718,336 +4718,252 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>06:54:32</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>00:05:09</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>00:03:06</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>77.01000000000001</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>Jun 20 8:54AM CST</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>/</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
-        </is>
-      </c>
-      <c r="D36" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>04:09:07</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>00:01:45</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>00:01:47</t>
+        </is>
+      </c>
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:16</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:33</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>80.01000000000001</v>
+      </c>
+      <c r="R36" s="1" t="inlineStr">
+        <is>
+          <t>Jun 21 10:54AM CST</t>
+        </is>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
@@ -5204,17 +5120,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>Alberto Compras</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>NISSAN 1993</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5366,17 +5282,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">
@@ -5528,17 +5444,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D40" s="10" t="inlineStr">
@@ -5690,17 +5606,17 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D41" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -221,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InformeTable" displayName="InformeTable" ref="A1:AF41" headerRowCount="1">
-  <autoFilter ref="A1:AF41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InformeTable" displayName="InformeTable" ref="A1:AF40" headerRowCount="1">
+  <autoFilter ref="A1:AF40"/>
   <tableColumns count="32">
     <tableColumn id="1" name="Operador"/>
     <tableColumn id="2" name="Número de unidad"/>
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF41"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>JOSE MORALES</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>06:25:31</t>
+          <t>05:38:51</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>126.8</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>16.51</v>
+        <v>4.52</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 1:44PM CST</t>
+          <t>Jun 16 1:31PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>04:22:55</t>
+          <t>03:13:20</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>60.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>9.380000000000001</v>
+        <v>13.24</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>54</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 12:46PM CST</t>
+          <t>Jun 16 4:58PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Jonathan Alvarez</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>03:57:01</t>
+          <t>02:29:24</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>58.8</v>
+        <v>41.9</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>10.66</v>
+        <v/>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>59</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 12:42PM CST</t>
+          <t>Jun 16 2:34PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>04:44:05</t>
+          <t>02:50:04</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>57</v>
+        <v>38.4</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>10.46</v>
+        <v>3.34</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 1:37PM CST</t>
+          <t>Jun 16 12:00PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>03:27:27</t>
+          <t>02:26:09</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>47</v>
+        <v>32.6</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>7.05</v>
+        <v>0.05</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>57</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 8:31AM CST</t>
+          <t>Jun 16 1:14PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,21 +1376,21 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:27:19</t>
+          <t>02:10:17</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>34.3</v>
+        <v>32.3</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>6.61</v>
+        <v>6.35</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>61</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 12:02PM CST</t>
+          <t>Jun 16 12:40PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,21 +1496,21 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:35:21</t>
+          <t>02:25:46</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>30.9</v>
+        <v>31.5</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>14.84</v>
+        <v>0.09</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 1:00PM CST</t>
+          <t>Jun 16 3:52PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>00:14:42</t>
+          <t>01:12:17</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4.1</v>
+        <v>25.3</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>41</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 12:18PM CST</t>
+          <t>Jun 16 6:28PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,49 +1718,49 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>07:24:25</t>
+          <t>00:17:44</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>138.5</v>
+        <v>5.8</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:02:15</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>00:02:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>51.54</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 22 2:08PM CST</t>
+          <t>Jun 16 2:07PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,49 +1838,49 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Iñiguez </t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>06:51:56</t>
+          <t>00:18:35</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>135.3</v>
+        <v>4.5</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>16.74</v>
+        <v>0.74</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>50</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 1:57PM CST</t>
+          <t>Jun 16 4:46PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,49 +1958,49 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>06:52:32</t>
+          <t>00:17:39</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>133.2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>10.92</v>
+        <v>0.23</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>54</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 6:04PM CST</t>
+          <t>Jun 16 3:05PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,44 +2078,44 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>05:05:28</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>111.3</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>16.48</v>
+        <v>0.31</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>51</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 11:54AM CST</t>
+          <t>Jun 16 4:31PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">José Morales </t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>05:00:27</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>99.5</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>14.36</v>
+        <v>2.5</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>18</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 12:07PM CST</t>
+          <t>Jun 16 7:05PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,26 +2336,26 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>05:42:37</t>
+          <t>03:10:40</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>96.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>14.94</v>
+        <v>39.26</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 12:36PM CST</t>
+          <t>Jun 16 9:20AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diego Cardenas </t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:55:07</t>
+          <t>02:11:13</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>63.7</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>8.73</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 9:43AM CST</t>
+          <t>Jun 16 2:35PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,12 +2558,12 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>03:52:57</t>
+          <t>02:56:16</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>57.4</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>9.890000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 10:18AM CST</t>
+          <t>Jun 16 1:42PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristian Estrada </t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>10:24:43</t>
+          <t>01:44:53</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>224.6</v>
+        <v>30.2</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>32.41</v>
+        <v>0.14</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:02:18</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:02:12</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 2:25PM CST</t>
+          <t>Jun 16 12:39PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,49 +2798,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>05:27:09</t>
+          <t>00:56:47</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>87.59999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>15.86</v>
+        <v>8.27</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
+          <t>00:00:17</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
           <t>00:00:10</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>00:00:42</t>
-        </is>
-      </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>82.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 1:12PM CST</t>
+          <t>Jun 16 12:05PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,44 +2918,44 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>ABRAHAM ARANA</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>02:31:27</t>
+          <t>01:19:49</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>43.7</v>
+        <v>25.4</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>4.91</v>
+        <v>4.14</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:01:28</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 7:10AM CST</t>
+          <t>Jun 16 3:15PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,17 +3038,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>LEONARDO GONZALEZ</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
@@ -3056,26 +3056,26 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>00:14:39</t>
+          <t>04:01:30</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>4.6</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.31</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:03:39</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>62</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 8:42AM CST</t>
+          <t>Jun 16 2:07PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>02:56:04</t>
+          <t>01:19:15</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>59.2</v>
+        <v>27.2</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>78.08</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 2:25PM CST</t>
+          <t>Jun 16 11:01AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,62 +3278,62 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>06:05:29</t>
+          <t>01:48:24</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>166</v>
+        <v>33.6</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>24.86</v>
+        <v>11.23</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:06:10</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" s="1" t="n">
         <v>0</v>
       </c>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 4:49PM CST</t>
+          <t>Jun 16 1:19PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,49 +3398,49 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>95</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>03:15:13</t>
+          <t>02:30:48</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>53.6</v>
+        <v>46.6</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:02:04</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>74.38</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 1:38PM CST</t>
+          <t>Jun 16 2:22PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,54 +3518,54 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Alvarez</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D25" s="8" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>07:33:16</t>
+          <t>04:03:33</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>138</v>
+        <v>90.8</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>20.88</v>
+        <v>0.15</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:04:25</t>
+          <t>00:03:30</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:01:41</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 10:17AM CST</t>
+          <t>Jun 16 5:10PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,61 +3638,61 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compras </t>
+          <t>MIGUEL GUIZAR</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>VW DELIVERY 10.6</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>04:21:17</t>
+          <t>05:54:13</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>101.1</v>
+        <v>285.4</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>12.84</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:11:23</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:02:21</t>
+          <t>00:08:23</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>112.63</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 12:47PM CST</t>
+          <t>Jun 16 12:34PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,74 +3758,74 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D27" s="8" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>04:30:38</t>
+          <t>09:48:13</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>98.5</v>
+        <v>484</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>18.66</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:05:26</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:02:38</t>
+          <t>00:06:47</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
+          <t>00:04:55</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
           <t>00:00:22</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
-        <is>
-          <t>00:00:21</t>
-        </is>
-      </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>103.9</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 4:02PM CST</t>
+          <t>Jun 16 9:28AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,74 +3878,74 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="n">
-        <v>69</v>
+          <t>TOYOTA HILUX 2021</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>06:35:33</t>
+          <t>03:19:11</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>336.4</v>
+        <v>76.7</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:06:22</t>
+          <t>00:04:21</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:07:45</t>
+          <t>00:03:20</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:02:52</t>
+          <t>00:01:01</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>100.19</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 10:26AM CST</t>
+          <t>Jun 16 2:00PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,54 +3998,54 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D29" s="9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>13:27:44</t>
+          <t>04:09:49</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>733.3</v>
+        <v>95.8</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>187.99</v>
+        <v>7.98</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,30 +4061,30 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 20 3:08AM CST</t>
+          <t>Jun 16 1:21PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="U29" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V29" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
@@ -4118,17 +4118,17 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
@@ -4136,36 +4136,36 @@
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>14:50:31</t>
+          <t>03:30:40</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>728.1</v>
+        <v>71.8</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>187.78</v>
+        <v>4.03</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:06:19</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:05:36</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:02:15</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,18 +4181,18 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>117.01</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 21 3:27PM CST</t>
+          <t>Jun 16 9:34AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" s="1" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1" t="n">
         <v>0</v>
@@ -4238,607 +4238,817 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>09:28:18</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>444.7</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>00:10:43</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>00:17:59</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
-        <is>
-          <t>00:07:31</t>
-        </is>
-      </c>
-      <c r="L31" s="1" t="inlineStr">
-        <is>
-          <t>00:06:47</t>
-        </is>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="R31" s="1" t="inlineStr">
-        <is>
-          <t>Jun 20 3:13PM CST</t>
-        </is>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="1" t="n">
-        <v>0</v>
+          <t>FORD F350 3MTS 2006</t>
+        </is>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF31" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sanchez</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>08:45:10</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>357.2</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>00:03:02</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>00:05:00</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>00:03:12</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>00:05:04</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1" t="n">
-        <v>96.14</v>
-      </c>
-      <c r="R32" s="1" t="inlineStr">
-        <is>
-          <t>Jun 20 3:13PM CST</t>
-        </is>
-      </c>
-      <c r="S32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z32" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="1" t="n">
-        <v>0</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF32" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>ANTONIO GODOY</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>08:59:26</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>279.1</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>00:10:01</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>00:06:00</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
-        <is>
-          <t>00:04:54</t>
-        </is>
-      </c>
-      <c r="L33" s="1" t="inlineStr">
-        <is>
-          <t>00:08:08</t>
-        </is>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>98.01000000000001</v>
-      </c>
-      <c r="R33" s="1" t="inlineStr">
-        <is>
-          <t>Jun 20 2:40PM CST</t>
-        </is>
-      </c>
-      <c r="S33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="W33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z33" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="1" t="n">
-        <v>0</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF33" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>05:56:05</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>00:03:44</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>00:04:12</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>00:07:30</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>00:05:32</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>89.01000000000001</v>
-      </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t>Jun 20 2:42PM CST</t>
-        </is>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1" t="n">
-        <v>0</v>
+          <t>WORKEN</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF34" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>06:54:32</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>00:05:09</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>00:03:06</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>77.01000000000001</v>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>Jun 20 8:54AM CST</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z35" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1" t="n">
-        <v>0</v>
+          <t>KENWORTH</t>
+        </is>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF35" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>FELIPE</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -4851,124 +5061,166 @@
           <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
-      <c r="D36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>04:09:07</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
-        <is>
-          <t>00:01:45</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>00:01:47</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:16</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:33</t>
-        </is>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <v>80.01000000000001</v>
-      </c>
-      <c r="R36" s="1" t="inlineStr">
-        <is>
-          <t>Jun 21 10:54AM CST</t>
-        </is>
-      </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1" t="n">
-        <v>0</v>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF36" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>CARLOS JIMENEZ</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D37" s="10" t="inlineStr">
@@ -5120,17 +5372,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alberto Compras</t>
+          <t>ALBERTO SANCHEZ</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>NISSAN 1993</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5282,17 +5534,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t xml:space="preserve">CRISTIAN ESTRADA </t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">
@@ -5444,17 +5696,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D40" s="10" t="inlineStr">
@@ -5598,168 +5850,6 @@
         </is>
       </c>
       <c r="AF40" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Alexis Alvarado</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>HINO 500</t>
-        </is>
-      </c>
-      <c r="D41" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE41" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF41" s="11" t="inlineStr">
         <is>
           <t>Sin ruta</t>
         </is>

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>JOSE MORALES</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>05:38:51</t>
+          <t>03:58:42</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>186</v>
+        <v>67.3</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>4.52</v>
+        <v>10.95</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:31PM CST</t>
+          <t>Jul 15 11:49AM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:13:20</t>
+          <t>04:03:34</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>66.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>13.24</v>
+        <v>10.69</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 4:58PM CST</t>
+          <t>Jul 15 10:01AM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Alvarez</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:29:24</t>
+          <t>02:32:32</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>41.9</v>
+        <v>48.2</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v/>
+        <v>12.1</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>65.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:34PM CST</t>
+          <t>Jul 15 9:21AM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:50:04</t>
+          <t>02:52:00</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>38.4</v>
+        <v>34.5</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>3.34</v>
+        <v>6.26</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:00PM CST</t>
+          <t>Jul 15 2:56PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:26:09</t>
+          <t>02:23:57</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>32.6</v>
+        <v>33.1</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.05</v>
+        <v>6.64</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>57</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:14PM CST</t>
+          <t>Jul 15 12:45PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,21 +1376,21 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:10:17</t>
+          <t>02:38:31</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>32.3</v>
+        <v>32.8</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>6.35</v>
+        <v>5.94</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:40PM CST</t>
+          <t>Jul 15 1:58PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diego Cardenas </t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:25:46</t>
+          <t>02:27:34</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.09</v>
+        <v>5.24</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 3:52PM CST</t>
+          <t>Jul 15 2:04PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1616,21 +1616,21 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01:12:17</t>
+          <t>02:09:55</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>25.3</v>
+        <v>28.9</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2.1</v>
+        <v>2.79</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>78.01000000000001</v>
+        <v>48</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 6:28PM CST</t>
+          <t>Jul 15 6:21PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,11 +1736,11 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:17:44</t>
+          <t>01:48:25</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>5.8</v>
+        <v>24.5</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>51.54</v>
+        <v>58.36</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:07PM CST</t>
+          <t>Jul 15 3:41PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:18:35</t>
+          <t>01:36:58</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>4.5</v>
+        <v>18.3</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.74</v>
+        <v>8.81</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 4:46PM CST</t>
+          <t>Jul 15 3:11PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:17:39</t>
+          <t>00:07:13</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.23</v>
+        <v>1.56</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 3:05PM CST</t>
+          <t>Jul 15 4:56PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:08:16</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>51</v>
+        <v>26.74</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 4:31PM CST</t>
+          <t>Jul 15 5:07PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,17 +2198,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:02:21</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 7:05PM CST</t>
+          <t>Jul 15 7:12AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,17 +2318,17 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
@@ -2336,26 +2336,26 @@
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>03:10:40</t>
+          <t>03:21:26</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>81.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>39.26</v>
+        <v>13.43</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:43</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 9:20AM CST</t>
+          <t>Jul 15 10:08AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>JOSE MORALES</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,26 +2456,26 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>02:11:13</t>
+          <t>03:51:52</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>68.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:01:44</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>84.5</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:35PM CST</t>
+          <t>Jul 15 1:30PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>ABRAHAM ARANA</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:56:16</t>
+          <t>03:07:47</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>49</v>
+        <v>60.6</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>7.97</v>
+        <v>9.57</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:42PM CST</t>
+          <t>Jul 15 2:02PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compras </t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>01:44:53</t>
+          <t>02:51:06</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>30.2</v>
+        <v>59.5</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0.14</v>
+        <v>6.36</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:39PM CST</t>
+          <t>Jul 15 4:18PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,17 +2798,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -2816,26 +2816,26 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>00:56:47</t>
+          <t>03:35:17</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>29.3</v>
+        <v>59.2</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>8.27</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:05PM CST</t>
+          <t>Jul 15 3:54PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,17 +2918,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ABRAHAM ARANA</t>
+          <t>CARLOS JIMENEZ</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
@@ -2936,26 +2936,26 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>01:19:49</t>
+          <t>02:59:32</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>25.4</v>
+        <v>49.7</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>4.14</v>
+        <v>7.9</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:26</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>69.01000000000001</v>
+        <v>56</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 3:15PM CST</t>
+          <t>Jul 15 8:50AM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,44 +3038,44 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>LEONARDO GONZALEZ</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>04:01:30</t>
+          <t>01:36:30</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>92.90000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>6.31</v>
+        <v>4.8</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:03:39</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>88.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:07PM CST</t>
+          <t>Jul 15 2:30PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,12 +3158,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Iñiguez </t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -3176,31 +3176,31 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>01:19:15</t>
+          <t>02:27:45</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>27.2</v>
+        <v>38.3</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>6.5</v>
+        <v>6.64</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 11:01AM CST</t>
+          <t>Jul 15 2:47PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3292,35 +3292,35 @@
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>01:48:24</t>
+          <t>02:04:21</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>33.6</v>
+        <v>27.6</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>11.23</v>
+        <v>5.64</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:06:10</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>0</v>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>64</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:19PM CST</t>
+          <t>Jul 15 2:47PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,49 +3398,49 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>89</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>02:30:48</t>
+          <t>04:16:15</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>46.6</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>7.35</v>
+        <v>8.15</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:04:24</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:02:04</t>
+          <t>00:01:35</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>0</v>
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:22PM CST</t>
+          <t>Jul 15 2:47PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,44 +3518,44 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>LEONARDO GONZALEZ</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>86</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>97</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>04:03:33</t>
+          <t>01:45:58</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>90.8</v>
+        <v>37.8</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.15</v>
+        <v>6.67</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:03:30</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>64</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 5:10PM CST</t>
+          <t>Jul 15 10:14AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,29 +3638,29 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MIGUEL GUIZAR</t>
+          <t>ANTONIO GODOY</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>79</v>
+          <t>VAN HYUNDAI</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>05:54:13</t>
+          <t>02:10:20</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>285.4</v>
+        <v>40.3</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>0</v>
@@ -3670,29 +3670,29 @@
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:11:23</t>
+          <t>00:02:03</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:08:23</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>112.63</v>
+        <v>81.8</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 12:34PM CST</t>
+          <t>Jul 15 3:08PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,74 +3758,74 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>77</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>09:48:13</t>
+          <t>03:04:30</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>484</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0</v>
+        <v>9.51</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:05:26</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:06:47</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:04:55</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>103.9</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 9:28AM CST</t>
+          <t>Jul 15 12:52PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,61 +3878,61 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>74</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:19:11</t>
+          <t>02:36:19</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>76.7</v>
+        <v>39.5</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>15.79</v>
+        <v>4.19</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:04:21</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:03:20</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:01:01</t>
+          <t>00:00:18</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
         <v>0</v>
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 2:00PM CST</t>
+          <t>Jul 15 10:30AM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,12 +3998,12 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -4011,36 +4011,36 @@
           <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
-      <c r="D29" s="9" t="n">
-        <v>48</v>
+      <c r="D29" s="7" t="n">
+        <v>94</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>04:09:49</t>
+          <t>02:24:44</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>95.8</v>
+        <v>44.8</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>7.98</v>
+        <v>8.82</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 1:21PM CST</t>
+          <t>Jul 15 3:39PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1" t="n">
         <v>0</v>
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t xml:space="preserve">CRISTIAN ESTRADA </t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="n">
-        <v>0</v>
+          <t xml:space="preserve">TOYOTA HILUX </t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>93</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>03:30:40</t>
+          <t>03:06:31</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>71.8</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>4.03</v>
+        <v>9.15</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:00:51</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:01:39</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,18 +4181,18 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jun 16 9:34AM CST</t>
+          <t>Jul 15 3:52PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1" t="n">
         <v>0</v>
@@ -4238,1151 +4238,857 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
-        </is>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF31" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>KENWORTH</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>92</v>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>08:05:38</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>380.7</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>00:02:54</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>00:01:54</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:52</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:10</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>109.01</v>
+      </c>
+      <c r="R31" s="1" t="inlineStr">
+        <is>
+          <t>Jul 15 2:25AM CST</t>
+        </is>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>MIGUEL GUIZAR</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D32" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF32" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>05:30:57</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>286.7</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>00:17:17</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>00:18:33</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>00:01:11</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>117.46</v>
+      </c>
+      <c r="R32" s="1" t="inlineStr">
+        <is>
+          <t>Jul 15 12:14PM CST</t>
+        </is>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z32" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ANTONIO GODOY</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D33" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF33" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>11:46:54</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>660.5</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>182.49</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>00:13:52</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>00:11:36</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>00:04:20</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:57</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>100.01</v>
+      </c>
+      <c r="R33" s="1" t="inlineStr">
+        <is>
+          <t>Jul 15 4:53PM CST</t>
+        </is>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z33" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF34" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>00:18:52</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:33</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:23</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:26</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>66.01000000000001</v>
+      </c>
+      <c r="R34" s="1" t="inlineStr">
+        <is>
+          <t>Jul 15 8:54AM CST</t>
+        </is>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z34" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>ALBERTO SANCHEZ</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
-        </is>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF35" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>HINO 500</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>07:55:54</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>363.6</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>00:10:33</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>00:07:05</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>00:06:39</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:58</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>104.01</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>Jul 15 2:27AM CST</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z35" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>FELIPE</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D36" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF36" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2021</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>03:45:53</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>00:02:36</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>00:01:15</t>
+        </is>
+      </c>
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>77.01000000000001</v>
+      </c>
+      <c r="R36" s="1" t="inlineStr">
+        <is>
+          <t>Jul 15 10:29AM CST</t>
+        </is>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z36" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CARLOS JIMENEZ</t>
+          <t>FELIPE</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D37" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>03:08:15</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>00:01:15</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:36</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>76.01000000000001</v>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
+        <is>
+          <t>Jul 15 12:32PM CST</t>
+        </is>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ALBERTO SANCHEZ</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5534,17 +5240,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRISTIAN ESTRADA </t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">
@@ -5696,17 +5402,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Jonathan Alvarez</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D40" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>03:58:42</t>
+          <t>05:40:14</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>67.3</v>
+        <v>121.7</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>10.95</v>
+        <v>17.69</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:12</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 11:49AM CST</t>
+          <t>Jul 16 1:42PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t xml:space="preserve">CRISTIAN ESTRADA </t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>04:03:34</t>
+          <t>03:10:51</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>66.3</v>
+        <v>54.9</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>10.69</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>60</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 10:01AM CST</t>
+          <t>Jul 16 3:58PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>CARLOS JIMENEZ</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:32:32</t>
+          <t>03:19:24</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>48.2</v>
+        <v>47.4</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>12.1</v>
+        <v>8.42</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 9:21AM CST</t>
+          <t>Jul 16 3:22PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:52:00</t>
+          <t>02:46:25</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>34.5</v>
+        <v>46.4</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>6.26</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>54</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:56PM CST</t>
+          <t>Jul 16 5:06PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:23:57</t>
+          <t>02:34:12</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>33.1</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>6.64</v>
+        <v>5.89</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>57</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 12:45PM CST</t>
+          <t>Jul 16 1:40PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,21 +1376,21 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:38:31</t>
+          <t>02:44:16</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>32.8</v>
+        <v>30.7</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>5.94</v>
+        <v>4.84</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 1:58PM CST</t>
+          <t>Jul 16 8:06AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>02:27:34</t>
+          <t>01:56:51</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>5.24</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>53</v>
+        <v>59.13</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:04PM CST</t>
+          <t>Jul 16 10:07AM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,26 +1616,26 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>02:09:55</t>
+          <t>02:23:55</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>28.9</v>
+        <v>28.1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>2.79</v>
+        <v>5.38</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 6:21PM CST</t>
+          <t>Jul 16 3:02PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01:48:25</t>
+          <t>00:58:47</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>24.5</v>
+        <v>25.7</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>58.36</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 3:41PM CST</t>
+          <t>Jul 16 11:54AM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1856,21 +1856,21 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>01:36:58</t>
+          <t>01:49:24</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>18.3</v>
+        <v>17.5</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>8.81</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 3:11PM CST</t>
+          <t>Jul 16 3:30PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diego Cardenas </t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:07:13</t>
+          <t>01:01:25</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2.2</v>
+        <v>14.1</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>40</v>
+        <v>53.01</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 4:56PM CST</t>
+          <t>Jul 16 5:34PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,14 +2096,14 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>00:08:16</t>
+          <t>01:00:25</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.8</v>
+        <v>12.8</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>26.74</v>
+        <v>52</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 5:07PM CST</t>
+          <t>Jul 16 6:40PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,17 +2198,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:02:21</t>
+          <t>00:34:52</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.3</v>
+        <v>9.1</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.9</v>
+        <v>1.71</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 7:12AM CST</t>
+          <t>Jul 16 9:07AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,44 +2318,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>03:21:26</t>
+          <t>00:02:38</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>89.3</v>
+        <v>0.7</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>13.43</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:43</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>42.78</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 10:08AM CST</t>
+          <t>Jul 16 11:10AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>JOSE MORALES</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,31 +2456,31 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>03:51:52</t>
+          <t>05:16:03</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>83.5</v>
+        <v>106.9</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>8.880000000000001</v>
+        <v>16.53</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 1:30PM CST</t>
+          <t>Jul 16 2:04PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>03:07:47</t>
+          <t>03:28:15</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>60.6</v>
+        <v>55.1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>9.57</v>
+        <v>9.82</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:36</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>58</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:02PM CST</t>
+          <t>Jul 16 2:53PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>ANTONIO GODOY</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>02:51:06</t>
+          <t>02:15:44</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>59.5</v>
+        <v>50.2</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>6.36</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 4:18PM CST</t>
+          <t>Jul 16 3:17PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,17 +2798,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -2816,26 +2816,26 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>03:35:17</t>
+          <t>02:29:00</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>59.2</v>
+        <v>33.5</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>67.59999999999999</v>
+        <v>61</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 3:54PM CST</t>
+          <t>Jul 16 2:03PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,12 +2918,12 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CARLOS JIMENEZ</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -2932,35 +2932,35 @@
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>02:59:32</t>
+          <t>03:36:45</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>49.7</v>
+        <v>73.5</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>7.9</v>
+        <v>8.82</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>56</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 8:50AM CST</t>
+          <t>Jul 16 1:00PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,44 +3038,44 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>JOSE MORALES</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>01:36:30</t>
+          <t>03:24:28</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>22.8</v>
+        <v>57.5</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>4.8</v>
+        <v>5.05</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:30PM CST</t>
+          <t>Jul 16 3:41PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,17 +3158,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
@@ -3176,26 +3176,26 @@
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>02:27:45</t>
+          <t>01:59:46</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>38.3</v>
+        <v>41.2</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>6.64</v>
+        <v>6.66</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:47PM CST</t>
+          <t>Jul 16 10:49AM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,17 +3278,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
@@ -3296,31 +3296,31 @@
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>02:04:21</t>
+          <t>02:27:16</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>27.6</v>
+        <v>37.8</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>5.64</v>
+        <v>6.8</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>64</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:47PM CST</t>
+          <t>Jul 16 11:24AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,17 +3398,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>LEONARDO GONZALEZ</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D24" s="7" t="n">
@@ -3416,31 +3416,31 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>04:16:15</t>
+          <t>05:28:26</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>86.09999999999999</v>
+        <v>116.3</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>8.15</v>
+        <v>18.76</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:04:24</t>
+          <t>00:01:38</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:01:35</t>
+          <t>00:01:32</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3449,7 +3449,7 @@
         </is>
       </c>
       <c r="M24" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>0</v>
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:47PM CST</t>
+          <t>Jul 16 4:49PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,12 +3518,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>LEONARDO GONZALEZ</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3532,35 +3532,35 @@
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>01:45:58</t>
+          <t>05:10:42</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>37.8</v>
+        <v>147.5</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>6.67</v>
+        <v>18.82</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:05:24</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:02:36</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>64</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 10:14AM CST</t>
+          <t>Jul 16 11:51AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,49 +3638,49 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ANTONIO GODOY</t>
+          <t>FELIPE</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>02:10:20</t>
+          <t>02:40:11</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>40.3</v>
+        <v>44.3</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:02:03</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:01:56</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>81.8</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 3:08PM CST</t>
+          <t>Jul 16 11:05AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D27" s="7" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>03:04:30</t>
+          <t>05:15:29</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>64</v>
+        <v>97.3</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>9.51</v>
+        <v>10.88</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:04:16</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 12:52PM CST</t>
+          <t>Jul 16 10:45AM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,39 +3878,39 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D28" s="7" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>02:36:19</t>
+          <t>02:42:12</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>39.5</v>
+        <v>52.4</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>4.19</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 10:30AM CST</t>
+          <t>Jul 16 1:54PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,44 +3998,44 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>MIGUEL GUIZAR</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>94</v>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>87</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>02:24:44</t>
+          <t>09:07:12</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>44.8</v>
+        <v>397.5</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>8.82</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:01:31</t>
+          <t>00:04:27</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:00:50</t>
+          <t>00:04:43</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>87.01000000000001</v>
+        <v>104</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 3:39PM CST</t>
+          <t>Jul 16 8:02AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,54 +4118,54 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRISTIAN ESTRADA </t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>93</v>
+          <t>FORD RANGER 2011</t>
+        </is>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>03:06:31</t>
+          <t>04:32:52</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>53</v>
+        <v>102.5</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>9.15</v>
+        <v>17.54</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:01:30</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>74.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 3:52PM CST</t>
+          <t>Jul 16 2:55PM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,61 +4238,61 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>92</v>
+          <t>KENWORTH 2009</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>08:05:38</t>
+          <t>09:27:07</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>380.7</v>
+        <v>567.4</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>101.7</v>
+        <v>124.24</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:02:54</t>
+          <t>00:03:59</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:01:54</t>
+          <t>00:09:41</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:01:17</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>0</v>
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>109.01</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:25AM CST</t>
+          <t>Jul 16 5:57AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4358,74 +4358,74 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MIGUEL GUIZAR</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D32" s="8" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>05:30:57</t>
+          <t>09:53:20</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>286.7</v>
+        <v>509.1</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0</v>
+        <v>66.12</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:17:17</t>
+          <t>00:10:29</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:18:33</t>
+          <t>00:13:30</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:04:05</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>117.46</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 12:14PM CST</t>
+          <t>Jul 16 1:56PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,17 +4478,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D33" s="8" t="n">
@@ -4496,43 +4496,43 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>11:46:54</t>
+          <t>02:14:29</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>660.5</v>
+        <v>47.5</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>182.49</v>
+        <v>7.77</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:13:52</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:11:36</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>100.01</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 4:53PM CST</t>
+          <t>Jul 16 1:38PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4598,54 +4598,54 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>00:18:52</t>
+          <t>06:01:02</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>7.1</v>
+        <v>334.3</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>3.84</v>
+        <v>85.7</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:04:57</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:04:06</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:55</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
@@ -4661,11 +4661,11 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>113.01</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 8:54AM CST</t>
+          <t>Jul 16 2:29PM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4732,60 +4732,60 @@
         </is>
       </c>
       <c r="D35" s="9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>07:55:54</t>
+          <t>05:54:53</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>363.6</v>
+        <v>327.8</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>80.09999999999999</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>00:10:33</t>
+          <t>00:08:09</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>00:07:05</t>
+          <t>00:08:20</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>00:06:39</t>
+          <t>00:06:20</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:02:17</t>
         </is>
       </c>
       <c r="M35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>104.01</v>
+        <v>102.01</v>
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 2:27AM CST</t>
+          <t>Jul 16 12:11PM CST</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
@@ -4838,54 +4838,54 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Iñiguez </t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D36" s="9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>03:45:53</t>
+          <t>01:25:11</t>
         </is>
       </c>
       <c r="F36" s="1" t="n">
-        <v>70.90000000000001</v>
+        <v>33.4</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>9.15</v>
+        <v>3.29</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>00:02:36</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:02:00</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M36" s="1" t="n">
@@ -4901,24 +4901,24 @@
         <v>0</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>92.01000000000001</v>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>Jul 15 10:29AM CST</t>
+          <t>Jul 16 12:33PM CST</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>0</v>
@@ -4958,137 +4958,179 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>FELIPE</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>03:08:15</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
-        <is>
-          <t>00:01:15</t>
-        </is>
-      </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:36</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>76.01000000000001</v>
-      </c>
-      <c r="R37" s="1" t="inlineStr">
-        <is>
-          <t>Jul 15 12:32PM CST</t>
-        </is>
-      </c>
-      <c r="S37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1" t="n">
-        <v>0</v>
+          <t>INTERNACIONAL</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="G37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="I37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="J37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="K37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="L37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="M37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="N37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="O37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="P37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Q37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="R37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="S37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="T37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="U37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="V37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="W37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="X37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Y37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="Z37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AA37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AB37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AC37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AD37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AE37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
+      </c>
+      <c r="AF37" s="11" t="inlineStr">
+        <is>
+          <t>Sin ruta</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Jonathan Alvarez</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D38" s="10" t="inlineStr">
@@ -5240,17 +5282,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compras </t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">
@@ -5402,17 +5444,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Alvarez</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D40" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>05:40:14</t>
+          <t>04:46:19</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>121.7</v>
+        <v>84.7</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>17.69</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 1:42PM CST</t>
+          <t>Jul 17 1:27PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,17 +878,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRISTIAN ESTRADA </t>
+          <t>ABRAHAM ARANA</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:10:51</t>
+          <t>03:04:18</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>54.9</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>9.300000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 3:58PM CST</t>
+          <t>Jul 17 2:20PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CARLOS JIMENEZ</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,26 +1016,26 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>03:19:24</t>
+          <t>02:53:09</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>47.4</v>
+        <v>39.2</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>8.42</v>
+        <v>6.52</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 3:22PM CST</t>
+          <t>Jul 17 2:44PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:46:25</t>
+          <t>02:03:18</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>46.4</v>
+        <v>30.4</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:25</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>74.04000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 5:06PM CST</t>
+          <t>Jul 17 12:27PM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,26 +1256,26 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:34:12</t>
+          <t>02:27:57</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>32</v>
+        <v>30.2</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>5.89</v>
+        <v>5.24</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>63</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 1:40PM CST</t>
+          <t>Jul 17 9:12AM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,14 +1376,14 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>02:44:16</t>
+          <t>01:17:43</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>30.7</v>
+        <v>17.7</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>4.84</v>
+        <v>1.81</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 8:06AM CST</t>
+          <t>Jul 17 7:27AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,17 +1478,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
@@ -1496,21 +1496,21 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>01:56:51</t>
+          <t>01:45:26</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>28.6</v>
+        <v>17.3</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0</v>
+        <v>7.93</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>59.13</v>
+        <v>55</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 10:07AM CST</t>
+          <t>Jul 17 1:45PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>ALBERTO SANCHEZ</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,26 +1616,26 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>02:23:55</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>28.1</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>5.38</v>
+        <v>0.41</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 3:02PM CST</t>
+          <t>Jul 17 7:01PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,21 +1736,21 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:58:47</t>
+          <t>00:01:20</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>25.7</v>
+        <v>0.1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>7</v>
+        <v>0.32</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>26</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 11:54AM CST</t>
+          <t>Jul 17 7:14PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,17 +1838,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -1856,21 +1856,21 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>01:49:24</t>
+          <t>00:01:02</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>17.5</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>9.380000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 3:30PM CST</t>
+          <t>Jul 17 8:25PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,17 +1958,17 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>01:01:25</t>
+          <t>00:00:53</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>14.1</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>53.01</v>
+        <v>11</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 5:34PM CST</t>
+          <t>Jul 17 8:04PM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,49 +2078,49 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>01:00:25</t>
+          <t>05:55:23</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>12.8</v>
+        <v>104.9</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1.56</v>
+        <v>16.33</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:38</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>52</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 6:40PM CST</t>
+          <t>Jul 17 5:45PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2198,44 +2198,44 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diego Cardenas </t>
+          <t>Daniel Rocha</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>00:34:52</t>
+          <t>03:01:56</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>9.1</v>
+        <v>59.6</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1.71</v>
+        <v>7.68</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>59</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 9:07AM CST</t>
+          <t>Jul 17 11:23AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,44 +2318,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>00:02:38</t>
+          <t>02:51:56</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.7</v>
+        <v>51.2</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1</v>
+        <v>6.86</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>42.78</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 11:10AM CST</t>
+          <t>Jul 17 1:56PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,17 +2438,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>CARLOS JIMENEZ</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
@@ -2456,31 +2456,31 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>05:16:03</t>
+          <t>03:14:10</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>106.9</v>
+        <v>49.9</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>16.53</v>
+        <v>7.89</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 2:04PM CST</t>
+          <t>Jul 17 1:52PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,17 +2558,17 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ABRAHAM ARANA</t>
+          <t xml:space="preserve">CRISTIAN ESTRADA </t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
@@ -2576,26 +2576,26 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>03:28:15</t>
+          <t>02:37:56</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>55.1</v>
+        <v>47.6</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>9.82</v>
+        <v>7.25</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:01:21</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 2:53PM CST</t>
+          <t>Jul 17 1:52PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,17 +2678,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ANTONIO GODOY</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
@@ -2696,26 +2696,26 @@
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>02:15:44</t>
+          <t>01:37:50</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>50.2</v>
+        <v>30.7</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:00:57</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>75.43000000000001</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 3:17PM CST</t>
+          <t>Jul 17 8:10AM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,44 +2798,44 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>FELIPE</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>02:29:00</t>
+          <t>02:01:02</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>33.5</v>
+        <v>31.8</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>6.48</v>
+        <v>3.66</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>61</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 2:03PM CST</t>
+          <t>Jul 17 11:03AM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,17 +2918,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Iñiguez </t>
+          <t>LEONARDO GONZALEZ</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
@@ -2936,31 +2936,31 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>03:36:45</t>
+          <t>00:24:34</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>73.5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>8.82</v>
+        <v>1.31</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>56</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 1:00PM CST</t>
+          <t>Jul 17 8:18AM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>JOSE MORALES</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>03:24:28</t>
+          <t>02:59:01</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>57.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>5.05</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:01:55</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>87.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 3:41PM CST</t>
+          <t>Jul 17 11:17AM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,49 +3158,49 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Daniel Rocha</t>
+          <t>JOSE MORALES</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>01:59:46</t>
+          <t>04:44:15</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>41.2</v>
+        <v>139</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>6.66</v>
+        <v>16.84</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:05:56</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:03:26</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 10:49AM CST</t>
+          <t>Jul 17 3:27PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,49 +3278,49 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>ANTONIO GODOY</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>02:27:16</t>
+          <t>02:58:04</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>37.8</v>
+        <v>58.8</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:37</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>68.01000000000001</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 11:24AM CST</t>
+          <t>Jul 17 3:01PM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,12 +3398,12 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>LEONARDO GONZALEZ</t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -3412,35 +3412,35 @@
         </is>
       </c>
       <c r="D24" s="7" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>05:28:26</t>
+          <t>01:56:53</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>116.3</v>
+        <v>40.8</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>18.76</v>
+        <v>3.82</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:01:38</t>
+          <t>00:00:40</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>83.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 4:49PM CST</t>
+          <t>Jul 17 11:18AM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,49 +3518,49 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D25" s="7" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>05:10:42</t>
+          <t>03:45:51</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>147.5</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>18.82</v>
+        <v>12.84</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:05:24</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:02:36</t>
+          <t>00:02:31</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 11:51AM CST</t>
+          <t>Jul 17 11:28AM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,49 +3638,49 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FELIPE</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D26" s="7" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>02:40:11</t>
+          <t>06:14:26</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>44.3</v>
+        <v>263.4</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:01:27</t>
+          <t>00:07:39</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:06:16</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1" t="n">
         <v>0</v>
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 11:05AM CST</t>
+          <t>Jul 17 6:32PM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D27" s="7" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>05:15:29</t>
+          <t>02:38:49</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>97.3</v>
+        <v>61.8</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>10.88</v>
+        <v>10.57</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:04:16</t>
+          <t>00:03:26</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 10:45AM CST</t>
+          <t>Jul 17 1:47PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>91</v>
+          <t>TOYOTA HILUX 2021</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>80</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>02:42:12</t>
+          <t>03:46:58</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>52.4</v>
+        <v>61.9</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>9.800000000000001</v>
+        <v>10.72</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:01:29</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:20</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>88.01000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 1:54PM CST</t>
+          <t>Jul 17 3:14PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -4012,15 +4012,15 @@
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>09:07:12</t>
+          <t>05:21:44</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>397.5</v>
+        <v>306</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>0</v>
@@ -4030,17 +4030,17 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:04:27</t>
+          <t>00:04:28</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:04:43</t>
+          <t>00:02:53</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -4061,11 +4061,11 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>104</v>
+        <v>120.98</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 8:02AM CST</t>
+          <t>Jul 17 2:33PM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,61 +4118,61 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compras </t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
-        </is>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>87</v>
+          <t>KENWORTH 2009</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>58</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>04:32:52</t>
+          <t>07:00:12</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>102.5</v>
+        <v>366.8</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>17.54</v>
+        <v>82.84999999999999</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:06:06</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:01:26</t>
+          <t>00:11:42</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:02:36</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:08</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>0</v>
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 2:55PM CST</t>
+          <t>Jul 17 6:24AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4238,61 +4238,61 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
-        </is>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>85</v>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>42</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>09:27:07</t>
+          <t>04:53:41</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>567.4</v>
+        <v>148.8</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>124.24</v>
+        <v>18.96</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:03:59</t>
+          <t>00:06:51</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:09:41</t>
+          <t>00:04:46</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:01:17</t>
+          <t>00:02:32</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1" t="n">
         <v>0</v>
@@ -4301,11 +4301,11 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>97.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 5:57AM CST</t>
+          <t>Jul 17 1:04PM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>0</v>
@@ -4358,64 +4358,64 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
-        </is>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>74</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>09:53:20</t>
+          <t>05:02:46</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>509.1</v>
+        <v>144.3</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>66.12</v>
+        <v>18.43</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:10:29</t>
+          <t>00:06:01</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:13:30</t>
+          <t>00:07:56</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:04:05</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 1:56PM CST</t>
+          <t>Jul 17 2:02PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
@@ -4478,61 +4478,61 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
-        </is>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>72</v>
+          <t>HINO 300</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>39</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>02:14:29</t>
+          <t>04:56:49</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>47.5</v>
+        <v>178.7</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>7.77</v>
+        <v>22.02</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:05:59</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:09:31</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:03:39</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1" t="n">
         <v>0</v>
@@ -4541,11 +4541,11 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 1:38PM CST</t>
+          <t>Jul 17 1:04PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4598,54 +4598,54 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>06:01:02</t>
+          <t>07:32:22</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>334.3</v>
+        <v>349.7</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
+          <t>00:06:23</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>00:06:41</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
           <t>00:04:57</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>00:04:06</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>00:01:07</t>
-        </is>
-      </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:02:47</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
@@ -4655,17 +4655,17 @@
         <v>0</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>113.01</v>
+        <v>96.88</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 2:29PM CST</t>
+          <t>Jul 17 6:11AM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4718,17 +4718,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ALBERTO SANCHEZ</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D35" s="9" t="n">
@@ -4736,63 +4736,63 @@
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>05:54:53</t>
+          <t>02:39:51</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>327.8</v>
+        <v>52.7</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>73.20999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>00:08:09</t>
+          <t>00:01:52</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>00:08:20</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>00:06:20</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>73.41</v>
+      </c>
+      <c r="R35" s="1" t="inlineStr">
+        <is>
+          <t>Jul 17 11:37AM CST</t>
+        </is>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>102.01</v>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>Jul 16 12:11PM CST</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="U35" s="1" t="n">
         <v>0</v>
@@ -4838,17 +4838,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D36" s="9" t="n">
@@ -4856,36 +4856,36 @@
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>01:25:11</t>
+          <t>01:48:09</t>
         </is>
       </c>
       <c r="F36" s="1" t="n">
-        <v>33.4</v>
+        <v>42.5</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:01:11</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M36" s="1" t="n">
@@ -4901,24 +4901,24 @@
         <v>0</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>92.01000000000001</v>
+        <v>85.28</v>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>Jul 16 12:33PM CST</t>
+          <t>Jul 17 2:11PM CST</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="U36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>0</v>
@@ -5282,17 +5282,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">
@@ -5444,17 +5444,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D40" s="10" t="inlineStr">

--- a/seguridad/Informe_Diario_Unidades.xlsx
+++ b/seguridad/Informe_Diario_Unidades.xlsx
@@ -758,17 +758,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>ANTONIO GODOY</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D2" s="7" t="n">
@@ -776,28 +776,28 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>04:46:19</t>
+          <t>04:10:53</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>84.7</v>
+        <v>74.2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>8.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>00:00:36</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
           <t>00:00:16</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>00:00:22</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t>00:00:00</t>
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>79.01000000000001</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:27PM CST</t>
+          <t>Jul 19 11:33AM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,12 +878,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ABRAHAM ARANA</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -896,26 +896,26 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>03:04:18</t>
+          <t>04:54:24</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>56</v>
+        <v>72.2</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>8.33</v>
+        <v>12.4</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>63</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 2:20PM CST</t>
+          <t>Jul 19 12:51PM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>02:53:09</t>
+          <t>04:20:50</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>39.2</v>
+        <v>63.8</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>6.52</v>
+        <v>9.81</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 2:44PM CST</t>
+          <t>Jul 18 10:37AM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,26 +1136,26 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>02:03:18</t>
+          <t>05:10:20</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>30.4</v>
+        <v>60.7</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>5.51</v>
+        <v>10.64</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 12:27PM CST</t>
+          <t>Jul 19 10:10AM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,21 +1256,21 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>02:27:57</t>
+          <t>03:15:38</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>30.2</v>
+        <v>50.8</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>5.24</v>
+        <v>4.68</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 9:12AM CST</t>
+          <t>Jul 18 3:55PM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,17 +1358,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D7" s="7" t="n">
@@ -1376,21 +1376,21 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>01:17:43</t>
+          <t>03:55:26</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>17.7</v>
+        <v>48.4</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1.81</v>
+        <v>7.71</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
@@ -1421,11 +1421,11 @@
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 7:27AM CST</t>
+          <t>Jul 19 11:18AM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1496,26 +1496,26 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>01:45:26</t>
+          <t>03:46:02</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>17.3</v>
+        <v>40.2</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>7.93</v>
+        <v>17.84</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:45PM CST</t>
+          <t>Jul 19 1:31PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1598,17 +1598,17 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ALBERTO SANCHEZ</t>
+          <t xml:space="preserve">Diego Cardenas </t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
@@ -1616,14 +1616,14 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:35:30</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.41</v>
+        <v>8.01</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
@@ -1661,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 7:01PM CST</t>
+          <t>Jul 18 1:37PM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,17 +1718,17 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>LEONARDO GONZALEZ</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D10" s="7" t="n">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:00:32</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>0</v>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 7:14PM CST</t>
+          <t>Jul 18 10:09AM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,49 +1838,49 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>ABRAHAM ARANA</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>07:16:45</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.1</v>
+        <v>127.2</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.15</v>
+        <v>19.84</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>11</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 8:25PM CST</t>
+          <t>Jul 19 11:53AM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1958,44 +1958,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alberto Sesmas</t>
+          <t xml:space="preserve">Daniel Iñiguez </t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D12" s="7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>06:12:45</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.1</v>
+        <v>125.7</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.9399999999999999</v>
+        <v>16.05</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:02:40</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -2021,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>11</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 8:04PM CST</t>
+          <t>Jul 18 10:09AM CST</t>
         </is>
       </c>
       <c r="S12" s="1" t="n">
@@ -2078,17 +2078,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">David Herrera </t>
+          <t xml:space="preserve">CRISTIAN ESTRADA </t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t xml:space="preserve">TOYOTA HILUX </t>
         </is>
       </c>
       <c r="D13" s="7" t="n">
@@ -2096,31 +2096,31 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>05:55:23</t>
+          <t>04:42:47</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>104.9</v>
+        <v>90.2</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>16.33</v>
+        <v>12.54</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -2141,11 +2141,11 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>70.01000000000001</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 5:45PM CST</t>
+          <t>Jul 18 11:23AM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
@@ -2216,26 +2216,26 @@
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>03:01:56</t>
+          <t>03:58:33</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>59.6</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>7.68</v>
+        <v>12.93</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:01:31</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2261,11 +2261,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>75.01000000000001</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 11:23AM CST</t>
+          <t>Jul 19 11:14AM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2318,49 +2318,49 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t xml:space="preserve">David Herrera </t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D15" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>02:51:56</t>
+          <t>11:02:19</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>51.2</v>
+        <v>202.3</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>6.86</v>
+        <v>30.58</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:01:23</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:56PM CST</t>
+          <t>Jul 19 10:11AM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2438,49 +2438,49 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CARLOS JIMENEZ</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D16" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>03:14:10</t>
+          <t>07:42:59</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>49.9</v>
+        <v>170.1</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>7.89</v>
+        <v>23.47</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:04:19</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:03:21</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2501,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:52PM CST</t>
+          <t>Jul 18 12:18PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
@@ -2558,49 +2558,49 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRISTIAN ESTRADA </t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TOYOTA HILUX </t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D17" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>02:37:56</t>
+          <t>07:01:17</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>47.6</v>
+        <v>143.7</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>7.25</v>
+        <v>13.2</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:03:25</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:01:15</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2621,11 +2621,11 @@
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>63</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:52PM CST</t>
+          <t>Jul 19 12:48PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,49 +2678,49 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D18" s="7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>01:37:50</t>
+          <t>03:46:51</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>30.7</v>
+        <v>106.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>4.32</v>
+        <v>16.21</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:01:09</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:21</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2741,11 +2741,11 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>77.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 8:10AM CST</t>
+          <t>Jul 18 3:17PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
@@ -2798,17 +2798,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FELIPE</t>
+          <t>CARLOS JIMENEZ</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D19" s="7" t="n">
@@ -2816,31 +2816,31 @@
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>02:01:02</t>
+          <t>05:09:51</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>31.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>3.66</v>
+        <v>13.96</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:00:16</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2861,11 +2861,11 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>72.01000000000001</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 11:03AM CST</t>
+          <t>Jul 19 9:52AM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
@@ -2918,44 +2918,44 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>LEONARDO GONZALEZ</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D20" s="7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>00:24:34</t>
+          <t>00:37:50</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>8</v>
+        <v>13.4</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1.31</v>
+        <v>7.14</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2981,11 +2981,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>56</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 8:18AM CST</t>
+          <t>Jul 18 12:12PM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3038,49 +3038,49 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Iñiguez </t>
+          <t>JOSE MORALES</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D21" s="7" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>02:59:01</t>
+          <t>06:03:45</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>69.90000000000001</v>
+        <v>158.2</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>8.289999999999999</v>
+        <v>17.57</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>00:01:55</t>
+          <t>00:04:36</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:01:53</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -3101,11 +3101,11 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>76.01000000000001</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 11:17AM CST</t>
+          <t>Jul 18 2:09PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
@@ -3158,56 +3158,56 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>JOSE MORALES</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D22" s="7" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>04:44:15</t>
+          <t>03:58:15</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>139</v>
+        <v>75.2</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>16.84</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:05:56</t>
+          <t>00:00:59</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:03:26</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
           <t>00:00:10</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="M22" s="1" t="n">
         <v>0</v>
       </c>
@@ -3221,11 +3221,11 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>99.01000000000001</v>
+        <v>81.53</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 3:27PM CST</t>
+          <t>Jul 18 4:26PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
@@ -3278,54 +3278,54 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ANTONIO GODOY</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D23" s="7" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>02:58:04</t>
+          <t>03:04:33</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>58.8</v>
+        <v>55.2</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>00:00:58</t>
+          <t>00:01:16</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:46</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:06</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>88.29000000000001</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 3:01PM CST</t>
+          <t>Jul 19 11:27AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,54 +3398,54 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>David Serrano</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>95</v>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>01:56:53</t>
+          <t>05:13:14</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>40.8</v>
+        <v>111.3</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>3.82</v>
+        <v>20.86</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:02:30</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:01:41</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
@@ -3461,11 +3461,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 11:18AM CST</t>
+          <t>Jul 19 12:59PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3518,54 +3518,54 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compras </t>
+          <t>David Serrano</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>93</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>03:45:51</t>
+          <t>02:12:37</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>88.40000000000001</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>12.84</v>
+        <v>3.56</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:01:10</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>00:02:31</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:00:11</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
@@ -3581,11 +3581,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>66.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 11:28AM CST</t>
+          <t>Jul 18 1:27PM CST</t>
         </is>
       </c>
       <c r="S25" s="1" t="n">
@@ -3638,54 +3638,54 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>FELIPE</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>92</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>06:14:26</t>
+          <t>05:36:21</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>263.4</v>
+        <v>109.7</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>00:07:39</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:06:16</t>
+          <t>00:01:58</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:09</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
@@ -3701,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>100.3</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 6:32PM CST</t>
+          <t>Jul 18 9:25AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
@@ -3758,54 +3758,54 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>MIGUEL GUIZAR</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>91</v>
+          <t>VW DELIVERY 10.6</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>85</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>02:38:49</t>
+          <t>07:30:42</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>61.8</v>
+        <v>416.7</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>10.57</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>00:03:26</t>
+          <t>00:05:41</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>00:01:40</t>
+          <t>00:04:16</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:58</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
@@ -3821,11 +3821,11 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>128.26</v>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:47PM CST</t>
+          <t>Jul 18 12:12PM CST</t>
         </is>
       </c>
       <c r="S27" s="1" t="n">
@@ -3878,54 +3878,54 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D28" s="8" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>03:46:58</t>
+          <t>04:15:39</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>61.9</v>
+        <v>103.3</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>10.72</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:00:56</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:24</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
@@ -3941,11 +3941,11 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>80.01000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 3:14PM CST</t>
+          <t>Jul 18 1:49PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
@@ -3998,74 +3998,74 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MIGUEL GUIZAR</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>VW DELIVERY 10.6</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>05:21:44</t>
+          <t>13:21:20</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>306</v>
+        <v>696.5</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>155.54</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>00:04:28</t>
+          <t>00:11:21</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>00:02:53</t>
+          <t>00:10:20</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:03:52</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:01:06</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>120.98</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 2:33PM CST</t>
+          <t>Jul 18 3:45AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4118,115 +4118,115 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Alberto Sesmas</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>07:00:12</t>
+          <t>14:01:53</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>366.8</v>
+        <v>706.5</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>82.84999999999999</v>
+        <v>184.68</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:06:06</t>
+          <t>00:09:41</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:11:42</t>
+          <t>00:09:35</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:02:36</t>
+          <t>00:03:12</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:01:13</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>109.01</v>
+      </c>
+      <c r="R30" s="1" t="inlineStr">
+        <is>
+          <t>Jul 18 5:16AM CST</t>
+        </is>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z30" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="R30" s="1" t="inlineStr">
-        <is>
-          <t>Jul 17 6:24AM CST</t>
-        </is>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z30" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="AE30" s="1" t="n">
         <v>0</v>
@@ -4238,74 +4238,74 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>ALBERTO SANCHEZ</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>04:53:41</t>
+          <t>11:19:03</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>148.8</v>
+        <v>651.8</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>18.96</v>
+        <v>142.76</v>
       </c>
       <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>00:18:06</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>00:15:54</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>00:11:34</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>00:05:55</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>00:06:51</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>00:04:46</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
-        <is>
-          <t>00:02:32</t>
-        </is>
-      </c>
-      <c r="L31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:11</t>
-        </is>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>93.01000000000001</v>
+        <v>105.01</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:04PM CST</t>
+          <t>Jul 18 7:13AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1" t="n">
         <v>0</v>
@@ -4358,81 +4358,81 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>05:02:46</t>
+          <t>10:51:44</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>144.3</v>
+        <v>450.8</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>18.43</v>
+        <v>108.62</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:06:01</t>
+          <t>00:15:24</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:07:56</t>
+          <t>00:11:44</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:04:44</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:03:56</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 2:02PM CST</t>
+          <t>Jul 18 11:44AM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1" t="n">
         <v>0</v>
@@ -4478,74 +4478,74 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>04:56:49</t>
+          <t>06:30:35</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>178.7</v>
+        <v>322.6</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>22.02</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:05:59</t>
+          <t>00:04:53</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:09:31</t>
+          <t>00:07:19</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:03:39</t>
+          <t>00:03:31</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:05:40</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>98.73999999999999</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 1:04PM CST</t>
+          <t>Jul 18 12:39PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
@@ -4598,74 +4598,74 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>07:32:22</t>
+          <t>05:22:31</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>349.7</v>
+        <v>160.4</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0</v>
+        <v>22.12</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:06:23</t>
+          <t>00:03:32</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:06:41</t>
+          <t>00:08:13</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:04:57</t>
+          <t>00:03:04</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>00:02:47</t>
+          <t>00:06:11</t>
         </is>
       </c>
       <c r="M34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>96.88</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 6:11AM CST</t>
+          <t>Jul 18 10:50AM CST</t>
         </is>
       </c>
       <c r="S34" s="1" t="n">
@@ -4718,17 +4718,17 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D35" s="9" t="n">
@@ -4736,26 +4736,26 @@
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>02:39:51</t>
+          <t>06:26:27</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>52.7</v>
+        <v>140.6</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>8.44</v>
+        <v>17.84</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>00:01:52</t>
+          <t>00:00:28</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
@@ -4781,30 +4781,30 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>73.41</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 11:37AM CST</t>
+          <t>Jul 18 12:17PM CST</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
@@ -4838,17 +4838,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D36" s="9" t="n">
@@ -4856,38 +4856,38 @@
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>01:48:09</t>
+          <t>06:05:25</t>
         </is>
       </c>
       <c r="F36" s="1" t="n">
-        <v>42.5</v>
+        <v>135.8</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:04:07</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:04:33</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
+          <t>00:00:38</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
           <t>00:00:05</t>
         </is>
       </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="M36" s="1" t="n">
         <v>0</v>
       </c>
@@ -4901,11 +4901,11 @@
         <v>0</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>85.28</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>Jul 17 2:11PM CST</t>
+          <t>Jul 19 12:03PM CST</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="1" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="1" t="n">
         <v>0</v>
@@ -4958,341 +4958,257 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
-        </is>
-      </c>
-      <c r="D37" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF37" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>WORKEN</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>03:17:00</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>00:08:24</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>00:11:22</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>00:05:58</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>00:02:16</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>92.01000000000001</v>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
+        <is>
+          <t>Jul 19 7:20AM CST</t>
+        </is>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Jonathan Alvarez</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
-        </is>
-      </c>
-      <c r="D38" s="10" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="E38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="F38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="G38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="I38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="J38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="K38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="M38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="N38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="O38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="P38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Q38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="R38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="S38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="T38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="U38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="V38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="W38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="X38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Y38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="Z38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AA38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AB38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AC38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AD38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AE38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
-      </c>
-      <c r="AF38" s="11" t="inlineStr">
-        <is>
-          <t>Sin ruta</t>
-        </is>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>01:45:44</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:11</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="L38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>76.01000000000001</v>
+      </c>
+      <c r="R38" s="1" t="inlineStr">
+        <is>
+          <t>Jul 18 1:40PM CST</t>
+        </is>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z38" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t xml:space="preserve">Compras </t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
+          <t>FORD RANGER 2011</t>
         </is>
       </c>
       <c r="D39" s="10" t="inlineStr">
@@ -5444,17 +5360,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diego Cardenas </t>
+          <t>Jonathan Alvarez</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D40" s="10" t="inlineStr">
